--- a/doc/equip/equiptype.xlsx
+++ b/doc/equip/equiptype.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GuoMuoRuoProject\doc\worldview and mechanics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GuoMuoRuoProject\doc\equip\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC659BE8-FBA6-4B1B-8551-683C3ECDA021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1029A9B3-C62E-4F0C-8CBE-AC5144FFDAB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{B0E1D12B-1F04-41E9-8B75-93C9959A356D}"/>
+    <workbookView xWindow="-83" yWindow="0" windowWidth="10965" windowHeight="12863" xr2:uid="{B0E1D12B-1F04-41E9-8B75-93C9959A356D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$P$91</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$AG$91</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -763,10 +763,10 @@
   <dimension ref="A1:AG91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P29" sqref="P29"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -906,2557 +906,2605 @@
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>98</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
       </c>
       <c r="P3" s="1">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="Q3" s="1">
         <f>B3*B$1</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" s="1">
-        <f t="shared" ref="R3:AE3" si="1">C3*C$1</f>
+        <f>C3*C$1</f>
         <v>0</v>
       </c>
       <c r="S3" s="1">
-        <f t="shared" si="1"/>
+        <f>D3*D$1</f>
         <v>0</v>
       </c>
       <c r="T3" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>E3*E$1</f>
+        <v>8192</v>
       </c>
       <c r="U3" s="1">
-        <f t="shared" si="1"/>
+        <f>F3*F$1</f>
         <v>0</v>
       </c>
       <c r="V3" s="1">
-        <f t="shared" si="1"/>
+        <f>G3*G$1</f>
         <v>0</v>
       </c>
       <c r="W3" s="1">
-        <f t="shared" si="1"/>
+        <f>H3*H$1</f>
         <v>0</v>
       </c>
       <c r="X3" s="1">
-        <f t="shared" si="1"/>
+        <f>I3*I$1</f>
         <v>0</v>
       </c>
       <c r="Y3" s="1">
-        <f t="shared" si="1"/>
+        <f>J3*J$1</f>
         <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <f t="shared" si="1"/>
+        <f>K3*K$1</f>
         <v>0</v>
       </c>
       <c r="AA3" s="1">
-        <f t="shared" si="1"/>
+        <f>L3*L$1</f>
         <v>0</v>
       </c>
       <c r="AB3" s="1">
-        <f t="shared" si="1"/>
+        <f>M3*M$1</f>
         <v>0</v>
       </c>
       <c r="AC3" s="1">
-        <f t="shared" si="1"/>
+        <f>N3*N$1</f>
         <v>0</v>
       </c>
       <c r="AD3" s="1">
-        <f t="shared" si="1"/>
+        <f>O3*O$1</f>
         <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <f t="shared" si="1"/>
-        <v>65536</v>
+        <f>P3*P$1</f>
+        <v>1638400</v>
       </c>
       <c r="AF3" s="1">
         <f>SUM(Q3:AE3)</f>
-        <v>65536</v>
+        <v>1646593</v>
       </c>
       <c r="AG3" s="1" t="str">
         <f>DEC2HEX(AF3)</f>
-        <v>10000</v>
+        <v>192001</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="1">
-        <v>2</v>
+        <v>91</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
       </c>
       <c r="P4" s="1">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="Q4" s="1">
-        <f t="shared" ref="Q4:Q23" si="2">B4*B$1</f>
-        <v>2</v>
+        <f>B4*B$1</f>
+        <v>0</v>
       </c>
       <c r="R4" s="1">
-        <f t="shared" ref="R4:R23" si="3">C4*C$1</f>
+        <f>C4*C$1</f>
         <v>0</v>
       </c>
       <c r="S4" s="1">
-        <f t="shared" ref="S4:S23" si="4">D4*D$1</f>
+        <f>D4*D$1</f>
         <v>0</v>
       </c>
       <c r="T4" s="1">
-        <f t="shared" ref="T4:T23" si="5">E4*E$1</f>
-        <v>0</v>
+        <f>E4*E$1</f>
+        <v>8192</v>
       </c>
       <c r="U4" s="1">
-        <f t="shared" ref="U4:U23" si="6">F4*F$1</f>
+        <f>F4*F$1</f>
         <v>0</v>
       </c>
       <c r="V4" s="1">
-        <f t="shared" ref="V4:V23" si="7">G4*G$1</f>
+        <f>G4*G$1</f>
         <v>0</v>
       </c>
       <c r="W4" s="1">
-        <f t="shared" ref="W4:W23" si="8">H4*H$1</f>
+        <f>H4*H$1</f>
         <v>0</v>
       </c>
       <c r="X4" s="1">
-        <f t="shared" ref="X4:X23" si="9">I4*I$1</f>
+        <f>I4*I$1</f>
         <v>0</v>
       </c>
       <c r="Y4" s="1">
-        <f t="shared" ref="Y4:Y23" si="10">J4*J$1</f>
+        <f>J4*J$1</f>
         <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <f t="shared" ref="Z4:Z23" si="11">K4*K$1</f>
+        <f>K4*K$1</f>
         <v>0</v>
       </c>
       <c r="AA4" s="1">
-        <f t="shared" ref="AA4:AA23" si="12">L4*L$1</f>
+        <f>L4*L$1</f>
         <v>0</v>
       </c>
       <c r="AB4" s="1">
-        <f t="shared" ref="AB4:AB23" si="13">M4*M$1</f>
+        <f>M4*M$1</f>
         <v>0</v>
       </c>
       <c r="AC4" s="1">
-        <f t="shared" ref="AC4:AC23" si="14">N4*N$1</f>
+        <f>N4*N$1</f>
         <v>0</v>
       </c>
       <c r="AD4" s="1">
-        <f t="shared" ref="AD4:AD29" si="15">O4*O$1</f>
+        <f>O4*O$1</f>
         <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <f t="shared" ref="AE4:AE29" si="16">P4*P$1</f>
-        <v>131072</v>
+        <f>P4*P$1</f>
+        <v>1966080</v>
       </c>
       <c r="AF4" s="1">
-        <f t="shared" ref="AF4:AF84" si="17">SUM(Q4:AE4)</f>
-        <v>131074</v>
+        <f>SUM(Q4:AE4)</f>
+        <v>1974272</v>
       </c>
       <c r="AG4" s="1" t="str">
-        <f t="shared" ref="AG4:AG85" si="18">DEC2HEX(AF4)</f>
-        <v>20002</v>
+        <f>DEC2HEX(AF4)</f>
+        <v>1E2000</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="1">
+        <v>90</v>
+      </c>
+      <c r="E5" s="1">
         <v>1</v>
       </c>
       <c r="P5" s="1">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="Q5" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f>B5*B$1</f>
+        <v>0</v>
       </c>
       <c r="R5" s="1">
-        <f t="shared" si="3"/>
+        <f>C5*C$1</f>
         <v>0</v>
       </c>
       <c r="S5" s="1">
-        <f t="shared" si="4"/>
+        <f>D5*D$1</f>
         <v>0</v>
       </c>
       <c r="T5" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>E5*E$1</f>
+        <v>8192</v>
       </c>
       <c r="U5" s="1">
-        <f t="shared" si="6"/>
+        <f>F5*F$1</f>
         <v>0</v>
       </c>
       <c r="V5" s="1">
-        <f t="shared" si="7"/>
+        <f>G5*G$1</f>
         <v>0</v>
       </c>
       <c r="W5" s="1">
-        <f t="shared" si="8"/>
+        <f>H5*H$1</f>
         <v>0</v>
       </c>
       <c r="X5" s="1">
-        <f t="shared" si="9"/>
+        <f>I5*I$1</f>
         <v>0</v>
       </c>
       <c r="Y5" s="1">
-        <f t="shared" si="10"/>
+        <f>J5*J$1</f>
         <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <f t="shared" si="11"/>
+        <f>K5*K$1</f>
         <v>0</v>
       </c>
       <c r="AA5" s="1">
-        <f t="shared" si="12"/>
+        <f>L5*L$1</f>
         <v>0</v>
       </c>
       <c r="AB5" s="1">
-        <f t="shared" si="13"/>
+        <f>M5*M$1</f>
         <v>0</v>
       </c>
       <c r="AC5" s="1">
-        <f t="shared" si="14"/>
+        <f>N5*N$1</f>
         <v>0</v>
       </c>
       <c r="AD5" s="1">
-        <f t="shared" si="15"/>
+        <f>O5*O$1</f>
         <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <f t="shared" si="16"/>
-        <v>131072</v>
+        <f>P5*P$1</f>
+        <v>1638400</v>
       </c>
       <c r="AF5" s="1">
-        <f t="shared" si="17"/>
-        <v>131073</v>
+        <f>SUM(Q5:AE5)</f>
+        <v>1646592</v>
       </c>
       <c r="AG5" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>20001</v>
+        <f>DEC2HEX(AF5)</f>
+        <v>192000</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="P6" s="1">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="1">
-        <f t="shared" si="2"/>
+        <f>B6*B$1</f>
         <v>0</v>
       </c>
       <c r="R6" s="1">
-        <f t="shared" si="3"/>
+        <f>C6*C$1</f>
         <v>0</v>
       </c>
       <c r="S6" s="1">
-        <f t="shared" si="4"/>
+        <f>D6*D$1</f>
         <v>0</v>
       </c>
       <c r="T6" s="1">
-        <f t="shared" si="5"/>
+        <f>E6*E$1</f>
         <v>0</v>
       </c>
       <c r="U6" s="1">
-        <f t="shared" si="6"/>
+        <f>F6*F$1</f>
         <v>0</v>
       </c>
       <c r="V6" s="1">
-        <f t="shared" si="7"/>
+        <f>G6*G$1</f>
         <v>0</v>
       </c>
       <c r="W6" s="1">
-        <f t="shared" si="8"/>
+        <f>H6*H$1</f>
         <v>0</v>
       </c>
       <c r="X6" s="1">
-        <f t="shared" si="9"/>
+        <f>I6*I$1</f>
         <v>0</v>
       </c>
       <c r="Y6" s="1">
-        <f t="shared" si="10"/>
+        <f>J6*J$1</f>
         <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <f t="shared" si="11"/>
+        <f>K6*K$1</f>
         <v>0</v>
       </c>
       <c r="AA6" s="1">
-        <f t="shared" si="12"/>
+        <f>L6*L$1</f>
         <v>0</v>
       </c>
       <c r="AB6" s="1">
-        <f t="shared" si="13"/>
+        <f>M6*M$1</f>
         <v>0</v>
       </c>
       <c r="AC6" s="1">
-        <f t="shared" si="14"/>
+        <f>N6*N$1</f>
         <v>0</v>
       </c>
       <c r="AD6" s="1">
-        <f t="shared" si="15"/>
+        <f>O6*O$1</f>
         <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <f t="shared" si="16"/>
-        <v>196608</v>
+        <f>P6*P$1</f>
+        <v>1376256</v>
       </c>
       <c r="AF6" s="1">
-        <f t="shared" si="17"/>
-        <v>196608</v>
+        <f>SUM(Q6:AE6)</f>
+        <v>1376256</v>
       </c>
       <c r="AG6" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>30000</v>
+        <f>DEC2HEX(AF6)</f>
+        <v>150000</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="1">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="P7" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Q7" s="1">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f>B7*B$1</f>
+        <v>0</v>
       </c>
       <c r="R7" s="1">
-        <f t="shared" ref="R7" si="19">C7*C$1</f>
+        <f>C7*C$1</f>
         <v>0</v>
       </c>
       <c r="S7" s="1">
-        <f t="shared" ref="S7" si="20">D7*D$1</f>
+        <f>D7*D$1</f>
         <v>0</v>
       </c>
       <c r="T7" s="1">
-        <f t="shared" ref="T7" si="21">E7*E$1</f>
+        <f>E7*E$1</f>
         <v>0</v>
       </c>
       <c r="U7" s="1">
-        <f t="shared" ref="U7" si="22">F7*F$1</f>
+        <f>F7*F$1</f>
         <v>0</v>
       </c>
       <c r="V7" s="1">
-        <f t="shared" ref="V7" si="23">G7*G$1</f>
+        <f>G7*G$1</f>
         <v>0</v>
       </c>
       <c r="W7" s="1">
-        <f t="shared" ref="W7" si="24">H7*H$1</f>
+        <f>H7*H$1</f>
         <v>0</v>
       </c>
       <c r="X7" s="1">
-        <f t="shared" ref="X7" si="25">I7*I$1</f>
+        <f>I7*I$1</f>
         <v>0</v>
       </c>
       <c r="Y7" s="1">
-        <f t="shared" ref="Y7" si="26">J7*J$1</f>
+        <f>J7*J$1</f>
         <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <f t="shared" ref="Z7" si="27">K7*K$1</f>
+        <f>K7*K$1</f>
         <v>0</v>
       </c>
       <c r="AA7" s="1">
-        <f t="shared" ref="AA7" si="28">L7*L$1</f>
+        <f>L7*L$1</f>
         <v>0</v>
       </c>
       <c r="AB7" s="1">
-        <f t="shared" ref="AB7" si="29">M7*M$1</f>
+        <f>M7*M$1</f>
         <v>0</v>
       </c>
       <c r="AC7" s="1">
-        <f t="shared" ref="AC7" si="30">N7*N$1</f>
+        <f>N7*N$1</f>
         <v>0</v>
       </c>
       <c r="AD7" s="1">
-        <f t="shared" ref="AD7" si="31">O7*O$1</f>
+        <f>O7*O$1</f>
         <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <f t="shared" ref="AE7" si="32">P7*P$1</f>
-        <v>262144</v>
+        <f>P7*P$1</f>
+        <v>524288</v>
       </c>
       <c r="AF7" s="1">
-        <f t="shared" ref="AF7" si="33">SUM(Q7:AE7)</f>
-        <v>262146</v>
+        <f>SUM(Q7:AE7)</f>
+        <v>524288</v>
       </c>
       <c r="AG7" s="1" t="str">
-        <f t="shared" ref="AG7" si="34">DEC2HEX(AF7)</f>
-        <v>40002</v>
+        <f>DEC2HEX(AF7)</f>
+        <v>80000</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="P8" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Q8" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f>B8*B$1</f>
+        <v>0</v>
       </c>
       <c r="R8" s="1">
-        <f t="shared" si="3"/>
+        <f>C8*C$1</f>
         <v>0</v>
       </c>
       <c r="S8" s="1">
-        <f t="shared" si="4"/>
+        <f>D8*D$1</f>
         <v>0</v>
       </c>
       <c r="T8" s="1">
-        <f t="shared" si="5"/>
+        <f>E8*E$1</f>
         <v>0</v>
       </c>
       <c r="U8" s="1">
-        <f t="shared" si="6"/>
+        <f>F8*F$1</f>
         <v>0</v>
       </c>
       <c r="V8" s="1">
-        <f t="shared" si="7"/>
+        <f>G8*G$1</f>
         <v>0</v>
       </c>
       <c r="W8" s="1">
-        <f t="shared" si="8"/>
+        <f>H8*H$1</f>
         <v>0</v>
       </c>
       <c r="X8" s="1">
-        <f t="shared" si="9"/>
+        <f>I8*I$1</f>
         <v>0</v>
       </c>
       <c r="Y8" s="1">
-        <f t="shared" si="10"/>
+        <f>J8*J$1</f>
         <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <f t="shared" si="11"/>
+        <f>K8*K$1</f>
         <v>0</v>
       </c>
       <c r="AA8" s="1">
-        <f t="shared" si="12"/>
+        <f>L8*L$1</f>
         <v>0</v>
       </c>
       <c r="AB8" s="1">
-        <f t="shared" si="13"/>
+        <f>M8*M$1</f>
         <v>0</v>
       </c>
       <c r="AC8" s="1">
-        <f t="shared" si="14"/>
+        <f>N8*N$1</f>
         <v>0</v>
       </c>
       <c r="AD8" s="1">
-        <f t="shared" si="15"/>
+        <f>O8*O$1</f>
         <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <f t="shared" si="16"/>
-        <v>262144</v>
+        <f>P8*P$1</f>
+        <v>458752</v>
       </c>
       <c r="AF8" s="1">
-        <f t="shared" si="17"/>
-        <v>262145</v>
+        <f>SUM(Q8:AE8)</f>
+        <v>458752</v>
       </c>
       <c r="AG8" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>40001</v>
+        <f>DEC2HEX(AF8)</f>
+        <v>70000</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B9" s="1">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="P9" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q9" s="1">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f>B9*B$1</f>
+        <v>0</v>
       </c>
       <c r="R9" s="1">
-        <f t="shared" si="3"/>
+        <f>C9*C$1</f>
         <v>0</v>
       </c>
       <c r="S9" s="1">
-        <f t="shared" si="4"/>
+        <f>D9*D$1</f>
         <v>0</v>
       </c>
       <c r="T9" s="1">
-        <f t="shared" si="5"/>
+        <f>E9*E$1</f>
         <v>0</v>
       </c>
       <c r="U9" s="1">
-        <f t="shared" si="6"/>
+        <f>F9*F$1</f>
         <v>0</v>
       </c>
       <c r="V9" s="1">
-        <f t="shared" si="7"/>
+        <f>G9*G$1</f>
         <v>0</v>
       </c>
       <c r="W9" s="1">
-        <f t="shared" si="8"/>
+        <f>H9*H$1</f>
         <v>0</v>
       </c>
       <c r="X9" s="1">
-        <f t="shared" si="9"/>
+        <f>I9*I$1</f>
         <v>0</v>
       </c>
       <c r="Y9" s="1">
-        <f t="shared" si="10"/>
+        <f>J9*J$1</f>
         <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <f t="shared" si="11"/>
+        <f>K9*K$1</f>
         <v>0</v>
       </c>
       <c r="AA9" s="1">
-        <f t="shared" si="12"/>
+        <f>L9*L$1</f>
         <v>0</v>
       </c>
       <c r="AB9" s="1">
-        <f t="shared" si="13"/>
+        <f>M9*M$1</f>
         <v>0</v>
       </c>
       <c r="AC9" s="1">
-        <f t="shared" si="14"/>
+        <f>N9*N$1</f>
         <v>0</v>
       </c>
       <c r="AD9" s="1">
-        <f t="shared" si="15"/>
+        <f>O9*O$1</f>
         <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <f t="shared" si="16"/>
-        <v>262144</v>
+        <f>P9*P$1</f>
+        <v>393216</v>
       </c>
       <c r="AF9" s="1">
-        <f t="shared" si="17"/>
-        <v>262147</v>
+        <f>SUM(Q9:AE9)</f>
+        <v>393216</v>
       </c>
       <c r="AG9" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>40003</v>
+        <f>DEC2HEX(AF9)</f>
+        <v>60000</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="P10" s="1">
-        <v>5</v>
+        <v>15</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+      <c r="M10" s="1">
+        <v>1</v>
       </c>
       <c r="Q10" s="1">
-        <f t="shared" si="2"/>
+        <f>B10*B$1</f>
         <v>0</v>
       </c>
       <c r="R10" s="1">
-        <f t="shared" si="3"/>
+        <f>C10*C$1</f>
         <v>0</v>
       </c>
       <c r="S10" s="1">
-        <f t="shared" ref="S10" si="35">D10*D$1</f>
+        <f>D10*D$1</f>
         <v>0</v>
       </c>
       <c r="T10" s="1">
-        <f t="shared" ref="T10" si="36">E10*E$1</f>
+        <f>E10*E$1</f>
         <v>0</v>
       </c>
       <c r="U10" s="1">
-        <f t="shared" ref="U10" si="37">F10*F$1</f>
+        <f>F10*F$1</f>
         <v>0</v>
       </c>
       <c r="V10" s="1">
-        <f t="shared" ref="V10" si="38">G10*G$1</f>
+        <f>G10*G$1</f>
         <v>0</v>
       </c>
       <c r="W10" s="1">
-        <f t="shared" ref="W10" si="39">H10*H$1</f>
+        <f>H10*H$1</f>
         <v>0</v>
       </c>
       <c r="X10" s="1">
-        <f t="shared" ref="X10" si="40">I10*I$1</f>
-        <v>0</v>
+        <f>I10*I$1</f>
+        <v>512</v>
       </c>
       <c r="Y10" s="1">
-        <f t="shared" ref="Y10" si="41">J10*J$1</f>
-        <v>0</v>
+        <f>J10*J$1</f>
+        <v>256</v>
       </c>
       <c r="Z10" s="1">
-        <f t="shared" ref="Z10" si="42">K10*K$1</f>
+        <f>K10*K$1</f>
         <v>0</v>
       </c>
       <c r="AA10" s="1">
-        <f t="shared" ref="AA10" si="43">L10*L$1</f>
+        <f>L10*L$1</f>
         <v>0</v>
       </c>
       <c r="AB10" s="1">
-        <f t="shared" ref="AB10" si="44">M10*M$1</f>
-        <v>0</v>
+        <f>M10*M$1</f>
+        <v>32</v>
       </c>
       <c r="AC10" s="1">
-        <f t="shared" ref="AC10" si="45">N10*N$1</f>
+        <f>N10*N$1</f>
         <v>0</v>
       </c>
       <c r="AD10" s="1">
-        <f t="shared" ref="AD10" si="46">O10*O$1</f>
+        <f>O10*O$1</f>
         <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <f t="shared" ref="AE10" si="47">P10*P$1</f>
-        <v>327680</v>
+        <f>P10*P$1</f>
+        <v>0</v>
       </c>
       <c r="AF10" s="1">
-        <f t="shared" ref="AF10" si="48">SUM(Q10:AE10)</f>
-        <v>327680</v>
+        <f>SUM(Q10:AE10)</f>
+        <v>800</v>
       </c>
       <c r="AG10" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>50000</v>
+        <f>DEC2HEX(AF10)</f>
+        <v>320</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P11" s="1">
-        <v>6</v>
+        <v>89</v>
+      </c>
+      <c r="B11" s="1">
+        <v>5</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
+      <c r="M11" s="1">
+        <v>1</v>
       </c>
       <c r="Q11" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>B11*B$1</f>
+        <v>5</v>
       </c>
       <c r="R11" s="1">
-        <f t="shared" si="3"/>
+        <f>C11*C$1</f>
         <v>0</v>
       </c>
       <c r="S11" s="1">
-        <f t="shared" si="4"/>
+        <f>D11*D$1</f>
         <v>0</v>
       </c>
       <c r="T11" s="1">
-        <f t="shared" si="5"/>
+        <f>E11*E$1</f>
         <v>0</v>
       </c>
       <c r="U11" s="1">
-        <f t="shared" si="6"/>
+        <f>F11*F$1</f>
         <v>0</v>
       </c>
       <c r="V11" s="1">
-        <f t="shared" si="7"/>
+        <f>G11*G$1</f>
         <v>0</v>
       </c>
       <c r="W11" s="1">
-        <f t="shared" si="8"/>
+        <f>H11*H$1</f>
         <v>0</v>
       </c>
       <c r="X11" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f>I11*I$1</f>
+        <v>512</v>
       </c>
       <c r="Y11" s="1">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f>J11*J$1</f>
+        <v>256</v>
       </c>
       <c r="Z11" s="1">
-        <f t="shared" si="11"/>
+        <f>K11*K$1</f>
         <v>0</v>
       </c>
       <c r="AA11" s="1">
-        <f t="shared" si="12"/>
+        <f>L11*L$1</f>
         <v>0</v>
       </c>
       <c r="AB11" s="1">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f>M11*M$1</f>
+        <v>32</v>
       </c>
       <c r="AC11" s="1">
-        <f t="shared" si="14"/>
+        <f>N11*N$1</f>
         <v>0</v>
       </c>
       <c r="AD11" s="1">
-        <f t="shared" si="15"/>
+        <f>O11*O$1</f>
         <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <f t="shared" si="16"/>
-        <v>393216</v>
+        <f>P11*P$1</f>
+        <v>0</v>
       </c>
       <c r="AF11" s="1">
-        <f t="shared" si="17"/>
-        <v>393216</v>
+        <f>SUM(Q11:AE11)</f>
+        <v>805</v>
       </c>
       <c r="AG11" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>60000</v>
+        <f>DEC2HEX(AF11)</f>
+        <v>325</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="P12" s="1">
-        <v>7</v>
+        <v>16</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1</v>
+      </c>
+      <c r="M12" s="1">
+        <v>1</v>
       </c>
       <c r="Q12" s="1">
-        <f t="shared" si="2"/>
+        <f>B12*B$1</f>
         <v>0</v>
       </c>
       <c r="R12" s="1">
-        <f t="shared" si="3"/>
+        <f>C12*C$1</f>
         <v>0</v>
       </c>
       <c r="S12" s="1">
-        <f t="shared" si="4"/>
+        <f>D12*D$1</f>
         <v>0</v>
       </c>
       <c r="T12" s="1">
-        <f t="shared" si="5"/>
+        <f>E12*E$1</f>
         <v>0</v>
       </c>
       <c r="U12" s="1">
-        <f t="shared" si="6"/>
+        <f>F12*F$1</f>
         <v>0</v>
       </c>
       <c r="V12" s="1">
-        <f t="shared" si="7"/>
+        <f>G12*G$1</f>
         <v>0</v>
       </c>
       <c r="W12" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f>H12*H$1</f>
+        <v>1024</v>
       </c>
       <c r="X12" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f>I12*I$1</f>
+        <v>512</v>
       </c>
       <c r="Y12" s="1">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f>J12*J$1</f>
+        <v>256</v>
       </c>
       <c r="Z12" s="1">
-        <f t="shared" si="11"/>
+        <f>K12*K$1</f>
         <v>0</v>
       </c>
       <c r="AA12" s="1">
-        <f t="shared" si="12"/>
+        <f>L12*L$1</f>
         <v>0</v>
       </c>
       <c r="AB12" s="1">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f>M12*M$1</f>
+        <v>32</v>
       </c>
       <c r="AC12" s="1">
-        <f t="shared" si="14"/>
+        <f>N12*N$1</f>
         <v>0</v>
       </c>
       <c r="AD12" s="1">
-        <f t="shared" si="15"/>
+        <f>O12*O$1</f>
         <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <f t="shared" si="16"/>
-        <v>458752</v>
+        <f>P12*P$1</f>
+        <v>0</v>
       </c>
       <c r="AF12" s="1">
-        <f t="shared" si="17"/>
-        <v>458752</v>
+        <f>SUM(Q12:AE12)</f>
+        <v>1824</v>
       </c>
       <c r="AG12" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>70000</v>
+        <f>DEC2HEX(AF12)</f>
+        <v>720</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="P13" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Q13" s="1">
-        <f t="shared" si="2"/>
+        <f>B13*B$1</f>
         <v>0</v>
       </c>
       <c r="R13" s="1">
-        <f t="shared" ref="R13" si="49">C13*C$1</f>
+        <f>C13*C$1</f>
         <v>0</v>
       </c>
       <c r="S13" s="1">
-        <f t="shared" ref="S13" si="50">D13*D$1</f>
+        <f>D13*D$1</f>
         <v>0</v>
       </c>
       <c r="T13" s="1">
-        <f t="shared" ref="T13" si="51">E13*E$1</f>
+        <f>E13*E$1</f>
         <v>0</v>
       </c>
       <c r="U13" s="1">
-        <f t="shared" ref="U13" si="52">F13*F$1</f>
+        <f>F13*F$1</f>
         <v>0</v>
       </c>
       <c r="V13" s="1">
-        <f t="shared" ref="V13" si="53">G13*G$1</f>
+        <f>G13*G$1</f>
         <v>0</v>
       </c>
       <c r="W13" s="1">
-        <f t="shared" ref="W13" si="54">H13*H$1</f>
+        <f>H13*H$1</f>
         <v>0</v>
       </c>
       <c r="X13" s="1">
-        <f t="shared" ref="X13" si="55">I13*I$1</f>
+        <f>I13*I$1</f>
         <v>0</v>
       </c>
       <c r="Y13" s="1">
-        <f t="shared" ref="Y13" si="56">J13*J$1</f>
+        <f>J13*J$1</f>
         <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <f t="shared" ref="Z13" si="57">K13*K$1</f>
+        <f>K13*K$1</f>
         <v>0</v>
       </c>
       <c r="AA13" s="1">
-        <f t="shared" ref="AA13" si="58">L13*L$1</f>
+        <f>L13*L$1</f>
         <v>0</v>
       </c>
       <c r="AB13" s="1">
-        <f t="shared" ref="AB13" si="59">M13*M$1</f>
+        <f>M13*M$1</f>
         <v>0</v>
       </c>
       <c r="AC13" s="1">
-        <f t="shared" ref="AC13" si="60">N13*N$1</f>
+        <f>N13*N$1</f>
         <v>0</v>
       </c>
       <c r="AD13" s="1">
-        <f t="shared" ref="AD13" si="61">O13*O$1</f>
+        <f>O13*O$1</f>
         <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <f t="shared" ref="AE13" si="62">P13*P$1</f>
-        <v>524288</v>
+        <f>P13*P$1</f>
+        <v>327680</v>
       </c>
       <c r="AF13" s="1">
-        <f t="shared" ref="AF13" si="63">SUM(Q13:AE13)</f>
-        <v>524288</v>
+        <f>SUM(Q13:AE13)</f>
+        <v>327680</v>
       </c>
       <c r="AG13" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>80000</v>
+        <f>DEC2HEX(AF13)</f>
+        <v>50000</v>
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="P14" s="1">
-        <v>9</v>
+        <v>62</v>
+      </c>
+      <c r="B14" s="1">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
       </c>
       <c r="Q14" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>B14*B$1</f>
+        <v>4</v>
       </c>
       <c r="R14" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>C14*C$1</f>
+        <v>32768</v>
       </c>
       <c r="S14" s="1">
-        <f t="shared" si="4"/>
+        <f>D14*D$1</f>
         <v>0</v>
       </c>
       <c r="T14" s="1">
-        <f t="shared" si="5"/>
+        <f>E14*E$1</f>
         <v>0</v>
       </c>
       <c r="U14" s="1">
-        <f t="shared" si="6"/>
+        <f>F14*F$1</f>
         <v>0</v>
       </c>
       <c r="V14" s="1">
-        <f t="shared" si="7"/>
+        <f>G14*G$1</f>
         <v>0</v>
       </c>
       <c r="W14" s="1">
-        <f t="shared" si="8"/>
+        <f>H14*H$1</f>
         <v>0</v>
       </c>
       <c r="X14" s="1">
-        <f t="shared" si="9"/>
+        <f>I14*I$1</f>
         <v>0</v>
       </c>
       <c r="Y14" s="1">
-        <f t="shared" si="10"/>
+        <f>J14*J$1</f>
         <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <f t="shared" si="11"/>
+        <f>K14*K$1</f>
         <v>0</v>
       </c>
       <c r="AA14" s="1">
-        <f t="shared" si="12"/>
+        <f>L14*L$1</f>
         <v>0</v>
       </c>
       <c r="AB14" s="1">
-        <f t="shared" si="13"/>
+        <f>M14*M$1</f>
         <v>0</v>
       </c>
       <c r="AC14" s="1">
-        <f t="shared" si="14"/>
+        <f>N14*N$1</f>
         <v>0</v>
       </c>
       <c r="AD14" s="1">
-        <f t="shared" si="15"/>
+        <f>O14*O$1</f>
         <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <f t="shared" si="16"/>
-        <v>589824</v>
+        <f>P14*P$1</f>
+        <v>0</v>
       </c>
       <c r="AF14" s="1">
-        <f t="shared" si="17"/>
-        <v>589824</v>
+        <f>SUM(Q14:AE14)</f>
+        <v>32772</v>
       </c>
       <c r="AG14" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>90000</v>
+        <f>DEC2HEX(AF14)</f>
+        <v>8004</v>
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="P15" s="1">
-        <v>10</v>
+        <v>18</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1</v>
       </c>
       <c r="Q15" s="1">
-        <f t="shared" si="2"/>
+        <f>B15*B$1</f>
         <v>0</v>
       </c>
       <c r="R15" s="1">
-        <f t="shared" si="3"/>
+        <f>C15*C$1</f>
         <v>0</v>
       </c>
       <c r="S15" s="1">
-        <f t="shared" si="4"/>
+        <f>D15*D$1</f>
         <v>0</v>
       </c>
       <c r="T15" s="1">
-        <f t="shared" si="5"/>
+        <f>E15*E$1</f>
         <v>0</v>
       </c>
       <c r="U15" s="1">
-        <f t="shared" si="6"/>
+        <f>F15*F$1</f>
         <v>0</v>
       </c>
       <c r="V15" s="1">
-        <f t="shared" si="7"/>
+        <f>G15*G$1</f>
         <v>0</v>
       </c>
       <c r="W15" s="1">
-        <f t="shared" si="8"/>
+        <f>H15*H$1</f>
         <v>0</v>
       </c>
       <c r="X15" s="1">
-        <f t="shared" si="9"/>
+        <f>I15*I$1</f>
         <v>0</v>
       </c>
       <c r="Y15" s="1">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f>J15*J$1</f>
+        <v>256</v>
       </c>
       <c r="Z15" s="1">
-        <f t="shared" si="11"/>
+        <f>K15*K$1</f>
         <v>0</v>
       </c>
       <c r="AA15" s="1">
-        <f t="shared" si="12"/>
+        <f>L15*L$1</f>
         <v>0</v>
       </c>
       <c r="AB15" s="1">
-        <f t="shared" si="13"/>
+        <f>M15*M$1</f>
         <v>0</v>
       </c>
       <c r="AC15" s="1">
-        <f t="shared" si="14"/>
+        <f>N15*N$1</f>
         <v>0</v>
       </c>
       <c r="AD15" s="1">
-        <f t="shared" si="15"/>
+        <f>O15*O$1</f>
         <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <f t="shared" si="16"/>
-        <v>655360</v>
+        <f>P15*P$1</f>
+        <v>0</v>
       </c>
       <c r="AF15" s="1">
-        <f t="shared" si="17"/>
-        <v>655360</v>
+        <f>SUM(Q15:AE15)</f>
+        <v>256</v>
       </c>
       <c r="AG15" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>A0000</v>
+        <f>DEC2HEX(AF15)</f>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="P16" s="1">
-        <v>11</v>
+        <v>19</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1</v>
       </c>
       <c r="Q16" s="1">
-        <f t="shared" si="2"/>
+        <f>B16*B$1</f>
         <v>0</v>
       </c>
       <c r="R16" s="1">
-        <f t="shared" si="3"/>
+        <f>C16*C$1</f>
         <v>0</v>
       </c>
       <c r="S16" s="1">
-        <f t="shared" si="4"/>
+        <f>D16*D$1</f>
         <v>0</v>
       </c>
       <c r="T16" s="1">
-        <f t="shared" si="5"/>
+        <f>E16*E$1</f>
         <v>0</v>
       </c>
       <c r="U16" s="1">
-        <f t="shared" si="6"/>
+        <f>F16*F$1</f>
         <v>0</v>
       </c>
       <c r="V16" s="1">
-        <f t="shared" si="7"/>
+        <f>G16*G$1</f>
         <v>0</v>
       </c>
       <c r="W16" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f>H16*H$1</f>
+        <v>1024</v>
       </c>
       <c r="X16" s="1">
-        <f t="shared" si="9"/>
+        <f>I16*I$1</f>
         <v>0</v>
       </c>
       <c r="Y16" s="1">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f>J16*J$1</f>
+        <v>256</v>
       </c>
       <c r="Z16" s="1">
-        <f t="shared" si="11"/>
+        <f>K16*K$1</f>
         <v>0</v>
       </c>
       <c r="AA16" s="1">
-        <f t="shared" si="12"/>
+        <f>L16*L$1</f>
         <v>0</v>
       </c>
       <c r="AB16" s="1">
-        <f t="shared" si="13"/>
+        <f>M16*M$1</f>
         <v>0</v>
       </c>
       <c r="AC16" s="1">
-        <f t="shared" si="14"/>
+        <f>N16*N$1</f>
         <v>0</v>
       </c>
       <c r="AD16" s="1">
-        <f t="shared" si="15"/>
+        <f>O16*O$1</f>
         <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <f t="shared" si="16"/>
-        <v>720896</v>
+        <f>P16*P$1</f>
+        <v>0</v>
       </c>
       <c r="AF16" s="1">
-        <f t="shared" si="17"/>
-        <v>720896</v>
+        <f>SUM(Q16:AE16)</f>
+        <v>1280</v>
       </c>
       <c r="AG16" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>B0000</v>
+        <f>DEC2HEX(AF16)</f>
+        <v>500</v>
       </c>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
-        <v>39</v>
+        <v>20</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1</v>
       </c>
       <c r="P17" s="1">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="Q17" s="1">
-        <f t="shared" si="2"/>
+        <f>B17*B$1</f>
         <v>0</v>
       </c>
       <c r="R17" s="1">
-        <f t="shared" si="3"/>
+        <f>C17*C$1</f>
         <v>0</v>
       </c>
       <c r="S17" s="1">
-        <f t="shared" si="4"/>
+        <f>D17*D$1</f>
         <v>0</v>
       </c>
       <c r="T17" s="1">
-        <f t="shared" si="5"/>
+        <f>E17*E$1</f>
         <v>0</v>
       </c>
       <c r="U17" s="1">
-        <f t="shared" si="6"/>
+        <f>F17*F$1</f>
         <v>0</v>
       </c>
       <c r="V17" s="1">
-        <f t="shared" si="7"/>
+        <f>G17*G$1</f>
         <v>0</v>
       </c>
       <c r="W17" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f>H17*H$1</f>
+        <v>1024</v>
       </c>
       <c r="X17" s="1">
-        <f t="shared" si="9"/>
+        <f>I17*I$1</f>
         <v>0</v>
       </c>
       <c r="Y17" s="1">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f>J17*J$1</f>
+        <v>256</v>
       </c>
       <c r="Z17" s="1">
-        <f t="shared" si="11"/>
+        <f>K17*K$1</f>
         <v>0</v>
       </c>
       <c r="AA17" s="1">
-        <f t="shared" si="12"/>
+        <f>L17*L$1</f>
         <v>0</v>
       </c>
       <c r="AB17" s="1">
-        <f t="shared" si="13"/>
+        <f>M17*M$1</f>
         <v>0</v>
       </c>
       <c r="AC17" s="1">
-        <f t="shared" si="14"/>
+        <f>N17*N$1</f>
         <v>0</v>
       </c>
       <c r="AD17" s="1">
-        <f t="shared" si="15"/>
+        <f>O17*O$1</f>
         <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <f t="shared" si="16"/>
-        <v>786432</v>
+        <f>P17*P$1</f>
+        <v>1835008</v>
       </c>
       <c r="AF17" s="1">
-        <f t="shared" si="17"/>
-        <v>786432</v>
+        <f>SUM(Q17:AE17)</f>
+        <v>1836288</v>
       </c>
       <c r="AG17" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>C0000</v>
+        <f>DEC2HEX(AF17)</f>
+        <v>1C0500</v>
       </c>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
-        <v>48</v>
+        <v>86</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1</v>
       </c>
       <c r="P18" s="1">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="Q18" s="1">
-        <f t="shared" ref="Q18" si="64">B18*B$1</f>
+        <f>B18*B$1</f>
         <v>0</v>
       </c>
       <c r="R18" s="1">
-        <f t="shared" ref="R18" si="65">C18*C$1</f>
+        <f>C18*C$1</f>
         <v>0</v>
       </c>
       <c r="S18" s="1">
-        <f t="shared" ref="S18" si="66">D18*D$1</f>
+        <f>D18*D$1</f>
         <v>0</v>
       </c>
       <c r="T18" s="1">
-        <f t="shared" ref="T18" si="67">E18*E$1</f>
+        <f>E18*E$1</f>
         <v>0</v>
       </c>
       <c r="U18" s="1">
-        <f t="shared" ref="U18" si="68">F18*F$1</f>
+        <f>F18*F$1</f>
         <v>0</v>
       </c>
       <c r="V18" s="1">
-        <f t="shared" ref="V18" si="69">G18*G$1</f>
+        <f>G18*G$1</f>
         <v>0</v>
       </c>
       <c r="W18" s="1">
-        <f t="shared" ref="W18" si="70">H18*H$1</f>
-        <v>0</v>
+        <f>H18*H$1</f>
+        <v>1024</v>
       </c>
       <c r="X18" s="1">
-        <f t="shared" ref="X18" si="71">I18*I$1</f>
+        <f>I18*I$1</f>
         <v>0</v>
       </c>
       <c r="Y18" s="1">
-        <f t="shared" ref="Y18" si="72">J18*J$1</f>
-        <v>0</v>
+        <f>J18*J$1</f>
+        <v>256</v>
       </c>
       <c r="Z18" s="1">
-        <f t="shared" ref="Z18" si="73">K18*K$1</f>
+        <f>K18*K$1</f>
         <v>0</v>
       </c>
       <c r="AA18" s="1">
-        <f t="shared" ref="AA18" si="74">L18*L$1</f>
+        <f>L18*L$1</f>
         <v>0</v>
       </c>
       <c r="AB18" s="1">
-        <f t="shared" ref="AB18" si="75">M18*M$1</f>
+        <f>M18*M$1</f>
         <v>0</v>
       </c>
       <c r="AC18" s="1">
-        <f t="shared" ref="AC18" si="76">N18*N$1</f>
+        <f>N18*N$1</f>
         <v>0</v>
       </c>
       <c r="AD18" s="1">
-        <f t="shared" ref="AD18" si="77">O18*O$1</f>
+        <f>O18*O$1</f>
         <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <f t="shared" ref="AE18" si="78">P18*P$1</f>
-        <v>851968</v>
+        <f>P18*P$1</f>
+        <v>1572864</v>
       </c>
       <c r="AF18" s="1">
-        <f t="shared" ref="AF18" si="79">SUM(Q18:AE18)</f>
-        <v>851968</v>
+        <f>SUM(Q18:AE18)</f>
+        <v>1574144</v>
       </c>
       <c r="AG18" s="1" t="str">
-        <f t="shared" ref="AG18" si="80">DEC2HEX(AF18)</f>
-        <v>D0000</v>
+        <f>DEC2HEX(AF18)</f>
+        <v>180500</v>
       </c>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
-        <v>49</v>
+        <v>99</v>
+      </c>
+      <c r="J19" s="1">
+        <v>1</v>
       </c>
       <c r="P19" s="1">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="Q19" s="1">
-        <f t="shared" si="2"/>
+        <f>B19*B$1</f>
         <v>0</v>
       </c>
       <c r="R19" s="1">
-        <f t="shared" si="3"/>
+        <f>C19*C$1</f>
         <v>0</v>
       </c>
       <c r="S19" s="1">
-        <f t="shared" si="4"/>
+        <f>D19*D$1</f>
         <v>0</v>
       </c>
       <c r="T19" s="1">
-        <f t="shared" si="5"/>
+        <f>E19*E$1</f>
         <v>0</v>
       </c>
       <c r="U19" s="1">
-        <f t="shared" si="6"/>
+        <f>F19*F$1</f>
         <v>0</v>
       </c>
       <c r="V19" s="1">
-        <f t="shared" si="7"/>
+        <f>G19*G$1</f>
         <v>0</v>
       </c>
       <c r="W19" s="1">
-        <f t="shared" si="8"/>
+        <f>H19*H$1</f>
         <v>0</v>
       </c>
       <c r="X19" s="1">
-        <f t="shared" si="9"/>
+        <f>I19*I$1</f>
         <v>0</v>
       </c>
       <c r="Y19" s="1">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f>J19*J$1</f>
+        <v>256</v>
       </c>
       <c r="Z19" s="1">
-        <f t="shared" si="11"/>
+        <f>K19*K$1</f>
         <v>0</v>
       </c>
       <c r="AA19" s="1">
-        <f t="shared" si="12"/>
+        <f>L19*L$1</f>
         <v>0</v>
       </c>
       <c r="AB19" s="1">
-        <f t="shared" si="13"/>
+        <f>M19*M$1</f>
         <v>0</v>
       </c>
       <c r="AC19" s="1">
-        <f t="shared" si="14"/>
+        <f>N19*N$1</f>
         <v>0</v>
       </c>
       <c r="AD19" s="1">
-        <f t="shared" si="15"/>
+        <f>O19*O$1</f>
         <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <f t="shared" si="16"/>
-        <v>917504</v>
+        <f>P19*P$1</f>
+        <v>1572864</v>
       </c>
       <c r="AF19" s="1">
-        <f t="shared" si="17"/>
-        <v>917504</v>
+        <f>SUM(Q19:AE19)</f>
+        <v>1573120</v>
       </c>
       <c r="AG19" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>E0000</v>
+        <f>DEC2HEX(AF19)</f>
+        <v>180100</v>
       </c>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" s="1">
-        <v>1</v>
-      </c>
-      <c r="P20" s="1">
-        <v>15</v>
+        <v>100</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1</v>
+      </c>
+      <c r="J20" s="1">
+        <v>1</v>
       </c>
       <c r="Q20" s="1">
-        <f t="shared" ref="Q20" si="81">B20*B$1</f>
-        <v>1</v>
+        <f>B20*B$1</f>
+        <v>0</v>
       </c>
       <c r="R20" s="1">
-        <f t="shared" ref="R20" si="82">C20*C$1</f>
+        <f>C20*C$1</f>
         <v>0</v>
       </c>
       <c r="S20" s="1">
-        <f t="shared" ref="S20" si="83">D20*D$1</f>
+        <f>D20*D$1</f>
         <v>0</v>
       </c>
       <c r="T20" s="1">
-        <f t="shared" ref="T20" si="84">E20*E$1</f>
+        <f>E20*E$1</f>
         <v>0</v>
       </c>
       <c r="U20" s="1">
-        <f t="shared" ref="U20" si="85">F20*F$1</f>
+        <f>F20*F$1</f>
         <v>0</v>
       </c>
       <c r="V20" s="1">
-        <f t="shared" ref="V20" si="86">G20*G$1</f>
+        <f>G20*G$1</f>
         <v>0</v>
       </c>
       <c r="W20" s="1">
-        <f t="shared" ref="W20" si="87">H20*H$1</f>
-        <v>0</v>
+        <f>H20*H$1</f>
+        <v>1024</v>
       </c>
       <c r="X20" s="1">
-        <f t="shared" ref="X20" si="88">I20*I$1</f>
-        <v>0</v>
+        <f>I20*I$1</f>
+        <v>512</v>
       </c>
       <c r="Y20" s="1">
-        <f t="shared" ref="Y20" si="89">J20*J$1</f>
-        <v>0</v>
+        <f>J20*J$1</f>
+        <v>256</v>
       </c>
       <c r="Z20" s="1">
-        <f t="shared" ref="Z20" si="90">K20*K$1</f>
+        <f>K20*K$1</f>
         <v>0</v>
       </c>
       <c r="AA20" s="1">
-        <f t="shared" ref="AA20" si="91">L20*L$1</f>
+        <f>L20*L$1</f>
         <v>0</v>
       </c>
       <c r="AB20" s="1">
-        <f t="shared" ref="AB20" si="92">M20*M$1</f>
+        <f>M20*M$1</f>
         <v>0</v>
       </c>
       <c r="AC20" s="1">
-        <f t="shared" ref="AC20" si="93">N20*N$1</f>
+        <f>N20*N$1</f>
         <v>0</v>
       </c>
       <c r="AD20" s="1">
-        <f t="shared" ref="AD20" si="94">O20*O$1</f>
+        <f>O20*O$1</f>
         <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <f t="shared" ref="AE20" si="95">P20*P$1</f>
-        <v>983040</v>
+        <f>P20*P$1</f>
+        <v>0</v>
       </c>
       <c r="AF20" s="1">
-        <f t="shared" ref="AF20" si="96">SUM(Q20:AE20)</f>
-        <v>983041</v>
+        <f>SUM(Q20:AE20)</f>
+        <v>1792</v>
       </c>
       <c r="AG20" s="1" t="str">
-        <f t="shared" ref="AG20" si="97">DEC2HEX(AF20)</f>
-        <v>F0001</v>
+        <f>DEC2HEX(AF20)</f>
+        <v>700</v>
       </c>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B21" s="1">
-        <v>3</v>
-      </c>
-      <c r="P21" s="1">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="I21" s="1">
+        <v>1</v>
       </c>
       <c r="Q21" s="1">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f>B21*B$1</f>
+        <v>0</v>
       </c>
       <c r="R21" s="1">
-        <f t="shared" si="3"/>
+        <f>C21*C$1</f>
         <v>0</v>
       </c>
       <c r="S21" s="1">
-        <f t="shared" si="4"/>
+        <f>D21*D$1</f>
         <v>0</v>
       </c>
       <c r="T21" s="1">
-        <f t="shared" si="5"/>
+        <f>E21*E$1</f>
         <v>0</v>
       </c>
       <c r="U21" s="1">
-        <f t="shared" si="6"/>
+        <f>F21*F$1</f>
         <v>0</v>
       </c>
       <c r="V21" s="1">
-        <f t="shared" si="7"/>
+        <f>G21*G$1</f>
         <v>0</v>
       </c>
       <c r="W21" s="1">
-        <f t="shared" si="8"/>
+        <f>H21*H$1</f>
         <v>0</v>
       </c>
       <c r="X21" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f>I21*I$1</f>
+        <v>512</v>
       </c>
       <c r="Y21" s="1">
-        <f t="shared" si="10"/>
+        <f>J21*J$1</f>
         <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <f t="shared" si="11"/>
+        <f>K21*K$1</f>
         <v>0</v>
       </c>
       <c r="AA21" s="1">
-        <f t="shared" si="12"/>
+        <f>L21*L$1</f>
         <v>0</v>
       </c>
       <c r="AB21" s="1">
-        <f t="shared" si="13"/>
+        <f>M21*M$1</f>
         <v>0</v>
       </c>
       <c r="AC21" s="1">
-        <f t="shared" si="14"/>
+        <f>N21*N$1</f>
         <v>0</v>
       </c>
       <c r="AD21" s="1">
-        <f t="shared" si="15"/>
+        <f>O21*O$1</f>
         <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <f t="shared" si="16"/>
-        <v>983040</v>
+        <f>P21*P$1</f>
+        <v>0</v>
       </c>
       <c r="AF21" s="1">
-        <f t="shared" si="17"/>
-        <v>983043</v>
+        <f>SUM(Q21:AE21)</f>
+        <v>512</v>
       </c>
       <c r="AG21" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>F0003</v>
+        <f>DEC2HEX(AF21)</f>
+        <v>200</v>
       </c>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="P22" s="1">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1</v>
+      </c>
+      <c r="J22" s="1">
+        <v>1</v>
       </c>
       <c r="Q22" s="1">
-        <f t="shared" si="2"/>
+        <f>B22*B$1</f>
         <v>0</v>
       </c>
       <c r="R22" s="1">
-        <f t="shared" si="3"/>
+        <f>C22*C$1</f>
         <v>0</v>
       </c>
       <c r="S22" s="1">
-        <f t="shared" si="4"/>
+        <f>D22*D$1</f>
         <v>0</v>
       </c>
       <c r="T22" s="1">
-        <f t="shared" si="5"/>
+        <f>E22*E$1</f>
         <v>0</v>
       </c>
       <c r="U22" s="1">
-        <f t="shared" si="6"/>
+        <f>F22*F$1</f>
         <v>0</v>
       </c>
       <c r="V22" s="1">
-        <f t="shared" si="7"/>
+        <f>G22*G$1</f>
         <v>0</v>
       </c>
       <c r="W22" s="1">
-        <f t="shared" si="8"/>
+        <f>H22*H$1</f>
         <v>0</v>
       </c>
       <c r="X22" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f>I22*I$1</f>
+        <v>512</v>
       </c>
       <c r="Y22" s="1">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f>J22*J$1</f>
+        <v>256</v>
       </c>
       <c r="Z22" s="1">
-        <f t="shared" si="11"/>
+        <f>K22*K$1</f>
         <v>0</v>
       </c>
       <c r="AA22" s="1">
-        <f t="shared" si="12"/>
+        <f>L22*L$1</f>
         <v>0</v>
       </c>
       <c r="AB22" s="1">
-        <f t="shared" si="13"/>
+        <f>M22*M$1</f>
         <v>0</v>
       </c>
       <c r="AC22" s="1">
-        <f t="shared" si="14"/>
+        <f>N22*N$1</f>
         <v>0</v>
       </c>
       <c r="AD22" s="1">
-        <f t="shared" si="15"/>
+        <f>O22*O$1</f>
         <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <f t="shared" si="16"/>
-        <v>1048576</v>
+        <f>P22*P$1</f>
+        <v>0</v>
       </c>
       <c r="AF22" s="1">
-        <f t="shared" si="17"/>
-        <v>1048576</v>
+        <f>SUM(Q22:AE22)</f>
+        <v>768</v>
       </c>
       <c r="AG22" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>100000</v>
+        <f>DEC2HEX(AF22)</f>
+        <v>300</v>
       </c>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="P23" s="1">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="H23" s="1">
+        <v>1</v>
+      </c>
+      <c r="I23" s="1">
+        <v>1</v>
       </c>
       <c r="Q23" s="1">
-        <f t="shared" si="2"/>
+        <f>B23*B$1</f>
         <v>0</v>
       </c>
       <c r="R23" s="1">
-        <f t="shared" si="3"/>
+        <f>C23*C$1</f>
         <v>0</v>
       </c>
       <c r="S23" s="1">
-        <f t="shared" si="4"/>
+        <f>D23*D$1</f>
         <v>0</v>
       </c>
       <c r="T23" s="1">
-        <f t="shared" si="5"/>
+        <f>E23*E$1</f>
         <v>0</v>
       </c>
       <c r="U23" s="1">
-        <f t="shared" si="6"/>
+        <f>F23*F$1</f>
         <v>0</v>
       </c>
       <c r="V23" s="1">
-        <f t="shared" si="7"/>
+        <f>G23*G$1</f>
         <v>0</v>
       </c>
       <c r="W23" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f>H23*H$1</f>
+        <v>1024</v>
       </c>
       <c r="X23" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f>I23*I$1</f>
+        <v>512</v>
       </c>
       <c r="Y23" s="1">
-        <f t="shared" si="10"/>
+        <f>J23*J$1</f>
         <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <f t="shared" si="11"/>
+        <f>K23*K$1</f>
         <v>0</v>
       </c>
       <c r="AA23" s="1">
-        <f t="shared" si="12"/>
+        <f>L23*L$1</f>
         <v>0</v>
       </c>
       <c r="AB23" s="1">
-        <f t="shared" si="13"/>
+        <f>M23*M$1</f>
         <v>0</v>
       </c>
       <c r="AC23" s="1">
-        <f t="shared" si="14"/>
+        <f>N23*N$1</f>
         <v>0</v>
       </c>
       <c r="AD23" s="1">
-        <f t="shared" si="15"/>
+        <f>O23*O$1</f>
         <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <f t="shared" si="16"/>
-        <v>1114112</v>
+        <f>P23*P$1</f>
+        <v>0</v>
       </c>
       <c r="AF23" s="1">
-        <f t="shared" si="17"/>
-        <v>1114112</v>
+        <f>SUM(Q23:AE23)</f>
+        <v>1536</v>
       </c>
       <c r="AG23" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>110000</v>
+        <f>DEC2HEX(AF23)</f>
+        <v>600</v>
       </c>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
-        <v>55</v>
+        <v>78</v>
+      </c>
+      <c r="I24" s="1">
+        <v>1</v>
       </c>
       <c r="P24" s="1">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="Q24" s="1">
-        <f t="shared" ref="Q24:Q84" si="98">B24*B$1</f>
+        <f>B24*B$1</f>
         <v>0</v>
       </c>
       <c r="R24" s="1">
-        <f t="shared" ref="R24:R84" si="99">C24*C$1</f>
+        <f>C24*C$1</f>
         <v>0</v>
       </c>
       <c r="S24" s="1">
-        <f t="shared" ref="S24:S84" si="100">D24*D$1</f>
+        <f>D24*D$1</f>
         <v>0</v>
       </c>
       <c r="T24" s="1">
-        <f t="shared" ref="T24:T84" si="101">E24*E$1</f>
+        <f>E24*E$1</f>
         <v>0</v>
       </c>
       <c r="U24" s="1">
-        <f t="shared" ref="U24:U84" si="102">F24*F$1</f>
+        <f>F24*F$1</f>
         <v>0</v>
       </c>
       <c r="V24" s="1">
-        <f t="shared" ref="V24:V84" si="103">G24*G$1</f>
+        <f>G24*G$1</f>
         <v>0</v>
       </c>
       <c r="W24" s="1">
-        <f t="shared" ref="W24:W84" si="104">H24*H$1</f>
+        <f>H24*H$1</f>
         <v>0</v>
       </c>
       <c r="X24" s="1">
-        <f t="shared" ref="X24:X84" si="105">I24*I$1</f>
-        <v>0</v>
+        <f>I24*I$1</f>
+        <v>512</v>
       </c>
       <c r="Y24" s="1">
-        <f t="shared" ref="Y24:Y84" si="106">J24*J$1</f>
+        <f>J24*J$1</f>
         <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <f t="shared" ref="Z24:Z84" si="107">K24*K$1</f>
+        <f>K24*K$1</f>
         <v>0</v>
       </c>
       <c r="AA24" s="1">
-        <f t="shared" ref="AA24:AA84" si="108">L24*L$1</f>
+        <f>L24*L$1</f>
         <v>0</v>
       </c>
       <c r="AB24" s="1">
-        <f t="shared" ref="AB24:AB84" si="109">M24*M$1</f>
+        <f>M24*M$1</f>
         <v>0</v>
       </c>
       <c r="AC24" s="1">
-        <f t="shared" ref="AC24:AC84" si="110">N24*N$1</f>
+        <f>N24*N$1</f>
         <v>0</v>
       </c>
       <c r="AD24" s="1">
-        <f t="shared" si="15"/>
+        <f>O24*O$1</f>
         <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <f t="shared" si="16"/>
-        <v>1179648</v>
+        <f>P24*P$1</f>
+        <v>1572864</v>
       </c>
       <c r="AF24" s="1">
-        <f t="shared" si="17"/>
-        <v>1179648</v>
+        <f>SUM(Q24:AE24)</f>
+        <v>1573376</v>
       </c>
       <c r="AG24" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>120000</v>
+        <f>DEC2HEX(AF24)</f>
+        <v>180200</v>
       </c>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P25" s="1">
-        <v>19</v>
+        <v>12</v>
+      </c>
+      <c r="I25" s="1">
+        <v>1</v>
+      </c>
+      <c r="N25" s="1">
+        <v>1</v>
       </c>
       <c r="Q25" s="1">
-        <f t="shared" si="98"/>
+        <f>B25*B$1</f>
         <v>0</v>
       </c>
       <c r="R25" s="1">
-        <f t="shared" si="99"/>
+        <f>C25*C$1</f>
         <v>0</v>
       </c>
       <c r="S25" s="1">
-        <f t="shared" si="100"/>
+        <f>D25*D$1</f>
         <v>0</v>
       </c>
       <c r="T25" s="1">
-        <f t="shared" si="101"/>
+        <f>E25*E$1</f>
         <v>0</v>
       </c>
       <c r="U25" s="1">
-        <f t="shared" si="102"/>
+        <f>F25*F$1</f>
         <v>0</v>
       </c>
       <c r="V25" s="1">
-        <f t="shared" si="103"/>
+        <f>G25*G$1</f>
         <v>0</v>
       </c>
       <c r="W25" s="1">
-        <f t="shared" si="104"/>
+        <f>H25*H$1</f>
         <v>0</v>
       </c>
       <c r="X25" s="1">
-        <f t="shared" si="105"/>
-        <v>0</v>
+        <f>I25*I$1</f>
+        <v>512</v>
       </c>
       <c r="Y25" s="1">
-        <f t="shared" si="106"/>
+        <f>J25*J$1</f>
         <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <f t="shared" si="107"/>
+        <f>K25*K$1</f>
         <v>0</v>
       </c>
       <c r="AA25" s="1">
-        <f t="shared" si="108"/>
+        <f>L25*L$1</f>
         <v>0</v>
       </c>
       <c r="AB25" s="1">
-        <f t="shared" si="109"/>
+        <f>M25*M$1</f>
         <v>0</v>
       </c>
       <c r="AC25" s="1">
-        <f t="shared" si="110"/>
-        <v>0</v>
+        <f>N25*N$1</f>
+        <v>16</v>
       </c>
       <c r="AD25" s="1">
-        <f t="shared" si="15"/>
+        <f>O25*O$1</f>
         <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <f t="shared" si="16"/>
-        <v>1245184</v>
+        <f>P25*P$1</f>
+        <v>0</v>
       </c>
       <c r="AF25" s="1">
-        <f t="shared" si="17"/>
-        <v>1245184</v>
+        <f>SUM(Q25:AE25)</f>
+        <v>528</v>
       </c>
       <c r="AG25" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>130000</v>
+        <f>DEC2HEX(AF25)</f>
+        <v>210</v>
       </c>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
+      </c>
+      <c r="B26" s="1">
+        <v>3</v>
       </c>
       <c r="P26" s="1">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="Q26" s="1">
-        <f t="shared" ref="Q26" si="111">B26*B$1</f>
-        <v>0</v>
+        <f>B26*B$1</f>
+        <v>3</v>
       </c>
       <c r="R26" s="1">
-        <f t="shared" ref="R26" si="112">C26*C$1</f>
+        <f>C26*C$1</f>
         <v>0</v>
       </c>
       <c r="S26" s="1">
-        <f t="shared" ref="S26" si="113">D26*D$1</f>
+        <f>D26*D$1</f>
         <v>0</v>
       </c>
       <c r="T26" s="1">
-        <f t="shared" ref="T26" si="114">E26*E$1</f>
+        <f>E26*E$1</f>
         <v>0</v>
       </c>
       <c r="U26" s="1">
-        <f t="shared" ref="U26" si="115">F26*F$1</f>
+        <f>F26*F$1</f>
         <v>0</v>
       </c>
       <c r="V26" s="1">
-        <f t="shared" ref="V26" si="116">G26*G$1</f>
+        <f>G26*G$1</f>
         <v>0</v>
       </c>
       <c r="W26" s="1">
-        <f t="shared" ref="W26" si="117">H26*H$1</f>
+        <f>H26*H$1</f>
         <v>0</v>
       </c>
       <c r="X26" s="1">
-        <f t="shared" ref="X26" si="118">I26*I$1</f>
+        <f>I26*I$1</f>
         <v>0</v>
       </c>
       <c r="Y26" s="1">
-        <f t="shared" ref="Y26" si="119">J26*J$1</f>
+        <f>J26*J$1</f>
         <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <f t="shared" ref="Z26" si="120">K26*K$1</f>
+        <f>K26*K$1</f>
         <v>0</v>
       </c>
       <c r="AA26" s="1">
-        <f t="shared" ref="AA26" si="121">L26*L$1</f>
+        <f>L26*L$1</f>
         <v>0</v>
       </c>
       <c r="AB26" s="1">
-        <f t="shared" ref="AB26" si="122">M26*M$1</f>
+        <f>M26*M$1</f>
         <v>0</v>
       </c>
       <c r="AC26" s="1">
-        <f t="shared" ref="AC26" si="123">N26*N$1</f>
+        <f>N26*N$1</f>
         <v>0</v>
       </c>
       <c r="AD26" s="1">
-        <f t="shared" ref="AD26" si="124">O26*O$1</f>
+        <f>O26*O$1</f>
         <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <f t="shared" ref="AE26" si="125">P26*P$1</f>
-        <v>1310720</v>
+        <f>P26*P$1</f>
+        <v>1900544</v>
       </c>
       <c r="AF26" s="1">
-        <f t="shared" ref="AF26" si="126">SUM(Q26:AE26)</f>
-        <v>1310720</v>
+        <f>SUM(Q26:AE26)</f>
+        <v>1900547</v>
       </c>
       <c r="AG26" s="1" t="str">
-        <f t="shared" ref="AG26" si="127">DEC2HEX(AF26)</f>
-        <v>140000</v>
+        <f>DEC2HEX(AF26)</f>
+        <v>1D0003</v>
       </c>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
+      </c>
+      <c r="B27" s="1">
+        <v>2</v>
       </c>
       <c r="P27" s="1">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="Q27" s="1">
-        <f t="shared" si="98"/>
-        <v>0</v>
+        <f>B27*B$1</f>
+        <v>2</v>
       </c>
       <c r="R27" s="1">
-        <f t="shared" si="99"/>
+        <f>C27*C$1</f>
         <v>0</v>
       </c>
       <c r="S27" s="1">
-        <f t="shared" si="100"/>
+        <f>D27*D$1</f>
         <v>0</v>
       </c>
       <c r="T27" s="1">
-        <f t="shared" si="101"/>
+        <f>E27*E$1</f>
         <v>0</v>
       </c>
       <c r="U27" s="1">
-        <f t="shared" si="102"/>
+        <f>F27*F$1</f>
         <v>0</v>
       </c>
       <c r="V27" s="1">
-        <f t="shared" si="103"/>
+        <f>G27*G$1</f>
         <v>0</v>
       </c>
       <c r="W27" s="1">
-        <f t="shared" si="104"/>
+        <f>H27*H$1</f>
         <v>0</v>
       </c>
       <c r="X27" s="1">
-        <f t="shared" si="105"/>
+        <f>I27*I$1</f>
         <v>0</v>
       </c>
       <c r="Y27" s="1">
-        <f t="shared" si="106"/>
+        <f>J27*J$1</f>
         <v>0</v>
       </c>
       <c r="Z27" s="1">
-        <f t="shared" si="107"/>
+        <f>K27*K$1</f>
         <v>0</v>
       </c>
       <c r="AA27" s="1">
-        <f t="shared" si="108"/>
+        <f>L27*L$1</f>
         <v>0</v>
       </c>
       <c r="AB27" s="1">
-        <f t="shared" si="109"/>
+        <f>M27*M$1</f>
         <v>0</v>
       </c>
       <c r="AC27" s="1">
-        <f t="shared" si="110"/>
+        <f>N27*N$1</f>
         <v>0</v>
       </c>
       <c r="AD27" s="1">
-        <f t="shared" si="15"/>
+        <f>O27*O$1</f>
         <v>0</v>
       </c>
       <c r="AE27" s="1">
-        <f t="shared" si="16"/>
-        <v>1376256</v>
+        <f>P27*P$1</f>
+        <v>1900544</v>
       </c>
       <c r="AF27" s="1">
-        <f t="shared" si="17"/>
-        <v>1376256</v>
+        <f>SUM(Q27:AE27)</f>
+        <v>1900546</v>
       </c>
       <c r="AG27" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>150000</v>
+        <f>DEC2HEX(AF27)</f>
+        <v>1D0002</v>
       </c>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
-        <v>58</v>
+        <v>103</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1</v>
       </c>
       <c r="P28" s="1">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="Q28" s="1">
-        <f t="shared" si="98"/>
-        <v>0</v>
+        <f>B28*B$1</f>
+        <v>1</v>
       </c>
       <c r="R28" s="1">
-        <f t="shared" si="99"/>
+        <f>C28*C$1</f>
         <v>0</v>
       </c>
       <c r="S28" s="1">
-        <f t="shared" si="100"/>
+        <f>D28*D$1</f>
         <v>0</v>
       </c>
       <c r="T28" s="1">
-        <f t="shared" si="101"/>
+        <f>E28*E$1</f>
         <v>0</v>
       </c>
       <c r="U28" s="1">
-        <f t="shared" si="102"/>
+        <f>F28*F$1</f>
         <v>0</v>
       </c>
       <c r="V28" s="1">
-        <f t="shared" si="103"/>
+        <f>G28*G$1</f>
         <v>0</v>
       </c>
       <c r="W28" s="1">
-        <f t="shared" si="104"/>
+        <f>H28*H$1</f>
         <v>0</v>
       </c>
       <c r="X28" s="1">
-        <f t="shared" si="105"/>
+        <f>I28*I$1</f>
         <v>0</v>
       </c>
       <c r="Y28" s="1">
-        <f t="shared" si="106"/>
+        <f>J28*J$1</f>
         <v>0</v>
       </c>
       <c r="Z28" s="1">
-        <f t="shared" si="107"/>
+        <f>K28*K$1</f>
         <v>0</v>
       </c>
       <c r="AA28" s="1">
-        <f t="shared" si="108"/>
+        <f>L28*L$1</f>
         <v>0</v>
       </c>
       <c r="AB28" s="1">
-        <f t="shared" si="109"/>
+        <f>M28*M$1</f>
         <v>0</v>
       </c>
       <c r="AC28" s="1">
-        <f t="shared" si="110"/>
+        <f>N28*N$1</f>
         <v>0</v>
       </c>
       <c r="AD28" s="1">
-        <f t="shared" si="15"/>
+        <f>O28*O$1</f>
         <v>0</v>
       </c>
       <c r="AE28" s="1">
-        <f t="shared" si="16"/>
-        <v>1441792</v>
+        <f>P28*P$1</f>
+        <v>1900544</v>
       </c>
       <c r="AF28" s="1">
-        <f t="shared" si="17"/>
-        <v>1441792</v>
+        <f>SUM(Q28:AE28)</f>
+        <v>1900545</v>
       </c>
       <c r="AG28" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>160000</v>
+        <f>DEC2HEX(AF28)</f>
+        <v>1D0001</v>
       </c>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="P29" s="1">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Q29" s="1">
-        <f t="shared" si="98"/>
+        <f>B29*B$1</f>
         <v>0</v>
       </c>
       <c r="R29" s="1">
-        <f t="shared" si="99"/>
+        <f>C29*C$1</f>
         <v>0</v>
       </c>
       <c r="S29" s="1">
-        <f t="shared" si="100"/>
+        <f>D29*D$1</f>
         <v>0</v>
       </c>
       <c r="T29" s="1">
-        <f t="shared" si="101"/>
+        <f>E29*E$1</f>
         <v>0</v>
       </c>
       <c r="U29" s="1">
-        <f t="shared" si="102"/>
+        <f>F29*F$1</f>
         <v>0</v>
       </c>
       <c r="V29" s="1">
-        <f t="shared" si="103"/>
+        <f>G29*G$1</f>
         <v>0</v>
       </c>
       <c r="W29" s="1">
-        <f t="shared" si="104"/>
+        <f>H29*H$1</f>
         <v>0</v>
       </c>
       <c r="X29" s="1">
-        <f t="shared" si="105"/>
+        <f>I29*I$1</f>
         <v>0</v>
       </c>
       <c r="Y29" s="1">
-        <f t="shared" si="106"/>
+        <f>J29*J$1</f>
         <v>0</v>
       </c>
       <c r="Z29" s="1">
-        <f t="shared" si="107"/>
+        <f>K29*K$1</f>
         <v>0</v>
       </c>
       <c r="AA29" s="1">
-        <f t="shared" si="108"/>
+        <f>L29*L$1</f>
         <v>0</v>
       </c>
       <c r="AB29" s="1">
-        <f t="shared" si="109"/>
+        <f>M29*M$1</f>
         <v>0</v>
       </c>
       <c r="AC29" s="1">
-        <f t="shared" si="110"/>
+        <f>N29*N$1</f>
         <v>0</v>
       </c>
       <c r="AD29" s="1">
-        <f t="shared" si="15"/>
+        <f>O29*O$1</f>
         <v>0</v>
       </c>
       <c r="AE29" s="1">
-        <f t="shared" si="16"/>
-        <v>1507328</v>
+        <f>P29*P$1</f>
+        <v>1310720</v>
       </c>
       <c r="AF29" s="1">
-        <f t="shared" si="17"/>
-        <v>1507328</v>
+        <f>SUM(Q29:AE29)</f>
+        <v>1310720</v>
       </c>
       <c r="AG29" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>170000</v>
+        <f>DEC2HEX(AF29)</f>
+        <v>140000</v>
       </c>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="J30" s="1">
-        <v>1</v>
+        <v>29</v>
+      </c>
+      <c r="B30" s="1">
+        <v>2</v>
       </c>
       <c r="P30" s="1">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="Q30" s="1">
-        <f t="shared" ref="Q30" si="128">B30*B$1</f>
-        <v>0</v>
+        <f>B30*B$1</f>
+        <v>2</v>
       </c>
       <c r="R30" s="1">
-        <f t="shared" ref="R30" si="129">C30*C$1</f>
+        <f>C30*C$1</f>
         <v>0</v>
       </c>
       <c r="S30" s="1">
-        <f t="shared" ref="S30" si="130">D30*D$1</f>
+        <f>D30*D$1</f>
         <v>0</v>
       </c>
       <c r="T30" s="1">
-        <f t="shared" ref="T30" si="131">E30*E$1</f>
+        <f>E30*E$1</f>
         <v>0</v>
       </c>
       <c r="U30" s="1">
-        <f t="shared" ref="U30" si="132">F30*F$1</f>
+        <f>F30*F$1</f>
         <v>0</v>
       </c>
       <c r="V30" s="1">
-        <f t="shared" ref="V30" si="133">G30*G$1</f>
+        <f>G30*G$1</f>
         <v>0</v>
       </c>
       <c r="W30" s="1">
-        <f t="shared" ref="W30" si="134">H30*H$1</f>
+        <f>H30*H$1</f>
         <v>0</v>
       </c>
       <c r="X30" s="1">
-        <f t="shared" ref="X30" si="135">I30*I$1</f>
+        <f>I30*I$1</f>
         <v>0</v>
       </c>
       <c r="Y30" s="1">
-        <f t="shared" ref="Y30" si="136">J30*J$1</f>
-        <v>256</v>
+        <f>J30*J$1</f>
+        <v>0</v>
       </c>
       <c r="Z30" s="1">
-        <f t="shared" ref="Z30" si="137">K30*K$1</f>
+        <f>K30*K$1</f>
         <v>0</v>
       </c>
       <c r="AA30" s="1">
-        <f t="shared" ref="AA30" si="138">L30*L$1</f>
+        <f>L30*L$1</f>
         <v>0</v>
       </c>
       <c r="AB30" s="1">
-        <f t="shared" ref="AB30" si="139">M30*M$1</f>
+        <f>M30*M$1</f>
         <v>0</v>
       </c>
       <c r="AC30" s="1">
-        <f t="shared" ref="AC30" si="140">N30*N$1</f>
+        <f>N30*N$1</f>
         <v>0</v>
       </c>
       <c r="AD30" s="1">
-        <f t="shared" ref="AD30" si="141">O30*O$1</f>
+        <f>O30*O$1</f>
         <v>0</v>
       </c>
       <c r="AE30" s="1">
-        <f t="shared" ref="AE30" si="142">P30*P$1</f>
-        <v>1572864</v>
+        <f>P30*P$1</f>
+        <v>131072</v>
       </c>
       <c r="AF30" s="1">
-        <f t="shared" ref="AF30" si="143">SUM(Q30:AE30)</f>
-        <v>1573120</v>
+        <f>SUM(Q30:AE30)</f>
+        <v>131074</v>
       </c>
       <c r="AG30" s="1" t="str">
-        <f t="shared" ref="AG30" si="144">DEC2HEX(AF30)</f>
-        <v>180100</v>
+        <f>DEC2HEX(AF30)</f>
+        <v>20002</v>
       </c>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H31" s="1">
-        <v>1</v>
-      </c>
-      <c r="J31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1">
         <v>1</v>
       </c>
       <c r="P31" s="1">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="Q31" s="1">
-        <f t="shared" si="98"/>
-        <v>0</v>
+        <f>B31*B$1</f>
+        <v>1</v>
       </c>
       <c r="R31" s="1">
-        <f t="shared" si="99"/>
+        <f>C31*C$1</f>
         <v>0</v>
       </c>
       <c r="S31" s="1">
-        <f t="shared" si="100"/>
+        <f>D31*D$1</f>
         <v>0</v>
       </c>
       <c r="T31" s="1">
-        <f t="shared" si="101"/>
+        <f>E31*E$1</f>
         <v>0</v>
       </c>
       <c r="U31" s="1">
-        <f t="shared" si="102"/>
+        <f>F31*F$1</f>
         <v>0</v>
       </c>
       <c r="V31" s="1">
-        <f t="shared" si="103"/>
+        <f>G31*G$1</f>
         <v>0</v>
       </c>
       <c r="W31" s="1">
-        <f t="shared" si="104"/>
-        <v>1024</v>
+        <f>H31*H$1</f>
+        <v>0</v>
       </c>
       <c r="X31" s="1">
-        <f t="shared" si="105"/>
+        <f>I31*I$1</f>
         <v>0</v>
       </c>
       <c r="Y31" s="1">
-        <f t="shared" si="106"/>
-        <v>256</v>
+        <f>J31*J$1</f>
+        <v>0</v>
       </c>
       <c r="Z31" s="1">
-        <f t="shared" si="107"/>
+        <f>K31*K$1</f>
         <v>0</v>
       </c>
       <c r="AA31" s="1">
-        <f t="shared" si="108"/>
+        <f>L31*L$1</f>
         <v>0</v>
       </c>
       <c r="AB31" s="1">
-        <f t="shared" si="109"/>
+        <f>M31*M$1</f>
         <v>0</v>
       </c>
       <c r="AC31" s="1">
-        <f t="shared" si="110"/>
+        <f>N31*N$1</f>
         <v>0</v>
       </c>
       <c r="AD31" s="1">
-        <f t="shared" ref="AD31:AD84" si="145">O31*O$1</f>
+        <f>O31*O$1</f>
         <v>0</v>
       </c>
       <c r="AE31" s="1">
-        <f t="shared" ref="AE31:AE84" si="146">P31*P$1</f>
-        <v>1572864</v>
+        <f>P31*P$1</f>
+        <v>131072</v>
       </c>
       <c r="AF31" s="1">
-        <f t="shared" si="17"/>
-        <v>1574144</v>
+        <f>SUM(Q31:AE31)</f>
+        <v>131073</v>
       </c>
       <c r="AG31" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>180500</v>
+        <f>DEC2HEX(AF31)</f>
+        <v>20001</v>
       </c>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I32" s="1">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="P32" s="1">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="Q32" s="1">
-        <f t="shared" si="98"/>
+        <f>B32*B$1</f>
         <v>0</v>
       </c>
       <c r="R32" s="1">
-        <f t="shared" si="99"/>
+        <f>C32*C$1</f>
         <v>0</v>
       </c>
       <c r="S32" s="1">
-        <f t="shared" si="100"/>
+        <f>D32*D$1</f>
         <v>0</v>
       </c>
       <c r="T32" s="1">
-        <f t="shared" si="101"/>
+        <f>E32*E$1</f>
         <v>0</v>
       </c>
       <c r="U32" s="1">
-        <f t="shared" si="102"/>
+        <f>F32*F$1</f>
         <v>0</v>
       </c>
       <c r="V32" s="1">
-        <f t="shared" si="103"/>
+        <f>G32*G$1</f>
         <v>0</v>
       </c>
       <c r="W32" s="1">
-        <f t="shared" si="104"/>
+        <f>H32*H$1</f>
         <v>0</v>
       </c>
       <c r="X32" s="1">
-        <f t="shared" si="105"/>
-        <v>512</v>
+        <f>I32*I$1</f>
+        <v>0</v>
       </c>
       <c r="Y32" s="1">
-        <f t="shared" si="106"/>
+        <f>J32*J$1</f>
         <v>0</v>
       </c>
       <c r="Z32" s="1">
-        <f t="shared" si="107"/>
+        <f>K32*K$1</f>
         <v>0</v>
       </c>
       <c r="AA32" s="1">
-        <f t="shared" si="108"/>
+        <f>L32*L$1</f>
         <v>0</v>
       </c>
       <c r="AB32" s="1">
-        <f t="shared" si="109"/>
+        <f>M32*M$1</f>
         <v>0</v>
       </c>
       <c r="AC32" s="1">
-        <f t="shared" si="110"/>
+        <f>N32*N$1</f>
         <v>0</v>
       </c>
       <c r="AD32" s="1">
-        <f t="shared" si="145"/>
+        <f>O32*O$1</f>
         <v>0</v>
       </c>
       <c r="AE32" s="1">
-        <f t="shared" si="146"/>
-        <v>1572864</v>
+        <f>P32*P$1</f>
+        <v>720896</v>
       </c>
       <c r="AF32" s="1">
-        <f t="shared" si="17"/>
-        <v>1573376</v>
+        <f>SUM(Q32:AE32)</f>
+        <v>720896</v>
       </c>
       <c r="AG32" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>180200</v>
+        <f>DEC2HEX(AF32)</f>
+        <v>B0000</v>
       </c>
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B33" s="1">
-        <v>1</v>
-      </c>
-      <c r="E33" s="1">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="P33" s="1">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="Q33" s="1">
-        <f t="shared" si="98"/>
-        <v>1</v>
+        <f>B33*B$1</f>
+        <v>0</v>
       </c>
       <c r="R33" s="1">
-        <f t="shared" si="99"/>
+        <f>C33*C$1</f>
         <v>0</v>
       </c>
       <c r="S33" s="1">
-        <f t="shared" si="100"/>
+        <f>D33*D$1</f>
         <v>0</v>
       </c>
       <c r="T33" s="1">
-        <f t="shared" si="101"/>
-        <v>8192</v>
+        <f>E33*E$1</f>
+        <v>0</v>
       </c>
       <c r="U33" s="1">
-        <f t="shared" si="102"/>
+        <f>F33*F$1</f>
         <v>0</v>
       </c>
       <c r="V33" s="1">
-        <f t="shared" si="103"/>
+        <f>G33*G$1</f>
         <v>0</v>
       </c>
       <c r="W33" s="1">
-        <f t="shared" si="104"/>
+        <f>H33*H$1</f>
         <v>0</v>
       </c>
       <c r="X33" s="1">
-        <f t="shared" si="105"/>
+        <f>I33*I$1</f>
         <v>0</v>
       </c>
       <c r="Y33" s="1">
-        <f t="shared" si="106"/>
+        <f>J33*J$1</f>
         <v>0</v>
       </c>
       <c r="Z33" s="1">
-        <f t="shared" si="107"/>
+        <f>K33*K$1</f>
         <v>0</v>
       </c>
       <c r="AA33" s="1">
-        <f t="shared" si="108"/>
+        <f>L33*L$1</f>
         <v>0</v>
       </c>
       <c r="AB33" s="1">
-        <f t="shared" si="109"/>
+        <f>M33*M$1</f>
         <v>0</v>
       </c>
       <c r="AC33" s="1">
-        <f t="shared" si="110"/>
+        <f>N33*N$1</f>
         <v>0</v>
       </c>
       <c r="AD33" s="1">
-        <f t="shared" si="145"/>
+        <f>O33*O$1</f>
         <v>0</v>
       </c>
       <c r="AE33" s="1">
-        <f t="shared" si="146"/>
-        <v>1638400</v>
+        <f>P33*P$1</f>
+        <v>917504</v>
       </c>
       <c r="AF33" s="1">
-        <f t="shared" si="17"/>
-        <v>1646593</v>
+        <f>SUM(Q33:AE33)</f>
+        <v>917504</v>
       </c>
       <c r="AG33" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>192001</v>
+        <f>DEC2HEX(AF33)</f>
+        <v>E0000</v>
       </c>
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E34" s="1">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="P34" s="1">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="Q34" s="1">
-        <f t="shared" si="98"/>
+        <f>B34*B$1</f>
         <v>0</v>
       </c>
       <c r="R34" s="1">
-        <f t="shared" si="99"/>
+        <f>C34*C$1</f>
         <v>0</v>
       </c>
       <c r="S34" s="1">
-        <f t="shared" si="100"/>
+        <f>D34*D$1</f>
         <v>0</v>
       </c>
       <c r="T34" s="1">
-        <f t="shared" si="101"/>
-        <v>8192</v>
+        <f>E34*E$1</f>
+        <v>0</v>
       </c>
       <c r="U34" s="1">
-        <f t="shared" si="102"/>
+        <f>F34*F$1</f>
         <v>0</v>
       </c>
       <c r="V34" s="1">
-        <f t="shared" si="103"/>
+        <f>G34*G$1</f>
         <v>0</v>
       </c>
       <c r="W34" s="1">
-        <f t="shared" si="104"/>
+        <f>H34*H$1</f>
         <v>0</v>
       </c>
       <c r="X34" s="1">
-        <f t="shared" si="105"/>
+        <f>I34*I$1</f>
         <v>0</v>
       </c>
       <c r="Y34" s="1">
-        <f t="shared" si="106"/>
+        <f>J34*J$1</f>
         <v>0</v>
       </c>
       <c r="Z34" s="1">
-        <f t="shared" si="107"/>
+        <f>K34*K$1</f>
         <v>0</v>
       </c>
       <c r="AA34" s="1">
-        <f t="shared" si="108"/>
+        <f>L34*L$1</f>
         <v>0</v>
       </c>
       <c r="AB34" s="1">
-        <f t="shared" si="109"/>
+        <f>M34*M$1</f>
         <v>0</v>
       </c>
       <c r="AC34" s="1">
-        <f t="shared" si="110"/>
+        <f>N34*N$1</f>
         <v>0</v>
       </c>
       <c r="AD34" s="1">
-        <f t="shared" si="145"/>
+        <f>O34*O$1</f>
         <v>0</v>
       </c>
       <c r="AE34" s="1">
-        <f t="shared" si="146"/>
-        <v>1638400</v>
+        <f>P34*P$1</f>
+        <v>851968</v>
       </c>
       <c r="AF34" s="1">
-        <f t="shared" si="17"/>
-        <v>1646592</v>
+        <f>SUM(Q34:AE34)</f>
+        <v>851968</v>
       </c>
       <c r="AG34" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>192000</v>
+        <f>DEC2HEX(AF34)</f>
+        <v>D0000</v>
       </c>
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P35" s="1">
-        <v>26</v>
+        <v>7</v>
+      </c>
+      <c r="H35" s="1">
+        <v>1</v>
       </c>
       <c r="Q35" s="1">
-        <f t="shared" si="98"/>
+        <f>B35*B$1</f>
         <v>0</v>
       </c>
       <c r="R35" s="1">
-        <f t="shared" si="99"/>
+        <f>C35*C$1</f>
         <v>0</v>
       </c>
       <c r="S35" s="1">
-        <f t="shared" si="100"/>
+        <f>D35*D$1</f>
         <v>0</v>
       </c>
       <c r="T35" s="1">
-        <f t="shared" si="101"/>
+        <f>E35*E$1</f>
         <v>0</v>
       </c>
       <c r="U35" s="1">
-        <f t="shared" si="102"/>
+        <f>F35*F$1</f>
         <v>0</v>
       </c>
       <c r="V35" s="1">
-        <f t="shared" si="103"/>
+        <f>G35*G$1</f>
         <v>0</v>
       </c>
       <c r="W35" s="1">
-        <f t="shared" si="104"/>
-        <v>0</v>
+        <f>H35*H$1</f>
+        <v>1024</v>
       </c>
       <c r="X35" s="1">
-        <f t="shared" si="105"/>
+        <f>I35*I$1</f>
         <v>0</v>
       </c>
       <c r="Y35" s="1">
-        <f t="shared" si="106"/>
+        <f>J35*J$1</f>
         <v>0</v>
       </c>
       <c r="Z35" s="1">
-        <f t="shared" si="107"/>
+        <f>K35*K$1</f>
         <v>0</v>
       </c>
       <c r="AA35" s="1">
-        <f t="shared" si="108"/>
+        <f>L35*L$1</f>
         <v>0</v>
       </c>
       <c r="AB35" s="1">
-        <f t="shared" si="109"/>
+        <f>M35*M$1</f>
         <v>0</v>
       </c>
       <c r="AC35" s="1">
-        <f t="shared" si="110"/>
+        <f>N35*N$1</f>
         <v>0</v>
       </c>
       <c r="AD35" s="1">
-        <f t="shared" si="145"/>
+        <f>O35*O$1</f>
         <v>0</v>
       </c>
       <c r="AE35" s="1">
-        <f t="shared" si="146"/>
-        <v>1703936</v>
+        <f>P35*P$1</f>
+        <v>0</v>
       </c>
       <c r="AF35" s="1">
-        <f t="shared" si="17"/>
-        <v>1703936</v>
+        <f>SUM(Q35:AE35)</f>
+        <v>1024</v>
       </c>
       <c r="AG35" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>1A0000</v>
+        <f>DEC2HEX(AF35)</f>
+        <v>400</v>
       </c>
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H36" s="1">
         <v>1</v>
@@ -3464,4481 +3512,4434 @@
       <c r="M36" s="1">
         <v>1</v>
       </c>
-      <c r="P36" s="1">
-        <v>27</v>
-      </c>
       <c r="Q36" s="1">
-        <f t="shared" ref="Q36" si="147">B36*B$1</f>
+        <f>B36*B$1</f>
         <v>0</v>
       </c>
       <c r="R36" s="1">
-        <f t="shared" ref="R36" si="148">C36*C$1</f>
+        <f>C36*C$1</f>
         <v>0</v>
       </c>
       <c r="S36" s="1">
-        <f t="shared" ref="S36" si="149">D36*D$1</f>
+        <f>D36*D$1</f>
         <v>0</v>
       </c>
       <c r="T36" s="1">
-        <f t="shared" ref="T36" si="150">E36*E$1</f>
+        <f>E36*E$1</f>
         <v>0</v>
       </c>
       <c r="U36" s="1">
-        <f t="shared" ref="U36" si="151">F36*F$1</f>
+        <f>F36*F$1</f>
         <v>0</v>
       </c>
       <c r="V36" s="1">
-        <f t="shared" ref="V36" si="152">G36*G$1</f>
+        <f>G36*G$1</f>
         <v>0</v>
       </c>
       <c r="W36" s="1">
-        <f t="shared" ref="W36" si="153">H36*H$1</f>
+        <f>H36*H$1</f>
         <v>1024</v>
       </c>
       <c r="X36" s="1">
-        <f t="shared" ref="X36" si="154">I36*I$1</f>
+        <f>I36*I$1</f>
         <v>0</v>
       </c>
       <c r="Y36" s="1">
-        <f t="shared" ref="Y36" si="155">J36*J$1</f>
+        <f>J36*J$1</f>
         <v>0</v>
       </c>
       <c r="Z36" s="1">
-        <f t="shared" ref="Z36" si="156">K36*K$1</f>
+        <f>K36*K$1</f>
         <v>0</v>
       </c>
       <c r="AA36" s="1">
-        <f t="shared" ref="AA36" si="157">L36*L$1</f>
+        <f>L36*L$1</f>
         <v>0</v>
       </c>
       <c r="AB36" s="1">
-        <f t="shared" ref="AB36" si="158">M36*M$1</f>
+        <f>M36*M$1</f>
         <v>32</v>
       </c>
       <c r="AC36" s="1">
-        <f t="shared" ref="AC36" si="159">N36*N$1</f>
+        <f>N36*N$1</f>
         <v>0</v>
       </c>
       <c r="AD36" s="1">
-        <f t="shared" ref="AD36" si="160">O36*O$1</f>
+        <f>O36*O$1</f>
         <v>0</v>
       </c>
       <c r="AE36" s="1">
-        <f t="shared" ref="AE36" si="161">P36*P$1</f>
-        <v>1769472</v>
+        <f>P36*P$1</f>
+        <v>0</v>
       </c>
       <c r="AF36" s="1">
-        <f t="shared" ref="AF36" si="162">SUM(Q36:AE36)</f>
-        <v>1770528</v>
+        <f>SUM(Q36:AE36)</f>
+        <v>1056</v>
       </c>
       <c r="AG36" s="1" t="str">
-        <f t="shared" ref="AG36" si="163">DEC2HEX(AF36)</f>
-        <v>1B0420</v>
+        <f>DEC2HEX(AF36)</f>
+        <v>420</v>
       </c>
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H37" s="1">
         <v>1</v>
       </c>
-      <c r="J37" s="1">
+      <c r="M37" s="1">
         <v>1</v>
       </c>
       <c r="P37" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q37" s="1">
-        <f t="shared" si="98"/>
+        <f>B37*B$1</f>
         <v>0</v>
       </c>
       <c r="R37" s="1">
-        <f t="shared" si="99"/>
+        <f>C37*C$1</f>
         <v>0</v>
       </c>
       <c r="S37" s="1">
-        <f t="shared" si="100"/>
+        <f>D37*D$1</f>
         <v>0</v>
       </c>
       <c r="T37" s="1">
-        <f t="shared" si="101"/>
+        <f>E37*E$1</f>
         <v>0</v>
       </c>
       <c r="U37" s="1">
-        <f t="shared" si="102"/>
+        <f>F37*F$1</f>
         <v>0</v>
       </c>
       <c r="V37" s="1">
-        <f t="shared" si="103"/>
+        <f>G37*G$1</f>
         <v>0</v>
       </c>
       <c r="W37" s="1">
-        <f t="shared" si="104"/>
+        <f>H37*H$1</f>
         <v>1024</v>
       </c>
       <c r="X37" s="1">
-        <f t="shared" si="105"/>
+        <f>I37*I$1</f>
         <v>0</v>
       </c>
       <c r="Y37" s="1">
-        <f t="shared" si="106"/>
-        <v>256</v>
+        <f>J37*J$1</f>
+        <v>0</v>
       </c>
       <c r="Z37" s="1">
-        <f t="shared" si="107"/>
+        <f>K37*K$1</f>
         <v>0</v>
       </c>
       <c r="AA37" s="1">
-        <f t="shared" si="108"/>
+        <f>L37*L$1</f>
         <v>0</v>
       </c>
       <c r="AB37" s="1">
-        <f t="shared" si="109"/>
-        <v>0</v>
+        <f>M37*M$1</f>
+        <v>32</v>
       </c>
       <c r="AC37" s="1">
-        <f t="shared" si="110"/>
+        <f>N37*N$1</f>
         <v>0</v>
       </c>
       <c r="AD37" s="1">
-        <f t="shared" si="145"/>
+        <f>O37*O$1</f>
         <v>0</v>
       </c>
       <c r="AE37" s="1">
-        <f t="shared" si="146"/>
-        <v>1835008</v>
+        <f>P37*P$1</f>
+        <v>1769472</v>
       </c>
       <c r="AF37" s="1">
-        <f t="shared" si="17"/>
-        <v>1836288</v>
+        <f>SUM(Q37:AE37)</f>
+        <v>1770528</v>
       </c>
       <c r="AG37" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>1C0500</v>
+        <f>DEC2HEX(AF37)</f>
+        <v>1B0420</v>
       </c>
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="K38" s="1">
-        <v>1</v>
-      </c>
-      <c r="P38" s="1">
-        <v>28</v>
+        <v>8</v>
+      </c>
+      <c r="H38" s="1">
+        <v>1</v>
+      </c>
+      <c r="N38" s="1">
+        <v>1</v>
       </c>
       <c r="Q38" s="1">
-        <f t="shared" ref="Q38" si="164">B38*B$1</f>
+        <f>B38*B$1</f>
         <v>0</v>
       </c>
       <c r="R38" s="1">
-        <f t="shared" ref="R38" si="165">C38*C$1</f>
+        <f>C38*C$1</f>
         <v>0</v>
       </c>
       <c r="S38" s="1">
-        <f t="shared" ref="S38" si="166">D38*D$1</f>
+        <f>D38*D$1</f>
         <v>0</v>
       </c>
       <c r="T38" s="1">
-        <f t="shared" ref="T38" si="167">E38*E$1</f>
+        <f>E38*E$1</f>
         <v>0</v>
       </c>
       <c r="U38" s="1">
-        <f t="shared" ref="U38" si="168">F38*F$1</f>
+        <f>F38*F$1</f>
         <v>0</v>
       </c>
       <c r="V38" s="1">
-        <f t="shared" ref="V38" si="169">G38*G$1</f>
+        <f>G38*G$1</f>
         <v>0</v>
       </c>
       <c r="W38" s="1">
-        <f t="shared" ref="W38" si="170">H38*H$1</f>
-        <v>0</v>
+        <f>H38*H$1</f>
+        <v>1024</v>
       </c>
       <c r="X38" s="1">
-        <f t="shared" ref="X38" si="171">I38*I$1</f>
+        <f>I38*I$1</f>
         <v>0</v>
       </c>
       <c r="Y38" s="1">
-        <f t="shared" ref="Y38" si="172">J38*J$1</f>
+        <f>J38*J$1</f>
         <v>0</v>
       </c>
       <c r="Z38" s="1">
-        <f t="shared" ref="Z38" si="173">K38*K$1</f>
-        <v>128</v>
+        <f>K38*K$1</f>
+        <v>0</v>
       </c>
       <c r="AA38" s="1">
-        <f t="shared" ref="AA38" si="174">L38*L$1</f>
+        <f>L38*L$1</f>
         <v>0</v>
       </c>
       <c r="AB38" s="1">
-        <f t="shared" ref="AB38" si="175">M38*M$1</f>
+        <f>M38*M$1</f>
         <v>0</v>
       </c>
       <c r="AC38" s="1">
-        <f t="shared" ref="AC38" si="176">N38*N$1</f>
-        <v>0</v>
+        <f>N38*N$1</f>
+        <v>16</v>
       </c>
       <c r="AD38" s="1">
-        <f t="shared" ref="AD38" si="177">O38*O$1</f>
+        <f>O38*O$1</f>
         <v>0</v>
       </c>
       <c r="AE38" s="1">
-        <f t="shared" ref="AE38" si="178">P38*P$1</f>
-        <v>1835008</v>
+        <f>P38*P$1</f>
+        <v>0</v>
       </c>
       <c r="AF38" s="1">
-        <f t="shared" ref="AF38" si="179">SUM(Q38:AE38)</f>
-        <v>1835136</v>
+        <f>SUM(Q38:AE38)</f>
+        <v>1040</v>
       </c>
       <c r="AG38" s="1" t="str">
-        <f t="shared" ref="AG38" si="180">DEC2HEX(AF38)</f>
-        <v>1C0080</v>
+        <f>DEC2HEX(AF38)</f>
+        <v>410</v>
       </c>
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B39" s="1">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="P39" s="1">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Q39" s="1">
-        <f t="shared" si="98"/>
-        <v>1</v>
+        <f>B39*B$1</f>
+        <v>0</v>
       </c>
       <c r="R39" s="1">
-        <f t="shared" si="99"/>
+        <f>C39*C$1</f>
         <v>0</v>
       </c>
       <c r="S39" s="1">
-        <f t="shared" si="100"/>
+        <f>D39*D$1</f>
         <v>0</v>
       </c>
       <c r="T39" s="1">
-        <f t="shared" si="101"/>
+        <f>E39*E$1</f>
         <v>0</v>
       </c>
       <c r="U39" s="1">
-        <f t="shared" si="102"/>
+        <f>F39*F$1</f>
         <v>0</v>
       </c>
       <c r="V39" s="1">
-        <f t="shared" si="103"/>
+        <f>G39*G$1</f>
         <v>0</v>
       </c>
       <c r="W39" s="1">
-        <f t="shared" si="104"/>
+        <f>H39*H$1</f>
         <v>0</v>
       </c>
       <c r="X39" s="1">
-        <f t="shared" si="105"/>
+        <f>I39*I$1</f>
         <v>0</v>
       </c>
       <c r="Y39" s="1">
-        <f t="shared" si="106"/>
+        <f>J39*J$1</f>
         <v>0</v>
       </c>
       <c r="Z39" s="1">
-        <f t="shared" si="107"/>
+        <f>K39*K$1</f>
         <v>0</v>
       </c>
       <c r="AA39" s="1">
-        <f t="shared" si="108"/>
+        <f>L39*L$1</f>
         <v>0</v>
       </c>
       <c r="AB39" s="1">
-        <f t="shared" si="109"/>
+        <f>M39*M$1</f>
         <v>0</v>
       </c>
       <c r="AC39" s="1">
-        <f t="shared" si="110"/>
+        <f>N39*N$1</f>
         <v>0</v>
       </c>
       <c r="AD39" s="1">
-        <f t="shared" si="145"/>
+        <f>O39*O$1</f>
         <v>0</v>
       </c>
       <c r="AE39" s="1">
-        <f t="shared" si="146"/>
-        <v>1900544</v>
+        <f>P39*P$1</f>
+        <v>1703936</v>
       </c>
       <c r="AF39" s="1">
-        <f t="shared" si="17"/>
-        <v>1900545</v>
+        <f>SUM(Q39:AE39)</f>
+        <v>1703936</v>
       </c>
       <c r="AG39" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>1D0001</v>
+        <f>DEC2HEX(AF39)</f>
+        <v>1A0000</v>
       </c>
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B40" s="1">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="P40" s="1">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="Q40" s="1">
-        <f t="shared" ref="Q40" si="181">B40*B$1</f>
-        <v>3</v>
+        <f>B40*B$1</f>
+        <v>0</v>
       </c>
       <c r="R40" s="1">
-        <f t="shared" ref="R40" si="182">C40*C$1</f>
+        <f>C40*C$1</f>
         <v>0</v>
       </c>
       <c r="S40" s="1">
-        <f t="shared" ref="S40" si="183">D40*D$1</f>
+        <f>D40*D$1</f>
         <v>0</v>
       </c>
       <c r="T40" s="1">
-        <f t="shared" ref="T40" si="184">E40*E$1</f>
+        <f>E40*E$1</f>
         <v>0</v>
       </c>
       <c r="U40" s="1">
-        <f t="shared" ref="U40" si="185">F40*F$1</f>
+        <f>F40*F$1</f>
         <v>0</v>
       </c>
       <c r="V40" s="1">
-        <f t="shared" ref="V40" si="186">G40*G$1</f>
+        <f>G40*G$1</f>
         <v>0</v>
       </c>
       <c r="W40" s="1">
-        <f t="shared" ref="W40" si="187">H40*H$1</f>
+        <f>H40*H$1</f>
         <v>0</v>
       </c>
       <c r="X40" s="1">
-        <f t="shared" ref="X40" si="188">I40*I$1</f>
+        <f>I40*I$1</f>
         <v>0</v>
       </c>
       <c r="Y40" s="1">
-        <f t="shared" ref="Y40" si="189">J40*J$1</f>
+        <f>J40*J$1</f>
         <v>0</v>
       </c>
       <c r="Z40" s="1">
-        <f t="shared" ref="Z40" si="190">K40*K$1</f>
+        <f>K40*K$1</f>
         <v>0</v>
       </c>
       <c r="AA40" s="1">
-        <f t="shared" ref="AA40" si="191">L40*L$1</f>
+        <f>L40*L$1</f>
         <v>0</v>
       </c>
       <c r="AB40" s="1">
-        <f t="shared" ref="AB40" si="192">M40*M$1</f>
+        <f>M40*M$1</f>
         <v>0</v>
       </c>
       <c r="AC40" s="1">
-        <f t="shared" ref="AC40" si="193">N40*N$1</f>
+        <f>N40*N$1</f>
         <v>0</v>
       </c>
       <c r="AD40" s="1">
-        <f t="shared" ref="AD40" si="194">O40*O$1</f>
+        <f>O40*O$1</f>
         <v>0</v>
       </c>
       <c r="AE40" s="1">
-        <f t="shared" ref="AE40" si="195">P40*P$1</f>
-        <v>1900544</v>
+        <f>P40*P$1</f>
+        <v>1245184</v>
       </c>
       <c r="AF40" s="1">
-        <f t="shared" ref="AF40" si="196">SUM(Q40:AE40)</f>
-        <v>1900547</v>
+        <f>SUM(Q40:AE40)</f>
+        <v>1245184</v>
       </c>
       <c r="AG40" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>1D0003</v>
+        <f>DEC2HEX(AF40)</f>
+        <v>130000</v>
       </c>
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B41" s="1">
-        <v>2</v>
+        <v>92</v>
       </c>
       <c r="P41" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Q41" s="1">
-        <f t="shared" si="98"/>
-        <v>2</v>
+        <f>B41*B$1</f>
+        <v>0</v>
       </c>
       <c r="R41" s="1">
-        <f t="shared" si="99"/>
+        <f>C41*C$1</f>
         <v>0</v>
       </c>
       <c r="S41" s="1">
-        <f t="shared" si="100"/>
+        <f>D41*D$1</f>
         <v>0</v>
       </c>
       <c r="T41" s="1">
-        <f t="shared" si="101"/>
+        <f>E41*E$1</f>
         <v>0</v>
       </c>
       <c r="U41" s="1">
-        <f t="shared" si="102"/>
+        <f>F41*F$1</f>
         <v>0</v>
       </c>
       <c r="V41" s="1">
-        <f t="shared" si="103"/>
+        <f>G41*G$1</f>
         <v>0</v>
       </c>
       <c r="W41" s="1">
-        <f t="shared" si="104"/>
+        <f>H41*H$1</f>
         <v>0</v>
       </c>
       <c r="X41" s="1">
-        <f t="shared" si="105"/>
+        <f>I41*I$1</f>
         <v>0</v>
       </c>
       <c r="Y41" s="1">
-        <f t="shared" si="106"/>
+        <f>J41*J$1</f>
         <v>0</v>
       </c>
       <c r="Z41" s="1">
-        <f t="shared" si="107"/>
+        <f>K41*K$1</f>
         <v>0</v>
       </c>
       <c r="AA41" s="1">
-        <f t="shared" si="108"/>
+        <f>L41*L$1</f>
         <v>0</v>
       </c>
       <c r="AB41" s="1">
-        <f t="shared" si="109"/>
+        <f>M41*M$1</f>
         <v>0</v>
       </c>
       <c r="AC41" s="1">
-        <f t="shared" si="110"/>
+        <f>N41*N$1</f>
         <v>0</v>
       </c>
       <c r="AD41" s="1">
-        <f t="shared" si="145"/>
+        <f>O41*O$1</f>
         <v>0</v>
       </c>
       <c r="AE41" s="1">
-        <f t="shared" si="146"/>
-        <v>1900544</v>
+        <f>P41*P$1</f>
+        <v>2031616</v>
       </c>
       <c r="AF41" s="1">
-        <f t="shared" si="17"/>
-        <v>1900546</v>
+        <f>SUM(Q41:AE41)</f>
+        <v>2031616</v>
       </c>
       <c r="AG41" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>1D0002</v>
+        <f>DEC2HEX(AF41)</f>
+        <v>1F0000</v>
       </c>
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E42" s="1">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="P42" s="1">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="Q42" s="1">
-        <f t="shared" ref="Q42" si="197">B42*B$1</f>
+        <f>B42*B$1</f>
         <v>0</v>
       </c>
       <c r="R42" s="1">
-        <f t="shared" ref="R42" si="198">C42*C$1</f>
+        <f>C42*C$1</f>
         <v>0</v>
       </c>
       <c r="S42" s="1">
-        <f t="shared" ref="S42" si="199">D42*D$1</f>
+        <f>D42*D$1</f>
         <v>0</v>
       </c>
       <c r="T42" s="1">
-        <f t="shared" ref="T42" si="200">E42*E$1</f>
-        <v>8192</v>
+        <f>E42*E$1</f>
+        <v>0</v>
       </c>
       <c r="U42" s="1">
-        <f t="shared" ref="U42" si="201">F42*F$1</f>
+        <f>F42*F$1</f>
         <v>0</v>
       </c>
       <c r="V42" s="1">
-        <f t="shared" ref="V42" si="202">G42*G$1</f>
+        <f>G42*G$1</f>
         <v>0</v>
       </c>
       <c r="W42" s="1">
-        <f t="shared" ref="W42" si="203">H42*H$1</f>
+        <f>H42*H$1</f>
         <v>0</v>
       </c>
       <c r="X42" s="1">
-        <f t="shared" ref="X42" si="204">I42*I$1</f>
+        <f>I42*I$1</f>
         <v>0</v>
       </c>
       <c r="Y42" s="1">
-        <f t="shared" ref="Y42" si="205">J42*J$1</f>
+        <f>J42*J$1</f>
         <v>0</v>
       </c>
       <c r="Z42" s="1">
-        <f t="shared" ref="Z42" si="206">K42*K$1</f>
+        <f>K42*K$1</f>
         <v>0</v>
       </c>
       <c r="AA42" s="1">
-        <f t="shared" ref="AA42" si="207">L42*L$1</f>
+        <f>L42*L$1</f>
         <v>0</v>
       </c>
       <c r="AB42" s="1">
-        <f t="shared" ref="AB42" si="208">M42*M$1</f>
+        <f>M42*M$1</f>
         <v>0</v>
       </c>
       <c r="AC42" s="1">
-        <f t="shared" ref="AC42" si="209">N42*N$1</f>
+        <f>N42*N$1</f>
         <v>0</v>
       </c>
       <c r="AD42" s="1">
-        <f t="shared" ref="AD42" si="210">O42*O$1</f>
+        <f>O42*O$1</f>
         <v>0</v>
       </c>
       <c r="AE42" s="1">
-        <f t="shared" ref="AE42" si="211">P42*P$1</f>
-        <v>1966080</v>
+        <f>P42*P$1</f>
+        <v>589824</v>
       </c>
       <c r="AF42" s="1">
-        <f t="shared" ref="AF42" si="212">SUM(Q42:AE42)</f>
-        <v>1974272</v>
+        <f>SUM(Q42:AE42)</f>
+        <v>589824</v>
       </c>
       <c r="AG42" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>1E2000</v>
+        <f>DEC2HEX(AF42)</f>
+        <v>90000</v>
       </c>
     </row>
     <row r="43" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
-        <v>92</v>
+        <v>37</v>
       </c>
       <c r="P43" s="1">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="Q43" s="1">
-        <f t="shared" si="98"/>
+        <f>B43*B$1</f>
         <v>0</v>
       </c>
       <c r="R43" s="1">
-        <f t="shared" si="99"/>
+        <f>C43*C$1</f>
         <v>0</v>
       </c>
       <c r="S43" s="1">
-        <f t="shared" si="100"/>
+        <f>D43*D$1</f>
         <v>0</v>
       </c>
       <c r="T43" s="1">
-        <f t="shared" si="101"/>
+        <f>E43*E$1</f>
         <v>0</v>
       </c>
       <c r="U43" s="1">
-        <f t="shared" si="102"/>
+        <f>F43*F$1</f>
         <v>0</v>
       </c>
       <c r="V43" s="1">
-        <f t="shared" si="103"/>
+        <f>G43*G$1</f>
         <v>0</v>
       </c>
       <c r="W43" s="1">
-        <f t="shared" si="104"/>
+        <f>H43*H$1</f>
         <v>0</v>
       </c>
       <c r="X43" s="1">
-        <f t="shared" si="105"/>
+        <f>I43*I$1</f>
         <v>0</v>
       </c>
       <c r="Y43" s="1">
-        <f t="shared" si="106"/>
+        <f>J43*J$1</f>
         <v>0</v>
       </c>
       <c r="Z43" s="1">
-        <f t="shared" si="107"/>
+        <f>K43*K$1</f>
         <v>0</v>
       </c>
       <c r="AA43" s="1">
-        <f t="shared" si="108"/>
+        <f>L43*L$1</f>
         <v>0</v>
       </c>
       <c r="AB43" s="1">
-        <f t="shared" si="109"/>
+        <f>M43*M$1</f>
         <v>0</v>
       </c>
       <c r="AC43" s="1">
-        <f t="shared" si="110"/>
+        <f>N43*N$1</f>
         <v>0</v>
       </c>
       <c r="AD43" s="1">
-        <f t="shared" si="145"/>
+        <f>O43*O$1</f>
         <v>0</v>
       </c>
       <c r="AE43" s="1">
-        <f t="shared" si="146"/>
-        <v>2031616</v>
+        <f>P43*P$1</f>
+        <v>655360</v>
       </c>
       <c r="AF43" s="1">
-        <f t="shared" si="17"/>
-        <v>2031616</v>
+        <f>SUM(Q43:AE43)</f>
+        <v>655360</v>
       </c>
       <c r="AG43" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>1F0000</v>
+        <f>DEC2HEX(AF43)</f>
+        <v>A0000</v>
       </c>
     </row>
     <row r="44" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I44" s="1">
-        <v>1</v>
-      </c>
-      <c r="J44" s="1">
-        <v>1</v>
-      </c>
-      <c r="M44" s="1">
+        <v>6</v>
+      </c>
+      <c r="P44" s="1">
         <v>1</v>
       </c>
       <c r="Q44" s="1">
-        <f t="shared" si="98"/>
+        <f>B44*B$1</f>
         <v>0</v>
       </c>
       <c r="R44" s="1">
-        <f t="shared" si="99"/>
+        <f>C44*C$1</f>
         <v>0</v>
       </c>
       <c r="S44" s="1">
-        <f t="shared" si="100"/>
+        <f>D44*D$1</f>
         <v>0</v>
       </c>
       <c r="T44" s="1">
-        <f t="shared" si="101"/>
+        <f>E44*E$1</f>
         <v>0</v>
       </c>
       <c r="U44" s="1">
-        <f t="shared" si="102"/>
+        <f>F44*F$1</f>
         <v>0</v>
       </c>
       <c r="V44" s="1">
-        <f t="shared" si="103"/>
+        <f>G44*G$1</f>
         <v>0</v>
       </c>
       <c r="W44" s="1">
-        <f t="shared" si="104"/>
+        <f>H44*H$1</f>
         <v>0</v>
       </c>
       <c r="X44" s="1">
-        <f t="shared" si="105"/>
-        <v>512</v>
+        <f>I44*I$1</f>
+        <v>0</v>
       </c>
       <c r="Y44" s="1">
-        <f t="shared" si="106"/>
-        <v>256</v>
+        <f>J44*J$1</f>
+        <v>0</v>
       </c>
       <c r="Z44" s="1">
-        <f t="shared" si="107"/>
+        <f>K44*K$1</f>
         <v>0</v>
       </c>
       <c r="AA44" s="1">
-        <f t="shared" si="108"/>
+        <f>L44*L$1</f>
         <v>0</v>
       </c>
       <c r="AB44" s="1">
-        <f t="shared" si="109"/>
-        <v>32</v>
+        <f>M44*M$1</f>
+        <v>0</v>
       </c>
       <c r="AC44" s="1">
-        <f t="shared" si="110"/>
+        <f>N44*N$1</f>
         <v>0</v>
       </c>
       <c r="AD44" s="1">
-        <f t="shared" si="145"/>
+        <f>O44*O$1</f>
         <v>0</v>
       </c>
       <c r="AE44" s="1">
-        <f t="shared" si="146"/>
-        <v>0</v>
+        <f>P44*P$1</f>
+        <v>65536</v>
       </c>
       <c r="AF44" s="1">
-        <f t="shared" si="17"/>
-        <v>800</v>
+        <f>SUM(Q44:AE44)</f>
+        <v>65536</v>
       </c>
       <c r="AG44" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>320</v>
+        <f>DEC2HEX(AF44)</f>
+        <v>10000</v>
       </c>
     </row>
     <row r="45" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="B45" s="1">
-        <v>5</v>
-      </c>
-      <c r="I45" s="1">
-        <v>1</v>
-      </c>
-      <c r="J45" s="1">
-        <v>1</v>
-      </c>
-      <c r="M45" s="1">
+        <v>2</v>
+      </c>
+      <c r="C45" s="1">
+        <v>1</v>
+      </c>
+      <c r="E45" s="1">
         <v>1</v>
       </c>
       <c r="Q45" s="1">
-        <f t="shared" si="98"/>
-        <v>5</v>
+        <f>B45*B$1</f>
+        <v>2</v>
       </c>
       <c r="R45" s="1">
-        <f t="shared" si="99"/>
-        <v>0</v>
+        <f>C45*C$1</f>
+        <v>32768</v>
       </c>
       <c r="S45" s="1">
-        <f t="shared" si="100"/>
+        <f>D45*D$1</f>
         <v>0</v>
       </c>
       <c r="T45" s="1">
-        <f t="shared" si="101"/>
-        <v>0</v>
+        <f>E45*E$1</f>
+        <v>8192</v>
       </c>
       <c r="U45" s="1">
-        <f t="shared" si="102"/>
+        <f>F45*F$1</f>
         <v>0</v>
       </c>
       <c r="V45" s="1">
-        <f t="shared" si="103"/>
+        <f>G45*G$1</f>
         <v>0</v>
       </c>
       <c r="W45" s="1">
-        <f t="shared" si="104"/>
+        <f>H45*H$1</f>
         <v>0</v>
       </c>
       <c r="X45" s="1">
-        <f t="shared" si="105"/>
-        <v>512</v>
+        <f>I45*I$1</f>
+        <v>0</v>
       </c>
       <c r="Y45" s="1">
-        <f t="shared" si="106"/>
-        <v>256</v>
+        <f>J45*J$1</f>
+        <v>0</v>
       </c>
       <c r="Z45" s="1">
-        <f t="shared" si="107"/>
+        <f>K45*K$1</f>
         <v>0</v>
       </c>
       <c r="AA45" s="1">
-        <f t="shared" si="108"/>
+        <f>L45*L$1</f>
         <v>0</v>
       </c>
       <c r="AB45" s="1">
-        <f t="shared" si="109"/>
-        <v>32</v>
+        <f>M45*M$1</f>
+        <v>0</v>
       </c>
       <c r="AC45" s="1">
-        <f t="shared" si="110"/>
+        <f>N45*N$1</f>
         <v>0</v>
       </c>
       <c r="AD45" s="1">
-        <f t="shared" si="145"/>
+        <f>O45*O$1</f>
         <v>0</v>
       </c>
       <c r="AE45" s="1">
-        <f t="shared" si="146"/>
+        <f>P45*P$1</f>
         <v>0</v>
       </c>
       <c r="AF45" s="1">
-        <f t="shared" si="17"/>
-        <v>805</v>
+        <f>SUM(Q45:AE45)</f>
+        <v>40962</v>
       </c>
       <c r="AG45" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>325</v>
+        <f>DEC2HEX(AF45)</f>
+        <v>A002</v>
       </c>
     </row>
     <row r="46" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H46" s="1">
-        <v>1</v>
-      </c>
-      <c r="I46" s="1">
-        <v>1</v>
-      </c>
-      <c r="J46" s="1">
-        <v>1</v>
-      </c>
-      <c r="M46" s="1">
+        <v>61</v>
+      </c>
+      <c r="B46" s="1">
+        <v>2</v>
+      </c>
+      <c r="C46" s="1">
         <v>1</v>
       </c>
       <c r="Q46" s="1">
-        <f t="shared" si="98"/>
-        <v>0</v>
+        <f>B46*B$1</f>
+        <v>2</v>
       </c>
       <c r="R46" s="1">
-        <f t="shared" si="99"/>
-        <v>0</v>
+        <f>C46*C$1</f>
+        <v>32768</v>
       </c>
       <c r="S46" s="1">
-        <f t="shared" si="100"/>
+        <f>D46*D$1</f>
         <v>0</v>
       </c>
       <c r="T46" s="1">
-        <f t="shared" si="101"/>
+        <f>E46*E$1</f>
         <v>0</v>
       </c>
       <c r="U46" s="1">
-        <f t="shared" si="102"/>
+        <f>F46*F$1</f>
         <v>0</v>
       </c>
       <c r="V46" s="1">
-        <f t="shared" si="103"/>
+        <f>G46*G$1</f>
         <v>0</v>
       </c>
       <c r="W46" s="1">
-        <f t="shared" si="104"/>
-        <v>1024</v>
+        <f>H46*H$1</f>
+        <v>0</v>
       </c>
       <c r="X46" s="1">
-        <f t="shared" si="105"/>
-        <v>512</v>
+        <f>I46*I$1</f>
+        <v>0</v>
       </c>
       <c r="Y46" s="1">
-        <f t="shared" si="106"/>
-        <v>256</v>
+        <f>J46*J$1</f>
+        <v>0</v>
       </c>
       <c r="Z46" s="1">
-        <f t="shared" si="107"/>
+        <f>K46*K$1</f>
         <v>0</v>
       </c>
       <c r="AA46" s="1">
-        <f t="shared" si="108"/>
+        <f>L46*L$1</f>
         <v>0</v>
       </c>
       <c r="AB46" s="1">
-        <f t="shared" si="109"/>
-        <v>32</v>
+        <f>M46*M$1</f>
+        <v>0</v>
       </c>
       <c r="AC46" s="1">
-        <f t="shared" si="110"/>
+        <f>N46*N$1</f>
         <v>0</v>
       </c>
       <c r="AD46" s="1">
-        <f t="shared" si="145"/>
+        <f>O46*O$1</f>
         <v>0</v>
       </c>
       <c r="AE46" s="1">
-        <f t="shared" si="146"/>
+        <f>P46*P$1</f>
         <v>0</v>
       </c>
       <c r="AF46" s="1">
-        <f t="shared" si="17"/>
-        <v>1824</v>
+        <f>SUM(Q46:AE46)</f>
+        <v>32770</v>
       </c>
       <c r="AG46" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>720</v>
+        <f>DEC2HEX(AF46)</f>
+        <v>8002</v>
       </c>
     </row>
     <row r="47" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="B47" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C47" s="1">
         <v>1</v>
       </c>
       <c r="Q47" s="1">
-        <f t="shared" ref="Q47" si="213">B47*B$1</f>
-        <v>4</v>
+        <f>B47*B$1</f>
+        <v>3</v>
       </c>
       <c r="R47" s="1">
-        <f t="shared" ref="R47" si="214">C47*C$1</f>
+        <f>C47*C$1</f>
         <v>32768</v>
       </c>
       <c r="S47" s="1">
-        <f t="shared" ref="S47" si="215">D47*D$1</f>
+        <f>D47*D$1</f>
         <v>0</v>
       </c>
       <c r="T47" s="1">
-        <f t="shared" ref="T47" si="216">E47*E$1</f>
+        <f>E47*E$1</f>
         <v>0</v>
       </c>
       <c r="U47" s="1">
-        <f t="shared" ref="U47" si="217">F47*F$1</f>
+        <f>F47*F$1</f>
         <v>0</v>
       </c>
       <c r="V47" s="1">
-        <f t="shared" ref="V47" si="218">G47*G$1</f>
+        <f>G47*G$1</f>
         <v>0</v>
       </c>
       <c r="W47" s="1">
-        <f t="shared" ref="W47" si="219">H47*H$1</f>
+        <f>H47*H$1</f>
         <v>0</v>
       </c>
       <c r="X47" s="1">
-        <f t="shared" ref="X47" si="220">I47*I$1</f>
+        <f>I47*I$1</f>
         <v>0</v>
       </c>
       <c r="Y47" s="1">
-        <f t="shared" ref="Y47" si="221">J47*J$1</f>
+        <f>J47*J$1</f>
         <v>0</v>
       </c>
       <c r="Z47" s="1">
-        <f t="shared" ref="Z47" si="222">K47*K$1</f>
+        <f>K47*K$1</f>
         <v>0</v>
       </c>
       <c r="AA47" s="1">
-        <f t="shared" ref="AA47" si="223">L47*L$1</f>
+        <f>L47*L$1</f>
         <v>0</v>
       </c>
       <c r="AB47" s="1">
-        <f t="shared" ref="AB47" si="224">M47*M$1</f>
+        <f>M47*M$1</f>
         <v>0</v>
       </c>
       <c r="AC47" s="1">
-        <f t="shared" ref="AC47" si="225">N47*N$1</f>
+        <f>N47*N$1</f>
         <v>0</v>
       </c>
       <c r="AD47" s="1">
-        <f t="shared" ref="AD47" si="226">O47*O$1</f>
+        <f>O47*O$1</f>
         <v>0</v>
       </c>
       <c r="AE47" s="1">
-        <f t="shared" ref="AE47" si="227">P47*P$1</f>
+        <f>P47*P$1</f>
         <v>0</v>
       </c>
       <c r="AF47" s="1">
-        <f t="shared" ref="AF47" si="228">SUM(Q47:AE47)</f>
-        <v>32772</v>
+        <f>SUM(Q47:AE47)</f>
+        <v>32771</v>
       </c>
       <c r="AG47" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>8004</v>
+        <f>DEC2HEX(AF47)</f>
+        <v>8003</v>
       </c>
     </row>
     <row r="48" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J48" s="1">
+        <v>27</v>
+      </c>
+      <c r="B48" s="1">
+        <v>2</v>
+      </c>
+      <c r="L48" s="1">
         <v>1</v>
       </c>
       <c r="Q48" s="1">
-        <f t="shared" si="98"/>
-        <v>0</v>
+        <f>B48*B$1</f>
+        <v>2</v>
       </c>
       <c r="R48" s="1">
-        <f t="shared" si="99"/>
+        <f>C48*C$1</f>
         <v>0</v>
       </c>
       <c r="S48" s="1">
-        <f t="shared" si="100"/>
+        <f>D48*D$1</f>
         <v>0</v>
       </c>
       <c r="T48" s="1">
-        <f t="shared" si="101"/>
+        <f>E48*E$1</f>
         <v>0</v>
       </c>
       <c r="U48" s="1">
-        <f t="shared" si="102"/>
+        <f>F48*F$1</f>
         <v>0</v>
       </c>
       <c r="V48" s="1">
-        <f t="shared" si="103"/>
+        <f>G48*G$1</f>
         <v>0</v>
       </c>
       <c r="W48" s="1">
-        <f t="shared" si="104"/>
+        <f>H48*H$1</f>
         <v>0</v>
       </c>
       <c r="X48" s="1">
-        <f t="shared" si="105"/>
+        <f>I48*I$1</f>
         <v>0</v>
       </c>
       <c r="Y48" s="1">
-        <f t="shared" si="106"/>
-        <v>256</v>
+        <f>J48*J$1</f>
+        <v>0</v>
       </c>
       <c r="Z48" s="1">
-        <f t="shared" si="107"/>
+        <f>K48*K$1</f>
         <v>0</v>
       </c>
       <c r="AA48" s="1">
-        <f t="shared" si="108"/>
-        <v>0</v>
+        <f>L48*L$1</f>
+        <v>64</v>
       </c>
       <c r="AB48" s="1">
-        <f t="shared" si="109"/>
+        <f>M48*M$1</f>
         <v>0</v>
       </c>
       <c r="AC48" s="1">
-        <f t="shared" si="110"/>
+        <f>N48*N$1</f>
         <v>0</v>
       </c>
       <c r="AD48" s="1">
-        <f t="shared" si="145"/>
+        <f>O48*O$1</f>
         <v>0</v>
       </c>
       <c r="AE48" s="1">
-        <f t="shared" si="146"/>
+        <f>P48*P$1</f>
         <v>0</v>
       </c>
       <c r="AF48" s="1">
-        <f t="shared" si="17"/>
-        <v>256</v>
+        <f>SUM(Q48:AE48)</f>
+        <v>66</v>
       </c>
       <c r="AG48" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>100</v>
+        <f>DEC2HEX(AF48)</f>
+        <v>42</v>
       </c>
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H49" s="1">
-        <v>1</v>
-      </c>
-      <c r="J49" s="1">
+        <v>17</v>
+      </c>
+      <c r="L49" s="1">
+        <v>1</v>
+      </c>
+      <c r="M49" s="1">
         <v>1</v>
       </c>
       <c r="Q49" s="1">
-        <f t="shared" si="98"/>
+        <f>B49*B$1</f>
         <v>0</v>
       </c>
       <c r="R49" s="1">
-        <f t="shared" si="99"/>
+        <f>C49*C$1</f>
         <v>0</v>
       </c>
       <c r="S49" s="1">
-        <f t="shared" si="100"/>
+        <f>D49*D$1</f>
         <v>0</v>
       </c>
       <c r="T49" s="1">
-        <f t="shared" si="101"/>
+        <f>E49*E$1</f>
         <v>0</v>
       </c>
       <c r="U49" s="1">
-        <f t="shared" si="102"/>
+        <f>F49*F$1</f>
         <v>0</v>
       </c>
       <c r="V49" s="1">
-        <f t="shared" si="103"/>
+        <f>G49*G$1</f>
         <v>0</v>
       </c>
       <c r="W49" s="1">
-        <f t="shared" si="104"/>
-        <v>1024</v>
+        <f>H49*H$1</f>
+        <v>0</v>
       </c>
       <c r="X49" s="1">
-        <f t="shared" si="105"/>
+        <f>I49*I$1</f>
         <v>0</v>
       </c>
       <c r="Y49" s="1">
-        <f t="shared" si="106"/>
-        <v>256</v>
+        <f>J49*J$1</f>
+        <v>0</v>
       </c>
       <c r="Z49" s="1">
-        <f t="shared" si="107"/>
+        <f>K49*K$1</f>
         <v>0</v>
       </c>
       <c r="AA49" s="1">
-        <f t="shared" si="108"/>
-        <v>0</v>
+        <f>L49*L$1</f>
+        <v>64</v>
       </c>
       <c r="AB49" s="1">
-        <f t="shared" si="109"/>
-        <v>0</v>
+        <f>M49*M$1</f>
+        <v>32</v>
       </c>
       <c r="AC49" s="1">
-        <f t="shared" si="110"/>
+        <f>N49*N$1</f>
         <v>0</v>
       </c>
       <c r="AD49" s="1">
-        <f t="shared" si="145"/>
+        <f>O49*O$1</f>
         <v>0</v>
       </c>
       <c r="AE49" s="1">
-        <f t="shared" si="146"/>
+        <f>P49*P$1</f>
         <v>0</v>
       </c>
       <c r="AF49" s="1">
-        <f t="shared" si="17"/>
-        <v>1280</v>
+        <f>SUM(Q49:AE49)</f>
+        <v>96</v>
       </c>
       <c r="AG49" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>500</v>
+        <f>DEC2HEX(AF49)</f>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H50" s="1">
-        <v>1</v>
-      </c>
-      <c r="I50" s="1">
-        <v>1</v>
-      </c>
-      <c r="J50" s="1">
+        <v>28</v>
+      </c>
+      <c r="B50" s="1">
+        <v>1</v>
+      </c>
+      <c r="L50" s="1">
         <v>1</v>
       </c>
       <c r="Q50" s="1">
-        <f t="shared" si="98"/>
-        <v>0</v>
+        <f>B50*B$1</f>
+        <v>1</v>
       </c>
       <c r="R50" s="1">
-        <f t="shared" ref="R50" si="229">C50*C$1</f>
+        <f>C50*C$1</f>
         <v>0</v>
       </c>
       <c r="S50" s="1">
-        <f t="shared" ref="S50" si="230">D50*D$1</f>
+        <f>D50*D$1</f>
         <v>0</v>
       </c>
       <c r="T50" s="1">
-        <f t="shared" ref="T50" si="231">E50*E$1</f>
+        <f>E50*E$1</f>
         <v>0</v>
       </c>
       <c r="U50" s="1">
-        <f t="shared" ref="U50" si="232">F50*F$1</f>
+        <f>F50*F$1</f>
         <v>0</v>
       </c>
       <c r="V50" s="1">
-        <f t="shared" ref="V50" si="233">G50*G$1</f>
+        <f>G50*G$1</f>
         <v>0</v>
       </c>
       <c r="W50" s="1">
-        <f t="shared" ref="W50" si="234">H50*H$1</f>
-        <v>1024</v>
+        <f>H50*H$1</f>
+        <v>0</v>
       </c>
       <c r="X50" s="1">
-        <f t="shared" ref="X50" si="235">I50*I$1</f>
-        <v>512</v>
+        <f>I50*I$1</f>
+        <v>0</v>
       </c>
       <c r="Y50" s="1">
-        <f t="shared" ref="Y50" si="236">J50*J$1</f>
-        <v>256</v>
+        <f>J50*J$1</f>
+        <v>0</v>
       </c>
       <c r="Z50" s="1">
-        <f t="shared" ref="Z50" si="237">K50*K$1</f>
+        <f>K50*K$1</f>
         <v>0</v>
       </c>
       <c r="AA50" s="1">
-        <f t="shared" ref="AA50" si="238">L50*L$1</f>
-        <v>0</v>
+        <f>L50*L$1</f>
+        <v>64</v>
       </c>
       <c r="AB50" s="1">
-        <f t="shared" ref="AB50" si="239">M50*M$1</f>
+        <f>M50*M$1</f>
         <v>0</v>
       </c>
       <c r="AC50" s="1">
-        <f t="shared" ref="AC50" si="240">N50*N$1</f>
+        <f>N50*N$1</f>
         <v>0</v>
       </c>
       <c r="AD50" s="1">
-        <f t="shared" ref="AD50" si="241">O50*O$1</f>
+        <f>O50*O$1</f>
         <v>0</v>
       </c>
       <c r="AE50" s="1">
-        <f t="shared" ref="AE50" si="242">P50*P$1</f>
+        <f>P50*P$1</f>
         <v>0</v>
       </c>
       <c r="AF50" s="1">
-        <f t="shared" ref="AF50" si="243">SUM(Q50:AE50)</f>
-        <v>1792</v>
+        <f>SUM(Q50:AE50)</f>
+        <v>65</v>
       </c>
       <c r="AG50" s="1" t="str">
-        <f t="shared" ref="AG50" si="244">DEC2HEX(AF50)</f>
-        <v>700</v>
+        <f>DEC2HEX(AF50)</f>
+        <v>41</v>
       </c>
     </row>
     <row r="51" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I51" s="1">
+        <v>81</v>
+      </c>
+      <c r="B51" s="1">
+        <v>1</v>
+      </c>
+      <c r="H51" s="1">
+        <v>1</v>
+      </c>
+      <c r="L51" s="1">
         <v>1</v>
       </c>
       <c r="Q51" s="1">
-        <f t="shared" si="98"/>
-        <v>0</v>
+        <f>B51*B$1</f>
+        <v>1</v>
       </c>
       <c r="R51" s="1">
-        <f t="shared" si="99"/>
+        <f>C51*C$1</f>
         <v>0</v>
       </c>
       <c r="S51" s="1">
-        <f t="shared" si="100"/>
+        <f>D51*D$1</f>
         <v>0</v>
       </c>
       <c r="T51" s="1">
-        <f t="shared" si="101"/>
+        <f>E51*E$1</f>
         <v>0</v>
       </c>
       <c r="U51" s="1">
-        <f t="shared" si="102"/>
+        <f>F51*F$1</f>
         <v>0</v>
       </c>
       <c r="V51" s="1">
-        <f t="shared" si="103"/>
+        <f>G51*G$1</f>
         <v>0</v>
       </c>
       <c r="W51" s="1">
-        <f t="shared" si="104"/>
-        <v>0</v>
+        <f>H51*H$1</f>
+        <v>1024</v>
       </c>
       <c r="X51" s="1">
-        <f t="shared" si="105"/>
-        <v>512</v>
+        <f>I51*I$1</f>
+        <v>0</v>
       </c>
       <c r="Y51" s="1">
-        <f t="shared" si="106"/>
+        <f>J51*J$1</f>
         <v>0</v>
       </c>
       <c r="Z51" s="1">
-        <f t="shared" si="107"/>
+        <f>K51*K$1</f>
         <v>0</v>
       </c>
       <c r="AA51" s="1">
-        <f t="shared" si="108"/>
-        <v>0</v>
+        <f>L51*L$1</f>
+        <v>64</v>
       </c>
       <c r="AB51" s="1">
-        <f t="shared" si="109"/>
+        <f>M51*M$1</f>
         <v>0</v>
       </c>
       <c r="AC51" s="1">
-        <f t="shared" si="110"/>
+        <f>N51*N$1</f>
         <v>0</v>
       </c>
       <c r="AD51" s="1">
-        <f t="shared" si="145"/>
+        <f>O51*O$1</f>
         <v>0</v>
       </c>
       <c r="AE51" s="1">
-        <f t="shared" si="146"/>
+        <f>P51*P$1</f>
         <v>0</v>
       </c>
       <c r="AF51" s="1">
-        <f t="shared" si="17"/>
-        <v>512</v>
+        <f>SUM(Q51:AE51)</f>
+        <v>1089</v>
       </c>
       <c r="AG51" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>200</v>
+        <f>DEC2HEX(AF51)</f>
+        <v>441</v>
       </c>
     </row>
     <row r="52" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A52" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I52" s="1">
-        <v>1</v>
-      </c>
-      <c r="J52" s="1">
+        <v>45</v>
+      </c>
+      <c r="B52" s="1">
+        <v>2</v>
+      </c>
+      <c r="E52" s="1">
+        <v>1</v>
+      </c>
+      <c r="F52" s="1">
         <v>1</v>
       </c>
       <c r="Q52" s="1">
-        <f t="shared" si="98"/>
-        <v>0</v>
+        <f>B52*B$1</f>
+        <v>2</v>
       </c>
       <c r="R52" s="1">
-        <f t="shared" si="99"/>
+        <f>C52*C$1</f>
         <v>0</v>
       </c>
       <c r="S52" s="1">
-        <f t="shared" si="100"/>
+        <f>D52*D$1</f>
         <v>0</v>
       </c>
       <c r="T52" s="1">
-        <f t="shared" si="101"/>
-        <v>0</v>
+        <f>E52*E$1</f>
+        <v>8192</v>
       </c>
       <c r="U52" s="1">
-        <f t="shared" si="102"/>
-        <v>0</v>
+        <f>F52*F$1</f>
+        <v>4096</v>
       </c>
       <c r="V52" s="1">
-        <f t="shared" si="103"/>
+        <f>G52*G$1</f>
         <v>0</v>
       </c>
       <c r="W52" s="1">
-        <f t="shared" si="104"/>
+        <f>H52*H$1</f>
         <v>0</v>
       </c>
       <c r="X52" s="1">
-        <f t="shared" si="105"/>
-        <v>512</v>
+        <f>I52*I$1</f>
+        <v>0</v>
       </c>
       <c r="Y52" s="1">
-        <f t="shared" si="106"/>
-        <v>256</v>
+        <f>J52*J$1</f>
+        <v>0</v>
       </c>
       <c r="Z52" s="1">
-        <f t="shared" si="107"/>
+        <f>K52*K$1</f>
         <v>0</v>
       </c>
       <c r="AA52" s="1">
-        <f t="shared" si="108"/>
+        <f>L52*L$1</f>
         <v>0</v>
       </c>
       <c r="AB52" s="1">
-        <f t="shared" si="109"/>
+        <f>M52*M$1</f>
         <v>0</v>
       </c>
       <c r="AC52" s="1">
-        <f t="shared" si="110"/>
+        <f>N52*N$1</f>
         <v>0</v>
       </c>
       <c r="AD52" s="1">
-        <f t="shared" si="145"/>
+        <f>O52*O$1</f>
         <v>0</v>
       </c>
       <c r="AE52" s="1">
-        <f t="shared" si="146"/>
+        <f>P52*P$1</f>
         <v>0</v>
       </c>
       <c r="AF52" s="1">
-        <f t="shared" si="17"/>
-        <v>768</v>
+        <f>SUM(Q52:AE52)</f>
+        <v>12290</v>
       </c>
       <c r="AG52" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>300</v>
+        <f>DEC2HEX(AF52)</f>
+        <v>3002</v>
       </c>
     </row>
     <row r="53" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H53" s="1">
-        <v>1</v>
-      </c>
-      <c r="I53" s="1">
+        <v>43</v>
+      </c>
+      <c r="B53" s="1">
+        <v>2</v>
+      </c>
+      <c r="E53" s="1">
         <v>1</v>
       </c>
       <c r="Q53" s="1">
-        <f t="shared" si="98"/>
-        <v>0</v>
+        <f>B53*B$1</f>
+        <v>2</v>
       </c>
       <c r="R53" s="1">
-        <f t="shared" si="99"/>
+        <f>C53*C$1</f>
         <v>0</v>
       </c>
       <c r="S53" s="1">
-        <f t="shared" si="100"/>
+        <f>D53*D$1</f>
         <v>0</v>
       </c>
       <c r="T53" s="1">
-        <f t="shared" si="101"/>
-        <v>0</v>
+        <f>E53*E$1</f>
+        <v>8192</v>
       </c>
       <c r="U53" s="1">
-        <f t="shared" si="102"/>
+        <f>F53*F$1</f>
         <v>0</v>
       </c>
       <c r="V53" s="1">
-        <f t="shared" si="103"/>
+        <f>G53*G$1</f>
         <v>0</v>
       </c>
       <c r="W53" s="1">
-        <f t="shared" si="104"/>
-        <v>1024</v>
+        <f>H53*H$1</f>
+        <v>0</v>
       </c>
       <c r="X53" s="1">
-        <f t="shared" si="105"/>
-        <v>512</v>
+        <f>I53*I$1</f>
+        <v>0</v>
       </c>
       <c r="Y53" s="1">
-        <f t="shared" si="106"/>
+        <f>J53*J$1</f>
         <v>0</v>
       </c>
       <c r="Z53" s="1">
-        <f t="shared" si="107"/>
+        <f>K53*K$1</f>
         <v>0</v>
       </c>
       <c r="AA53" s="1">
-        <f t="shared" si="108"/>
+        <f>L53*L$1</f>
         <v>0</v>
       </c>
       <c r="AB53" s="1">
-        <f t="shared" si="109"/>
+        <f>M53*M$1</f>
         <v>0</v>
       </c>
       <c r="AC53" s="1">
-        <f t="shared" si="110"/>
+        <f>N53*N$1</f>
         <v>0</v>
       </c>
       <c r="AD53" s="1">
-        <f t="shared" si="145"/>
+        <f>O53*O$1</f>
         <v>0</v>
       </c>
       <c r="AE53" s="1">
-        <f t="shared" si="146"/>
+        <f>P53*P$1</f>
         <v>0</v>
       </c>
       <c r="AF53" s="1">
-        <f t="shared" si="17"/>
-        <v>1536</v>
+        <f>SUM(Q53:AE53)</f>
+        <v>8194</v>
       </c>
       <c r="AG53" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>600</v>
+        <f>DEC2HEX(AF53)</f>
+        <v>2002</v>
       </c>
     </row>
     <row r="54" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A54" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I54" s="1">
-        <v>1</v>
-      </c>
-      <c r="N54" s="1">
+        <v>44</v>
+      </c>
+      <c r="B54" s="1">
+        <v>2</v>
+      </c>
+      <c r="F54" s="1">
         <v>1</v>
       </c>
       <c r="Q54" s="1">
-        <f t="shared" si="98"/>
-        <v>0</v>
+        <f>B54*B$1</f>
+        <v>2</v>
       </c>
       <c r="R54" s="1">
-        <f t="shared" si="99"/>
+        <f>C54*C$1</f>
         <v>0</v>
       </c>
       <c r="S54" s="1">
-        <f t="shared" si="100"/>
+        <f>D54*D$1</f>
         <v>0</v>
       </c>
       <c r="T54" s="1">
-        <f t="shared" si="101"/>
+        <f>E54*E$1</f>
         <v>0</v>
       </c>
       <c r="U54" s="1">
-        <f t="shared" si="102"/>
-        <v>0</v>
+        <f>F54*F$1</f>
+        <v>4096</v>
       </c>
       <c r="V54" s="1">
-        <f t="shared" si="103"/>
+        <f>G54*G$1</f>
         <v>0</v>
       </c>
       <c r="W54" s="1">
-        <f t="shared" si="104"/>
+        <f>H54*H$1</f>
         <v>0</v>
       </c>
       <c r="X54" s="1">
-        <f t="shared" si="105"/>
-        <v>512</v>
+        <f>I54*I$1</f>
+        <v>0</v>
       </c>
       <c r="Y54" s="1">
-        <f t="shared" si="106"/>
+        <f>J54*J$1</f>
         <v>0</v>
       </c>
       <c r="Z54" s="1">
-        <f t="shared" si="107"/>
+        <f>K54*K$1</f>
         <v>0</v>
       </c>
       <c r="AA54" s="1">
-        <f t="shared" si="108"/>
+        <f>L54*L$1</f>
         <v>0</v>
       </c>
       <c r="AB54" s="1">
-        <f t="shared" si="109"/>
+        <f>M54*M$1</f>
         <v>0</v>
       </c>
       <c r="AC54" s="1">
-        <f t="shared" si="110"/>
-        <v>16</v>
+        <f>N54*N$1</f>
+        <v>0</v>
       </c>
       <c r="AD54" s="1">
-        <f t="shared" si="145"/>
+        <f>O54*O$1</f>
         <v>0</v>
       </c>
       <c r="AE54" s="1">
-        <f t="shared" si="146"/>
+        <f>P54*P$1</f>
         <v>0</v>
       </c>
       <c r="AF54" s="1">
-        <f t="shared" si="17"/>
-        <v>528</v>
+        <f>SUM(Q54:AE54)</f>
+        <v>4098</v>
       </c>
       <c r="AG54" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>210</v>
+        <f>DEC2HEX(AF54)</f>
+        <v>1002</v>
       </c>
     </row>
     <row r="55" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A55" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H55" s="1">
+        <v>42</v>
+      </c>
+      <c r="B55" s="1">
+        <v>1</v>
+      </c>
+      <c r="E55" s="1">
+        <v>1</v>
+      </c>
+      <c r="F55" s="1">
         <v>1</v>
       </c>
       <c r="Q55" s="1">
-        <f t="shared" si="98"/>
-        <v>0</v>
+        <f>B55*B$1</f>
+        <v>1</v>
       </c>
       <c r="R55" s="1">
-        <f t="shared" si="99"/>
+        <f>C55*C$1</f>
         <v>0</v>
       </c>
       <c r="S55" s="1">
-        <f t="shared" si="100"/>
+        <f>D55*D$1</f>
         <v>0</v>
       </c>
       <c r="T55" s="1">
-        <f t="shared" si="101"/>
-        <v>0</v>
+        <f>E55*E$1</f>
+        <v>8192</v>
       </c>
       <c r="U55" s="1">
-        <f t="shared" si="102"/>
-        <v>0</v>
+        <f>F55*F$1</f>
+        <v>4096</v>
       </c>
       <c r="V55" s="1">
-        <f t="shared" si="103"/>
+        <f>G55*G$1</f>
         <v>0</v>
       </c>
       <c r="W55" s="1">
-        <f t="shared" si="104"/>
-        <v>1024</v>
+        <f>H55*H$1</f>
+        <v>0</v>
       </c>
       <c r="X55" s="1">
-        <f t="shared" si="105"/>
+        <f>I55*I$1</f>
         <v>0</v>
       </c>
       <c r="Y55" s="1">
-        <f t="shared" si="106"/>
+        <f>J55*J$1</f>
         <v>0</v>
       </c>
       <c r="Z55" s="1">
-        <f t="shared" si="107"/>
+        <f>K55*K$1</f>
         <v>0</v>
       </c>
       <c r="AA55" s="1">
-        <f t="shared" si="108"/>
+        <f>L55*L$1</f>
         <v>0</v>
       </c>
       <c r="AB55" s="1">
-        <f t="shared" si="109"/>
+        <f>M55*M$1</f>
         <v>0</v>
       </c>
       <c r="AC55" s="1">
-        <f t="shared" si="110"/>
+        <f>N55*N$1</f>
         <v>0</v>
       </c>
       <c r="AD55" s="1">
-        <f t="shared" si="145"/>
+        <f>O55*O$1</f>
         <v>0</v>
       </c>
       <c r="AE55" s="1">
-        <f t="shared" si="146"/>
+        <f>P55*P$1</f>
         <v>0</v>
       </c>
       <c r="AF55" s="1">
-        <f t="shared" si="17"/>
-        <v>1024</v>
+        <f>SUM(Q55:AE55)</f>
+        <v>12289</v>
       </c>
       <c r="AG55" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>400</v>
+        <f>DEC2HEX(AF55)</f>
+        <v>3001</v>
       </c>
     </row>
     <row r="56" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A56" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H56" s="1">
-        <v>1</v>
-      </c>
-      <c r="M56" s="1">
+        <v>40</v>
+      </c>
+      <c r="B56" s="1">
+        <v>1</v>
+      </c>
+      <c r="E56" s="1">
         <v>1</v>
       </c>
       <c r="Q56" s="1">
-        <f t="shared" ref="Q56" si="245">B56*B$1</f>
-        <v>0</v>
+        <f>B56*B$1</f>
+        <v>1</v>
       </c>
       <c r="R56" s="1">
-        <f t="shared" ref="R56" si="246">C56*C$1</f>
+        <f>C56*C$1</f>
         <v>0</v>
       </c>
       <c r="S56" s="1">
-        <f t="shared" ref="S56" si="247">D56*D$1</f>
+        <f>D56*D$1</f>
         <v>0</v>
       </c>
       <c r="T56" s="1">
-        <f t="shared" ref="T56" si="248">E56*E$1</f>
-        <v>0</v>
+        <f>E56*E$1</f>
+        <v>8192</v>
       </c>
       <c r="U56" s="1">
-        <f t="shared" ref="U56" si="249">F56*F$1</f>
+        <f>F56*F$1</f>
         <v>0</v>
       </c>
       <c r="V56" s="1">
-        <f t="shared" ref="V56" si="250">G56*G$1</f>
+        <f>G56*G$1</f>
         <v>0</v>
       </c>
       <c r="W56" s="1">
-        <f t="shared" ref="W56" si="251">H56*H$1</f>
-        <v>1024</v>
+        <f>H56*H$1</f>
+        <v>0</v>
       </c>
       <c r="X56" s="1">
-        <f t="shared" ref="X56" si="252">I56*I$1</f>
+        <f>I56*I$1</f>
         <v>0</v>
       </c>
       <c r="Y56" s="1">
-        <f t="shared" ref="Y56" si="253">J56*J$1</f>
+        <f>J56*J$1</f>
         <v>0</v>
       </c>
       <c r="Z56" s="1">
-        <f t="shared" ref="Z56" si="254">K56*K$1</f>
+        <f>K56*K$1</f>
         <v>0</v>
       </c>
       <c r="AA56" s="1">
-        <f t="shared" ref="AA56" si="255">L56*L$1</f>
+        <f>L56*L$1</f>
         <v>0</v>
       </c>
       <c r="AB56" s="1">
-        <f t="shared" ref="AB56" si="256">M56*M$1</f>
-        <v>32</v>
+        <f>M56*M$1</f>
+        <v>0</v>
       </c>
       <c r="AC56" s="1">
-        <f t="shared" ref="AC56" si="257">N56*N$1</f>
+        <f>N56*N$1</f>
         <v>0</v>
       </c>
       <c r="AD56" s="1">
-        <f t="shared" ref="AD56" si="258">O56*O$1</f>
+        <f>O56*O$1</f>
         <v>0</v>
       </c>
       <c r="AE56" s="1">
-        <f t="shared" ref="AE56" si="259">P56*P$1</f>
+        <f>P56*P$1</f>
         <v>0</v>
       </c>
       <c r="AF56" s="1">
-        <f t="shared" ref="AF56" si="260">SUM(Q56:AE56)</f>
-        <v>1056</v>
+        <f>SUM(Q56:AE56)</f>
+        <v>8193</v>
       </c>
       <c r="AG56" s="1" t="str">
-        <f t="shared" ref="AG56" si="261">DEC2HEX(AF56)</f>
-        <v>420</v>
+        <f>DEC2HEX(AF56)</f>
+        <v>2001</v>
       </c>
     </row>
     <row r="57" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H57" s="1">
-        <v>1</v>
-      </c>
-      <c r="N57" s="1">
+        <v>41</v>
+      </c>
+      <c r="B57" s="1">
+        <v>1</v>
+      </c>
+      <c r="F57" s="1">
         <v>1</v>
       </c>
       <c r="Q57" s="1">
-        <f t="shared" si="98"/>
-        <v>0</v>
+        <f>B57*B$1</f>
+        <v>1</v>
       </c>
       <c r="R57" s="1">
-        <f t="shared" si="99"/>
+        <f>C57*C$1</f>
         <v>0</v>
       </c>
       <c r="S57" s="1">
-        <f t="shared" si="100"/>
+        <f>D57*D$1</f>
         <v>0</v>
       </c>
       <c r="T57" s="1">
-        <f t="shared" si="101"/>
+        <f>E57*E$1</f>
         <v>0</v>
       </c>
       <c r="U57" s="1">
-        <f t="shared" si="102"/>
-        <v>0</v>
+        <f>F57*F$1</f>
+        <v>4096</v>
       </c>
       <c r="V57" s="1">
-        <f t="shared" si="103"/>
+        <f>G57*G$1</f>
         <v>0</v>
       </c>
       <c r="W57" s="1">
-        <f t="shared" si="104"/>
-        <v>1024</v>
+        <f>H57*H$1</f>
+        <v>0</v>
       </c>
       <c r="X57" s="1">
-        <f t="shared" si="105"/>
+        <f>I57*I$1</f>
         <v>0</v>
       </c>
       <c r="Y57" s="1">
-        <f t="shared" si="106"/>
+        <f>J57*J$1</f>
         <v>0</v>
       </c>
       <c r="Z57" s="1">
-        <f t="shared" si="107"/>
+        <f>K57*K$1</f>
         <v>0</v>
       </c>
       <c r="AA57" s="1">
-        <f t="shared" si="108"/>
+        <f>L57*L$1</f>
         <v>0</v>
       </c>
       <c r="AB57" s="1">
-        <f t="shared" si="109"/>
+        <f>M57*M$1</f>
         <v>0</v>
       </c>
       <c r="AC57" s="1">
-        <f t="shared" si="110"/>
-        <v>16</v>
+        <f>N57*N$1</f>
+        <v>0</v>
       </c>
       <c r="AD57" s="1">
-        <f t="shared" si="145"/>
+        <f>O57*O$1</f>
         <v>0</v>
       </c>
       <c r="AE57" s="1">
-        <f t="shared" si="146"/>
+        <f>P57*P$1</f>
         <v>0</v>
       </c>
       <c r="AF57" s="1">
-        <f t="shared" si="17"/>
-        <v>1040</v>
+        <f>SUM(Q57:AE57)</f>
+        <v>4097</v>
       </c>
       <c r="AG57" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>410</v>
+        <f>DEC2HEX(AF57)</f>
+        <v>1001</v>
       </c>
     </row>
     <row r="58" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A58" s="1" t="s">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="B58" s="1">
-        <v>2</v>
-      </c>
-      <c r="C58" s="1">
-        <v>1</v>
-      </c>
-      <c r="E58" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Q58" s="1">
-        <f t="shared" si="98"/>
-        <v>2</v>
+        <f>B58*B$1</f>
+        <v>7</v>
       </c>
       <c r="R58" s="1">
-        <f t="shared" si="99"/>
-        <v>32768</v>
+        <f>C58*C$1</f>
+        <v>0</v>
       </c>
       <c r="S58" s="1">
-        <f t="shared" si="100"/>
+        <f>D58*D$1</f>
         <v>0</v>
       </c>
       <c r="T58" s="1">
-        <f t="shared" si="101"/>
-        <v>8192</v>
+        <f>E58*E$1</f>
+        <v>0</v>
       </c>
       <c r="U58" s="1">
-        <f t="shared" si="102"/>
+        <f>F58*F$1</f>
         <v>0</v>
       </c>
       <c r="V58" s="1">
-        <f t="shared" si="103"/>
+        <f>G58*G$1</f>
         <v>0</v>
       </c>
       <c r="W58" s="1">
-        <f t="shared" si="104"/>
+        <f>H58*H$1</f>
         <v>0</v>
       </c>
       <c r="X58" s="1">
-        <f t="shared" si="105"/>
+        <f>I58*I$1</f>
         <v>0</v>
       </c>
       <c r="Y58" s="1">
-        <f t="shared" si="106"/>
+        <f>J58*J$1</f>
         <v>0</v>
       </c>
       <c r="Z58" s="1">
-        <f t="shared" si="107"/>
+        <f>K58*K$1</f>
         <v>0</v>
       </c>
       <c r="AA58" s="1">
-        <f t="shared" si="108"/>
+        <f>L58*L$1</f>
         <v>0</v>
       </c>
       <c r="AB58" s="1">
-        <f t="shared" si="109"/>
+        <f>M58*M$1</f>
         <v>0</v>
       </c>
       <c r="AC58" s="1">
-        <f t="shared" si="110"/>
+        <f>N58*N$1</f>
         <v>0</v>
       </c>
       <c r="AD58" s="1">
-        <f t="shared" si="145"/>
+        <f>O58*O$1</f>
         <v>0</v>
       </c>
       <c r="AE58" s="1">
-        <f t="shared" si="146"/>
+        <f>P58*P$1</f>
         <v>0</v>
       </c>
       <c r="AF58" s="1">
-        <f t="shared" si="17"/>
-        <v>40962</v>
+        <f>SUM(Q58:AE58)</f>
+        <v>7</v>
       </c>
       <c r="AG58" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>A002</v>
+        <f>DEC2HEX(AF58)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="B59" s="1">
-        <v>2</v>
-      </c>
-      <c r="C59" s="1">
+        <v>3</v>
+      </c>
+      <c r="E59" s="1">
+        <v>1</v>
+      </c>
+      <c r="F59" s="1">
         <v>1</v>
       </c>
       <c r="Q59" s="1">
-        <f t="shared" si="98"/>
-        <v>2</v>
+        <f>B59*B$1</f>
+        <v>3</v>
       </c>
       <c r="R59" s="1">
-        <f t="shared" si="99"/>
-        <v>32768</v>
+        <f>C59*C$1</f>
+        <v>0</v>
       </c>
       <c r="S59" s="1">
-        <f t="shared" si="100"/>
+        <f>D59*D$1</f>
         <v>0</v>
       </c>
       <c r="T59" s="1">
-        <f t="shared" si="101"/>
-        <v>0</v>
+        <f>E59*E$1</f>
+        <v>8192</v>
       </c>
       <c r="U59" s="1">
-        <f t="shared" si="102"/>
-        <v>0</v>
+        <f>F59*F$1</f>
+        <v>4096</v>
       </c>
       <c r="V59" s="1">
-        <f t="shared" si="103"/>
+        <f>G59*G$1</f>
         <v>0</v>
       </c>
       <c r="W59" s="1">
-        <f t="shared" si="104"/>
+        <f>H59*H$1</f>
         <v>0</v>
       </c>
       <c r="X59" s="1">
-        <f t="shared" si="105"/>
+        <f>I59*I$1</f>
         <v>0</v>
       </c>
       <c r="Y59" s="1">
-        <f t="shared" si="106"/>
+        <f>J59*J$1</f>
         <v>0</v>
       </c>
       <c r="Z59" s="1">
-        <f t="shared" si="107"/>
+        <f>K59*K$1</f>
         <v>0</v>
       </c>
       <c r="AA59" s="1">
-        <f t="shared" si="108"/>
+        <f>L59*L$1</f>
         <v>0</v>
       </c>
       <c r="AB59" s="1">
-        <f t="shared" si="109"/>
+        <f>M59*M$1</f>
         <v>0</v>
       </c>
       <c r="AC59" s="1">
-        <f t="shared" si="110"/>
+        <f>N59*N$1</f>
         <v>0</v>
       </c>
       <c r="AD59" s="1">
-        <f t="shared" si="145"/>
+        <f>O59*O$1</f>
         <v>0</v>
       </c>
       <c r="AE59" s="1">
-        <f t="shared" si="146"/>
+        <f>P59*P$1</f>
         <v>0</v>
       </c>
       <c r="AF59" s="1">
-        <f t="shared" si="17"/>
-        <v>32770</v>
+        <f>SUM(Q59:AE59)</f>
+        <v>12291</v>
       </c>
       <c r="AG59" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>8002</v>
+        <f>DEC2HEX(AF59)</f>
+        <v>3003</v>
       </c>
     </row>
     <row r="60" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A60" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B60" s="1">
-        <v>3</v>
-      </c>
-      <c r="C60" s="1">
+        <v>21</v>
+      </c>
+      <c r="K60" s="1">
         <v>1</v>
       </c>
       <c r="Q60" s="1">
-        <f t="shared" si="98"/>
-        <v>3</v>
+        <f>B60*B$1</f>
+        <v>0</v>
       </c>
       <c r="R60" s="1">
-        <f t="shared" si="99"/>
-        <v>32768</v>
+        <f>C60*C$1</f>
+        <v>0</v>
       </c>
       <c r="S60" s="1">
-        <f t="shared" si="100"/>
+        <f>D60*D$1</f>
         <v>0</v>
       </c>
       <c r="T60" s="1">
-        <f t="shared" si="101"/>
+        <f>E60*E$1</f>
         <v>0</v>
       </c>
       <c r="U60" s="1">
-        <f t="shared" si="102"/>
+        <f>F60*F$1</f>
         <v>0</v>
       </c>
       <c r="V60" s="1">
-        <f t="shared" si="103"/>
+        <f>G60*G$1</f>
         <v>0</v>
       </c>
       <c r="W60" s="1">
-        <f t="shared" si="104"/>
+        <f>H60*H$1</f>
         <v>0</v>
       </c>
       <c r="X60" s="1">
-        <f t="shared" si="105"/>
+        <f>I60*I$1</f>
         <v>0</v>
       </c>
       <c r="Y60" s="1">
-        <f t="shared" si="106"/>
+        <f>J60*J$1</f>
         <v>0</v>
       </c>
       <c r="Z60" s="1">
-        <f t="shared" si="107"/>
-        <v>0</v>
+        <f>K60*K$1</f>
+        <v>128</v>
       </c>
       <c r="AA60" s="1">
-        <f t="shared" si="108"/>
+        <f>L60*L$1</f>
         <v>0</v>
       </c>
       <c r="AB60" s="1">
-        <f t="shared" si="109"/>
+        <f>M60*M$1</f>
         <v>0</v>
       </c>
       <c r="AC60" s="1">
-        <f t="shared" si="110"/>
+        <f>N60*N$1</f>
         <v>0</v>
       </c>
       <c r="AD60" s="1">
-        <f t="shared" si="145"/>
+        <f>O60*O$1</f>
         <v>0</v>
       </c>
       <c r="AE60" s="1">
-        <f t="shared" si="146"/>
+        <f>P60*P$1</f>
         <v>0</v>
       </c>
       <c r="AF60" s="1">
-        <f t="shared" si="17"/>
-        <v>32771</v>
+        <f>SUM(Q60:AE60)</f>
+        <v>128</v>
       </c>
       <c r="AG60" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>8003</v>
+        <f>DEC2HEX(AF60)</f>
+        <v>80</v>
       </c>
     </row>
     <row r="61" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A61" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B61" s="1">
-        <v>2</v>
-      </c>
-      <c r="L61" s="1">
+        <v>94</v>
+      </c>
+      <c r="H61" s="1">
+        <v>1</v>
+      </c>
+      <c r="K61" s="1">
         <v>1</v>
       </c>
       <c r="Q61" s="1">
-        <f t="shared" si="98"/>
-        <v>2</v>
+        <f>B61*B$1</f>
+        <v>0</v>
       </c>
       <c r="R61" s="1">
-        <f t="shared" si="99"/>
+        <f>C61*C$1</f>
         <v>0</v>
       </c>
       <c r="S61" s="1">
-        <f t="shared" si="100"/>
+        <f>D61*D$1</f>
         <v>0</v>
       </c>
       <c r="T61" s="1">
-        <f t="shared" si="101"/>
+        <f>E61*E$1</f>
         <v>0</v>
       </c>
       <c r="U61" s="1">
-        <f t="shared" si="102"/>
+        <f>F61*F$1</f>
         <v>0</v>
       </c>
       <c r="V61" s="1">
-        <f t="shared" si="103"/>
+        <f>G61*G$1</f>
         <v>0</v>
       </c>
       <c r="W61" s="1">
-        <f t="shared" si="104"/>
-        <v>0</v>
+        <f>H61*H$1</f>
+        <v>1024</v>
       </c>
       <c r="X61" s="1">
-        <f t="shared" si="105"/>
+        <f>I61*I$1</f>
         <v>0</v>
       </c>
       <c r="Y61" s="1">
-        <f t="shared" si="106"/>
+        <f>J61*J$1</f>
         <v>0</v>
       </c>
       <c r="Z61" s="1">
-        <f t="shared" si="107"/>
-        <v>0</v>
+        <f>K61*K$1</f>
+        <v>128</v>
       </c>
       <c r="AA61" s="1">
-        <f t="shared" si="108"/>
-        <v>64</v>
+        <f>L61*L$1</f>
+        <v>0</v>
       </c>
       <c r="AB61" s="1">
-        <f t="shared" si="109"/>
+        <f>M61*M$1</f>
         <v>0</v>
       </c>
       <c r="AC61" s="1">
-        <f t="shared" si="110"/>
+        <f>N61*N$1</f>
         <v>0</v>
       </c>
       <c r="AD61" s="1">
-        <f t="shared" si="145"/>
+        <f>O61*O$1</f>
         <v>0</v>
       </c>
       <c r="AE61" s="1">
-        <f t="shared" si="146"/>
+        <f>P61*P$1</f>
         <v>0</v>
       </c>
       <c r="AF61" s="1">
-        <f t="shared" si="17"/>
-        <v>66</v>
+        <f>SUM(Q61:AE61)</f>
+        <v>1152</v>
       </c>
       <c r="AG61" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>42</v>
+        <f>DEC2HEX(AF61)</f>
+        <v>480</v>
       </c>
     </row>
     <row r="62" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A62" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L62" s="1">
-        <v>1</v>
-      </c>
-      <c r="M62" s="1">
-        <v>1</v>
+        <v>96</v>
+      </c>
+      <c r="K62" s="1">
+        <v>1</v>
+      </c>
+      <c r="P62" s="1">
+        <v>28</v>
       </c>
       <c r="Q62" s="1">
-        <f t="shared" si="98"/>
+        <f>B62*B$1</f>
         <v>0</v>
       </c>
       <c r="R62" s="1">
-        <f t="shared" si="99"/>
+        <f>C62*C$1</f>
         <v>0</v>
       </c>
       <c r="S62" s="1">
-        <f t="shared" si="100"/>
+        <f>D62*D$1</f>
         <v>0</v>
       </c>
       <c r="T62" s="1">
-        <f t="shared" si="101"/>
+        <f>E62*E$1</f>
         <v>0</v>
       </c>
       <c r="U62" s="1">
-        <f t="shared" si="102"/>
+        <f>F62*F$1</f>
         <v>0</v>
       </c>
       <c r="V62" s="1">
-        <f t="shared" si="103"/>
+        <f>G62*G$1</f>
         <v>0</v>
       </c>
       <c r="W62" s="1">
-        <f t="shared" si="104"/>
+        <f>H62*H$1</f>
         <v>0</v>
       </c>
       <c r="X62" s="1">
-        <f t="shared" si="105"/>
+        <f>I62*I$1</f>
         <v>0</v>
       </c>
       <c r="Y62" s="1">
-        <f t="shared" si="106"/>
+        <f>J62*J$1</f>
         <v>0</v>
       </c>
       <c r="Z62" s="1">
-        <f t="shared" si="107"/>
-        <v>0</v>
+        <f>K62*K$1</f>
+        <v>128</v>
       </c>
       <c r="AA62" s="1">
-        <f t="shared" si="108"/>
-        <v>64</v>
+        <f>L62*L$1</f>
+        <v>0</v>
       </c>
       <c r="AB62" s="1">
-        <f t="shared" si="109"/>
-        <v>32</v>
+        <f>M62*M$1</f>
+        <v>0</v>
       </c>
       <c r="AC62" s="1">
-        <f t="shared" si="110"/>
+        <f>N62*N$1</f>
         <v>0</v>
       </c>
       <c r="AD62" s="1">
-        <f t="shared" si="145"/>
+        <f>O62*O$1</f>
         <v>0</v>
       </c>
       <c r="AE62" s="1">
-        <f t="shared" si="146"/>
-        <v>0</v>
+        <f>P62*P$1</f>
+        <v>1835008</v>
       </c>
       <c r="AF62" s="1">
-        <f t="shared" si="17"/>
-        <v>96</v>
+        <f>SUM(Q62:AE62)</f>
+        <v>1835136</v>
       </c>
       <c r="AG62" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>60</v>
+        <f>DEC2HEX(AF62)</f>
+        <v>1C0080</v>
       </c>
     </row>
     <row r="63" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A63" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B63" s="1">
-        <v>1</v>
-      </c>
-      <c r="L63" s="1">
+        <v>22</v>
+      </c>
+      <c r="K63" s="1">
+        <v>1</v>
+      </c>
+      <c r="M63" s="1">
         <v>1</v>
       </c>
       <c r="Q63" s="1">
-        <f t="shared" si="98"/>
-        <v>1</v>
+        <f>B63*B$1</f>
+        <v>0</v>
       </c>
       <c r="R63" s="1">
-        <f t="shared" si="99"/>
+        <f>C63*C$1</f>
         <v>0</v>
       </c>
       <c r="S63" s="1">
-        <f t="shared" si="100"/>
+        <f>D63*D$1</f>
         <v>0</v>
       </c>
       <c r="T63" s="1">
-        <f t="shared" si="101"/>
+        <f>E63*E$1</f>
         <v>0</v>
       </c>
       <c r="U63" s="1">
-        <f t="shared" si="102"/>
+        <f>F63*F$1</f>
         <v>0</v>
       </c>
       <c r="V63" s="1">
-        <f t="shared" si="103"/>
+        <f>G63*G$1</f>
         <v>0</v>
       </c>
       <c r="W63" s="1">
-        <f t="shared" si="104"/>
+        <f>H63*H$1</f>
         <v>0</v>
       </c>
       <c r="X63" s="1">
-        <f t="shared" si="105"/>
+        <f>I63*I$1</f>
         <v>0</v>
       </c>
       <c r="Y63" s="1">
-        <f t="shared" si="106"/>
+        <f>J63*J$1</f>
         <v>0</v>
       </c>
       <c r="Z63" s="1">
-        <f t="shared" si="107"/>
-        <v>0</v>
+        <f>K63*K$1</f>
+        <v>128</v>
       </c>
       <c r="AA63" s="1">
-        <f t="shared" si="108"/>
-        <v>64</v>
+        <f>L63*L$1</f>
+        <v>0</v>
       </c>
       <c r="AB63" s="1">
-        <f t="shared" si="109"/>
-        <v>0</v>
+        <f>M63*M$1</f>
+        <v>32</v>
       </c>
       <c r="AC63" s="1">
-        <f t="shared" si="110"/>
+        <f>N63*N$1</f>
         <v>0</v>
       </c>
       <c r="AD63" s="1">
-        <f t="shared" si="145"/>
+        <f>O63*O$1</f>
         <v>0</v>
       </c>
       <c r="AE63" s="1">
-        <f t="shared" si="146"/>
+        <f>P63*P$1</f>
         <v>0</v>
       </c>
       <c r="AF63" s="1">
-        <f t="shared" si="17"/>
-        <v>65</v>
+        <f>SUM(Q63:AE63)</f>
+        <v>160</v>
       </c>
       <c r="AG63" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>41</v>
+        <f>DEC2HEX(AF63)</f>
+        <v>A0</v>
       </c>
     </row>
     <row r="64" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A64" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B64" s="1">
-        <v>1</v>
-      </c>
-      <c r="H64" s="1">
-        <v>1</v>
-      </c>
-      <c r="L64" s="1">
-        <v>1</v>
+        <v>58</v>
+      </c>
+      <c r="P64" s="1">
+        <v>22</v>
       </c>
       <c r="Q64" s="1">
-        <f t="shared" si="98"/>
-        <v>1</v>
+        <f>B64*B$1</f>
+        <v>0</v>
       </c>
       <c r="R64" s="1">
-        <f t="shared" si="99"/>
+        <f>C64*C$1</f>
         <v>0</v>
       </c>
       <c r="S64" s="1">
-        <f t="shared" si="100"/>
+        <f>D64*D$1</f>
         <v>0</v>
       </c>
       <c r="T64" s="1">
-        <f t="shared" si="101"/>
+        <f>E64*E$1</f>
         <v>0</v>
       </c>
       <c r="U64" s="1">
-        <f t="shared" si="102"/>
+        <f>F64*F$1</f>
         <v>0</v>
       </c>
       <c r="V64" s="1">
-        <f t="shared" si="103"/>
+        <f>G64*G$1</f>
         <v>0</v>
       </c>
       <c r="W64" s="1">
-        <f t="shared" si="104"/>
-        <v>1024</v>
+        <f>H64*H$1</f>
+        <v>0</v>
       </c>
       <c r="X64" s="1">
-        <f t="shared" si="105"/>
+        <f>I64*I$1</f>
         <v>0</v>
       </c>
       <c r="Y64" s="1">
-        <f t="shared" si="106"/>
+        <f>J64*J$1</f>
         <v>0</v>
       </c>
       <c r="Z64" s="1">
-        <f t="shared" si="107"/>
+        <f>K64*K$1</f>
         <v>0</v>
       </c>
       <c r="AA64" s="1">
-        <f t="shared" si="108"/>
-        <v>64</v>
+        <f>L64*L$1</f>
+        <v>0</v>
       </c>
       <c r="AB64" s="1">
-        <f t="shared" si="109"/>
+        <f>M64*M$1</f>
         <v>0</v>
       </c>
       <c r="AC64" s="1">
-        <f t="shared" si="110"/>
+        <f>N64*N$1</f>
         <v>0</v>
       </c>
       <c r="AD64" s="1">
-        <f t="shared" si="145"/>
+        <f>O64*O$1</f>
         <v>0</v>
       </c>
       <c r="AE64" s="1">
-        <f t="shared" si="146"/>
-        <v>0</v>
+        <f>P64*P$1</f>
+        <v>1441792</v>
       </c>
       <c r="AF64" s="1">
-        <f t="shared" si="17"/>
-        <v>1089</v>
+        <f>SUM(Q64:AE64)</f>
+        <v>1441792</v>
       </c>
       <c r="AG64" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>441</v>
+        <f>DEC2HEX(AF64)</f>
+        <v>160000</v>
       </c>
     </row>
     <row r="65" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A65" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B65" s="1">
-        <v>2</v>
-      </c>
-      <c r="E65" s="1">
-        <v>1</v>
-      </c>
-      <c r="F65" s="1">
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="P65" s="1">
+        <v>17</v>
       </c>
       <c r="Q65" s="1">
-        <f t="shared" si="98"/>
-        <v>2</v>
+        <f>B65*B$1</f>
+        <v>0</v>
       </c>
       <c r="R65" s="1">
-        <f t="shared" si="99"/>
+        <f>C65*C$1</f>
         <v>0</v>
       </c>
       <c r="S65" s="1">
-        <f t="shared" si="100"/>
+        <f>D65*D$1</f>
         <v>0</v>
       </c>
       <c r="T65" s="1">
-        <f t="shared" si="101"/>
-        <v>8192</v>
+        <f>E65*E$1</f>
+        <v>0</v>
       </c>
       <c r="U65" s="1">
-        <f t="shared" si="102"/>
-        <v>4096</v>
+        <f>F65*F$1</f>
+        <v>0</v>
       </c>
       <c r="V65" s="1">
-        <f t="shared" si="103"/>
+        <f>G65*G$1</f>
         <v>0</v>
       </c>
       <c r="W65" s="1">
-        <f t="shared" si="104"/>
+        <f>H65*H$1</f>
         <v>0</v>
       </c>
       <c r="X65" s="1">
-        <f t="shared" si="105"/>
+        <f>I65*I$1</f>
         <v>0</v>
       </c>
       <c r="Y65" s="1">
-        <f t="shared" si="106"/>
+        <f>J65*J$1</f>
         <v>0</v>
       </c>
       <c r="Z65" s="1">
-        <f t="shared" si="107"/>
+        <f>K65*K$1</f>
         <v>0</v>
       </c>
       <c r="AA65" s="1">
-        <f t="shared" si="108"/>
+        <f>L65*L$1</f>
         <v>0</v>
       </c>
       <c r="AB65" s="1">
-        <f t="shared" si="109"/>
+        <f>M65*M$1</f>
         <v>0</v>
       </c>
       <c r="AC65" s="1">
-        <f t="shared" si="110"/>
+        <f>N65*N$1</f>
         <v>0</v>
       </c>
       <c r="AD65" s="1">
-        <f t="shared" si="145"/>
+        <f>O65*O$1</f>
         <v>0</v>
       </c>
       <c r="AE65" s="1">
-        <f t="shared" si="146"/>
-        <v>0</v>
+        <f>P65*P$1</f>
+        <v>1114112</v>
       </c>
       <c r="AF65" s="1">
-        <f t="shared" si="17"/>
-        <v>12290</v>
+        <f>SUM(Q65:AE65)</f>
+        <v>1114112</v>
       </c>
       <c r="AG65" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>3002</v>
+        <f>DEC2HEX(AF65)</f>
+        <v>110000</v>
       </c>
     </row>
     <row r="66" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A66" s="1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B66" s="1">
-        <v>2</v>
-      </c>
-      <c r="E66" s="1">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="P66" s="1">
+        <v>15</v>
       </c>
       <c r="Q66" s="1">
-        <f t="shared" si="98"/>
-        <v>2</v>
+        <f>B66*B$1</f>
+        <v>1</v>
       </c>
       <c r="R66" s="1">
-        <f t="shared" si="99"/>
+        <f>C66*C$1</f>
         <v>0</v>
       </c>
       <c r="S66" s="1">
-        <f t="shared" si="100"/>
+        <f>D66*D$1</f>
         <v>0</v>
       </c>
       <c r="T66" s="1">
-        <f t="shared" si="101"/>
-        <v>8192</v>
+        <f>E66*E$1</f>
+        <v>0</v>
       </c>
       <c r="U66" s="1">
-        <f t="shared" si="102"/>
+        <f>F66*F$1</f>
         <v>0</v>
       </c>
       <c r="V66" s="1">
-        <f t="shared" si="103"/>
+        <f>G66*G$1</f>
         <v>0</v>
       </c>
       <c r="W66" s="1">
-        <f t="shared" si="104"/>
+        <f>H66*H$1</f>
         <v>0</v>
       </c>
       <c r="X66" s="1">
-        <f t="shared" si="105"/>
+        <f>I66*I$1</f>
         <v>0</v>
       </c>
       <c r="Y66" s="1">
-        <f t="shared" si="106"/>
+        <f>J66*J$1</f>
         <v>0</v>
       </c>
       <c r="Z66" s="1">
-        <f t="shared" si="107"/>
+        <f>K66*K$1</f>
         <v>0</v>
       </c>
       <c r="AA66" s="1">
-        <f t="shared" si="108"/>
+        <f>L66*L$1</f>
         <v>0</v>
       </c>
       <c r="AB66" s="1">
-        <f t="shared" si="109"/>
+        <f>M66*M$1</f>
         <v>0</v>
       </c>
       <c r="AC66" s="1">
-        <f t="shared" si="110"/>
+        <f>N66*N$1</f>
         <v>0</v>
       </c>
       <c r="AD66" s="1">
-        <f t="shared" si="145"/>
+        <f>O66*O$1</f>
         <v>0</v>
       </c>
       <c r="AE66" s="1">
-        <f t="shared" si="146"/>
-        <v>0</v>
+        <f>P66*P$1</f>
+        <v>983040</v>
       </c>
       <c r="AF66" s="1">
-        <f t="shared" si="17"/>
-        <v>8194</v>
+        <f>SUM(Q66:AE66)</f>
+        <v>983041</v>
       </c>
       <c r="AG66" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>2002</v>
+        <f>DEC2HEX(AF66)</f>
+        <v>F0001</v>
       </c>
     </row>
     <row r="67" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A67" s="1" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="B67" s="1">
-        <v>2</v>
-      </c>
-      <c r="F67" s="1">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="P67" s="1">
+        <v>15</v>
       </c>
       <c r="Q67" s="1">
-        <f t="shared" si="98"/>
-        <v>2</v>
+        <f>B67*B$1</f>
+        <v>3</v>
       </c>
       <c r="R67" s="1">
-        <f t="shared" si="99"/>
+        <f>C67*C$1</f>
         <v>0</v>
       </c>
       <c r="S67" s="1">
-        <f t="shared" si="100"/>
+        <f>D67*D$1</f>
         <v>0</v>
       </c>
       <c r="T67" s="1">
-        <f t="shared" si="101"/>
+        <f>E67*E$1</f>
         <v>0</v>
       </c>
       <c r="U67" s="1">
-        <f t="shared" si="102"/>
-        <v>4096</v>
+        <f>F67*F$1</f>
+        <v>0</v>
       </c>
       <c r="V67" s="1">
-        <f t="shared" si="103"/>
+        <f>G67*G$1</f>
         <v>0</v>
       </c>
       <c r="W67" s="1">
-        <f t="shared" si="104"/>
+        <f>H67*H$1</f>
         <v>0</v>
       </c>
       <c r="X67" s="1">
-        <f t="shared" si="105"/>
+        <f>I67*I$1</f>
         <v>0</v>
       </c>
       <c r="Y67" s="1">
-        <f t="shared" si="106"/>
+        <f>J67*J$1</f>
         <v>0</v>
       </c>
       <c r="Z67" s="1">
-        <f t="shared" si="107"/>
+        <f>K67*K$1</f>
         <v>0</v>
       </c>
       <c r="AA67" s="1">
-        <f t="shared" si="108"/>
+        <f>L67*L$1</f>
         <v>0</v>
       </c>
       <c r="AB67" s="1">
-        <f t="shared" si="109"/>
+        <f>M67*M$1</f>
         <v>0</v>
       </c>
       <c r="AC67" s="1">
-        <f t="shared" si="110"/>
+        <f>N67*N$1</f>
         <v>0</v>
       </c>
       <c r="AD67" s="1">
-        <f t="shared" si="145"/>
+        <f>O67*O$1</f>
         <v>0</v>
       </c>
       <c r="AE67" s="1">
-        <f t="shared" si="146"/>
-        <v>0</v>
+        <f>P67*P$1</f>
+        <v>983040</v>
       </c>
       <c r="AF67" s="1">
-        <f t="shared" si="17"/>
-        <v>4098</v>
+        <f>SUM(Q67:AE67)</f>
+        <v>983043</v>
       </c>
       <c r="AG67" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>1002</v>
+        <f>DEC2HEX(AF67)</f>
+        <v>F0003</v>
       </c>
     </row>
     <row r="68" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A68" s="1" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="B68" s="1">
+        <v>2</v>
+      </c>
+      <c r="D68" s="1">
         <v>1</v>
       </c>
       <c r="E68" s="1">
         <v>1</v>
       </c>
-      <c r="F68" s="1">
-        <v>1</v>
-      </c>
       <c r="Q68" s="1">
-        <f t="shared" si="98"/>
-        <v>1</v>
+        <f>B68*B$1</f>
+        <v>2</v>
       </c>
       <c r="R68" s="1">
-        <f t="shared" si="99"/>
+        <f>C68*C$1</f>
         <v>0</v>
       </c>
       <c r="S68" s="1">
-        <f t="shared" si="100"/>
-        <v>0</v>
+        <f>D68*D$1</f>
+        <v>16384</v>
       </c>
       <c r="T68" s="1">
-        <f t="shared" si="101"/>
+        <f>E68*E$1</f>
         <v>8192</v>
       </c>
       <c r="U68" s="1">
-        <f t="shared" si="102"/>
-        <v>4096</v>
+        <f>F68*F$1</f>
+        <v>0</v>
       </c>
       <c r="V68" s="1">
-        <f t="shared" si="103"/>
+        <f>G68*G$1</f>
         <v>0</v>
       </c>
       <c r="W68" s="1">
-        <f t="shared" si="104"/>
+        <f>H68*H$1</f>
         <v>0</v>
       </c>
       <c r="X68" s="1">
-        <f t="shared" si="105"/>
+        <f>I68*I$1</f>
         <v>0</v>
       </c>
       <c r="Y68" s="1">
-        <f t="shared" si="106"/>
+        <f>J68*J$1</f>
         <v>0</v>
       </c>
       <c r="Z68" s="1">
-        <f t="shared" si="107"/>
+        <f>K68*K$1</f>
         <v>0</v>
       </c>
       <c r="AA68" s="1">
-        <f t="shared" si="108"/>
+        <f>L68*L$1</f>
         <v>0</v>
       </c>
       <c r="AB68" s="1">
-        <f t="shared" si="109"/>
+        <f>M68*M$1</f>
         <v>0</v>
       </c>
       <c r="AC68" s="1">
-        <f t="shared" si="110"/>
+        <f>N68*N$1</f>
         <v>0</v>
       </c>
       <c r="AD68" s="1">
-        <f t="shared" si="145"/>
+        <f>O68*O$1</f>
         <v>0</v>
       </c>
       <c r="AE68" s="1">
-        <f t="shared" si="146"/>
+        <f>P68*P$1</f>
         <v>0</v>
       </c>
       <c r="AF68" s="1">
-        <f t="shared" si="17"/>
-        <v>12289</v>
+        <f>SUM(Q68:AE68)</f>
+        <v>24578</v>
       </c>
       <c r="AG68" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>3001</v>
+        <f>DEC2HEX(AF68)</f>
+        <v>6002</v>
       </c>
     </row>
     <row r="69" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A69" s="1" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="B69" s="1">
+        <v>3</v>
+      </c>
+      <c r="D69" s="1">
         <v>1</v>
       </c>
       <c r="E69" s="1">
         <v>1</v>
       </c>
       <c r="Q69" s="1">
-        <f t="shared" si="98"/>
-        <v>1</v>
+        <f>B69*B$1</f>
+        <v>3</v>
       </c>
       <c r="R69" s="1">
-        <f t="shared" si="99"/>
+        <f>C69*C$1</f>
         <v>0</v>
       </c>
       <c r="S69" s="1">
-        <f t="shared" si="100"/>
-        <v>0</v>
+        <f>D69*D$1</f>
+        <v>16384</v>
       </c>
       <c r="T69" s="1">
-        <f t="shared" si="101"/>
+        <f>E69*E$1</f>
         <v>8192</v>
       </c>
       <c r="U69" s="1">
-        <f t="shared" si="102"/>
+        <f>F69*F$1</f>
         <v>0</v>
       </c>
       <c r="V69" s="1">
-        <f t="shared" si="103"/>
+        <f>G69*G$1</f>
         <v>0</v>
       </c>
       <c r="W69" s="1">
-        <f t="shared" si="104"/>
+        <f>H69*H$1</f>
         <v>0</v>
       </c>
       <c r="X69" s="1">
-        <f t="shared" si="105"/>
+        <f>I69*I$1</f>
         <v>0</v>
       </c>
       <c r="Y69" s="1">
-        <f t="shared" si="106"/>
+        <f>J69*J$1</f>
         <v>0</v>
       </c>
       <c r="Z69" s="1">
-        <f t="shared" si="107"/>
+        <f>K69*K$1</f>
         <v>0</v>
       </c>
       <c r="AA69" s="1">
-        <f t="shared" si="108"/>
+        <f>L69*L$1</f>
         <v>0</v>
       </c>
       <c r="AB69" s="1">
-        <f t="shared" si="109"/>
+        <f>M69*M$1</f>
         <v>0</v>
       </c>
       <c r="AC69" s="1">
-        <f t="shared" si="110"/>
+        <f>N69*N$1</f>
         <v>0</v>
       </c>
       <c r="AD69" s="1">
-        <f t="shared" si="145"/>
+        <f>O69*O$1</f>
         <v>0</v>
       </c>
       <c r="AE69" s="1">
-        <f t="shared" si="146"/>
+        <f>P69*P$1</f>
         <v>0</v>
       </c>
       <c r="AF69" s="1">
-        <f t="shared" si="17"/>
-        <v>8193</v>
+        <f>SUM(Q69:AE69)</f>
+        <v>24579</v>
       </c>
       <c r="AG69" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>2001</v>
+        <f>DEC2HEX(AF69)</f>
+        <v>6003</v>
       </c>
     </row>
     <row r="70" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A70" s="1" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="B70" s="1">
-        <v>1</v>
-      </c>
-      <c r="F70" s="1">
+        <v>2</v>
+      </c>
+      <c r="D70" s="1">
         <v>1</v>
       </c>
       <c r="Q70" s="1">
-        <f t="shared" si="98"/>
-        <v>1</v>
+        <f>B70*B$1</f>
+        <v>2</v>
       </c>
       <c r="R70" s="1">
-        <f t="shared" si="99"/>
+        <f>C70*C$1</f>
         <v>0</v>
       </c>
       <c r="S70" s="1">
-        <f t="shared" si="100"/>
-        <v>0</v>
+        <f>D70*D$1</f>
+        <v>16384</v>
       </c>
       <c r="T70" s="1">
-        <f t="shared" si="101"/>
+        <f>E70*E$1</f>
         <v>0</v>
       </c>
       <c r="U70" s="1">
-        <f t="shared" si="102"/>
-        <v>4096</v>
+        <f>F70*F$1</f>
+        <v>0</v>
       </c>
       <c r="V70" s="1">
-        <f t="shared" si="103"/>
+        <f>G70*G$1</f>
         <v>0</v>
       </c>
       <c r="W70" s="1">
-        <f t="shared" si="104"/>
+        <f>H70*H$1</f>
         <v>0</v>
       </c>
       <c r="X70" s="1">
-        <f t="shared" si="105"/>
+        <f>I70*I$1</f>
         <v>0</v>
       </c>
       <c r="Y70" s="1">
-        <f t="shared" si="106"/>
+        <f>J70*J$1</f>
         <v>0</v>
       </c>
       <c r="Z70" s="1">
-        <f t="shared" si="107"/>
+        <f>K70*K$1</f>
         <v>0</v>
       </c>
       <c r="AA70" s="1">
-        <f t="shared" si="108"/>
+        <f>L70*L$1</f>
         <v>0</v>
       </c>
       <c r="AB70" s="1">
-        <f t="shared" si="109"/>
+        <f>M70*M$1</f>
         <v>0</v>
       </c>
       <c r="AC70" s="1">
-        <f t="shared" si="110"/>
+        <f>N70*N$1</f>
         <v>0</v>
       </c>
       <c r="AD70" s="1">
-        <f t="shared" si="145"/>
+        <f>O70*O$1</f>
         <v>0</v>
       </c>
       <c r="AE70" s="1">
-        <f t="shared" si="146"/>
+        <f>P70*P$1</f>
         <v>0</v>
       </c>
       <c r="AF70" s="1">
-        <f t="shared" si="17"/>
-        <v>4097</v>
+        <f>SUM(Q70:AE70)</f>
+        <v>16386</v>
       </c>
       <c r="AG70" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>1001</v>
+        <f>DEC2HEX(AF70)</f>
+        <v>4002</v>
       </c>
     </row>
     <row r="71" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A71" s="1" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="B71" s="1">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="C71" s="1">
+        <v>1</v>
+      </c>
+      <c r="E71" s="1">
+        <v>1</v>
       </c>
       <c r="Q71" s="1">
-        <f t="shared" si="98"/>
-        <v>7</v>
+        <f>B71*B$1</f>
+        <v>1</v>
       </c>
       <c r="R71" s="1">
-        <f t="shared" si="99"/>
-        <v>0</v>
+        <f>C71*C$1</f>
+        <v>32768</v>
       </c>
       <c r="S71" s="1">
-        <f t="shared" si="100"/>
+        <f>D71*D$1</f>
         <v>0</v>
       </c>
       <c r="T71" s="1">
-        <f t="shared" si="101"/>
-        <v>0</v>
+        <f>E71*E$1</f>
+        <v>8192</v>
       </c>
       <c r="U71" s="1">
-        <f t="shared" si="102"/>
+        <f>F71*F$1</f>
         <v>0</v>
       </c>
       <c r="V71" s="1">
-        <f t="shared" si="103"/>
+        <f>G71*G$1</f>
         <v>0</v>
       </c>
       <c r="W71" s="1">
-        <f t="shared" si="104"/>
+        <f>H71*H$1</f>
         <v>0</v>
       </c>
       <c r="X71" s="1">
-        <f t="shared" si="105"/>
+        <f>I71*I$1</f>
         <v>0</v>
       </c>
       <c r="Y71" s="1">
-        <f t="shared" si="106"/>
+        <f>J71*J$1</f>
         <v>0</v>
       </c>
       <c r="Z71" s="1">
-        <f t="shared" si="107"/>
+        <f>K71*K$1</f>
         <v>0</v>
       </c>
       <c r="AA71" s="1">
-        <f t="shared" si="108"/>
+        <f>L71*L$1</f>
         <v>0</v>
       </c>
       <c r="AB71" s="1">
-        <f t="shared" si="109"/>
+        <f>M71*M$1</f>
         <v>0</v>
       </c>
       <c r="AC71" s="1">
-        <f t="shared" si="110"/>
+        <f>N71*N$1</f>
         <v>0</v>
       </c>
       <c r="AD71" s="1">
-        <f t="shared" si="145"/>
+        <f>O71*O$1</f>
         <v>0</v>
       </c>
       <c r="AE71" s="1">
-        <f t="shared" si="146"/>
+        <f>P71*P$1</f>
         <v>0</v>
       </c>
       <c r="AF71" s="1">
-        <f t="shared" si="17"/>
-        <v>7</v>
+        <f>SUM(Q71:AE71)</f>
+        <v>40961</v>
       </c>
       <c r="AG71" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>7</v>
+        <f>DEC2HEX(AF71)</f>
+        <v>A001</v>
       </c>
     </row>
     <row r="72" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A72" s="1" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="B72" s="1">
-        <v>3</v>
-      </c>
-      <c r="E72" s="1">
-        <v>1</v>
-      </c>
-      <c r="F72" s="1">
+        <v>1</v>
+      </c>
+      <c r="C72" s="1">
         <v>1</v>
       </c>
       <c r="Q72" s="1">
-        <f t="shared" si="98"/>
-        <v>3</v>
+        <f>B72*B$1</f>
+        <v>1</v>
       </c>
       <c r="R72" s="1">
-        <f t="shared" si="99"/>
-        <v>0</v>
+        <f>C72*C$1</f>
+        <v>32768</v>
       </c>
       <c r="S72" s="1">
-        <f t="shared" si="100"/>
+        <f>D72*D$1</f>
         <v>0</v>
       </c>
       <c r="T72" s="1">
-        <f t="shared" si="101"/>
-        <v>8192</v>
+        <f>E72*E$1</f>
+        <v>0</v>
       </c>
       <c r="U72" s="1">
-        <f t="shared" si="102"/>
-        <v>4096</v>
+        <f>F72*F$1</f>
+        <v>0</v>
       </c>
       <c r="V72" s="1">
-        <f t="shared" si="103"/>
+        <f>G72*G$1</f>
         <v>0</v>
       </c>
       <c r="W72" s="1">
-        <f t="shared" si="104"/>
+        <f>H72*H$1</f>
         <v>0</v>
       </c>
       <c r="X72" s="1">
-        <f t="shared" si="105"/>
+        <f>I72*I$1</f>
         <v>0</v>
       </c>
       <c r="Y72" s="1">
-        <f t="shared" si="106"/>
+        <f>J72*J$1</f>
         <v>0</v>
       </c>
       <c r="Z72" s="1">
-        <f t="shared" si="107"/>
+        <f>K72*K$1</f>
         <v>0</v>
       </c>
       <c r="AA72" s="1">
-        <f t="shared" si="108"/>
+        <f>L72*L$1</f>
         <v>0</v>
       </c>
       <c r="AB72" s="1">
-        <f t="shared" si="109"/>
+        <f>M72*M$1</f>
         <v>0</v>
       </c>
       <c r="AC72" s="1">
-        <f t="shared" si="110"/>
+        <f>N72*N$1</f>
         <v>0</v>
       </c>
       <c r="AD72" s="1">
-        <f t="shared" si="145"/>
+        <f>O72*O$1</f>
         <v>0</v>
       </c>
       <c r="AE72" s="1">
-        <f t="shared" si="146"/>
+        <f>P72*P$1</f>
         <v>0</v>
       </c>
       <c r="AF72" s="1">
-        <f t="shared" si="17"/>
-        <v>12291</v>
+        <f>SUM(Q72:AE72)</f>
+        <v>32769</v>
       </c>
       <c r="AG72" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>3003</v>
+        <f>DEC2HEX(AF72)</f>
+        <v>8001</v>
       </c>
     </row>
     <row r="73" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A73" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K73" s="1">
-        <v>1</v>
+        <v>82</v>
+      </c>
+      <c r="P73" s="1">
+        <v>3</v>
       </c>
       <c r="Q73" s="1">
-        <f t="shared" si="98"/>
+        <f>B73*B$1</f>
         <v>0</v>
       </c>
       <c r="R73" s="1">
-        <f t="shared" si="99"/>
+        <f>C73*C$1</f>
         <v>0</v>
       </c>
       <c r="S73" s="1">
-        <f t="shared" si="100"/>
+        <f>D73*D$1</f>
         <v>0</v>
       </c>
       <c r="T73" s="1">
-        <f t="shared" si="101"/>
+        <f>E73*E$1</f>
         <v>0</v>
       </c>
       <c r="U73" s="1">
-        <f t="shared" si="102"/>
+        <f>F73*F$1</f>
         <v>0</v>
       </c>
       <c r="V73" s="1">
-        <f t="shared" si="103"/>
+        <f>G73*G$1</f>
         <v>0</v>
       </c>
       <c r="W73" s="1">
-        <f t="shared" si="104"/>
+        <f>H73*H$1</f>
         <v>0</v>
       </c>
       <c r="X73" s="1">
-        <f t="shared" si="105"/>
+        <f>I73*I$1</f>
         <v>0</v>
       </c>
       <c r="Y73" s="1">
-        <f t="shared" si="106"/>
+        <f>J73*J$1</f>
         <v>0</v>
       </c>
       <c r="Z73" s="1">
-        <f t="shared" si="107"/>
-        <v>128</v>
+        <f>K73*K$1</f>
+        <v>0</v>
       </c>
       <c r="AA73" s="1">
-        <f t="shared" si="108"/>
+        <f>L73*L$1</f>
         <v>0</v>
       </c>
       <c r="AB73" s="1">
-        <f t="shared" si="109"/>
+        <f>M73*M$1</f>
         <v>0</v>
       </c>
       <c r="AC73" s="1">
-        <f t="shared" si="110"/>
+        <f>N73*N$1</f>
         <v>0</v>
       </c>
       <c r="AD73" s="1">
-        <f t="shared" si="145"/>
+        <f>O73*O$1</f>
         <v>0</v>
       </c>
       <c r="AE73" s="1">
-        <f t="shared" si="146"/>
-        <v>0</v>
+        <f>P73*P$1</f>
+        <v>196608</v>
       </c>
       <c r="AF73" s="1">
-        <f t="shared" si="17"/>
-        <v>128</v>
+        <f>SUM(Q73:AE73)</f>
+        <v>196608</v>
       </c>
       <c r="AG73" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>80</v>
+        <f>DEC2HEX(AF73)</f>
+        <v>30000</v>
       </c>
     </row>
     <row r="74" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A74" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="H74" s="1">
-        <v>1</v>
-      </c>
-      <c r="K74" s="1">
-        <v>1</v>
+        <v>32</v>
+      </c>
+      <c r="B74" s="1">
+        <v>2</v>
+      </c>
+      <c r="P74" s="1">
+        <v>4</v>
       </c>
       <c r="Q74" s="1">
-        <f t="shared" ref="Q74" si="262">B74*B$1</f>
-        <v>0</v>
+        <f>B74*B$1</f>
+        <v>2</v>
       </c>
       <c r="R74" s="1">
-        <f t="shared" ref="R74" si="263">C74*C$1</f>
+        <f>C74*C$1</f>
         <v>0</v>
       </c>
       <c r="S74" s="1">
-        <f t="shared" ref="S74" si="264">D74*D$1</f>
+        <f>D74*D$1</f>
         <v>0</v>
       </c>
       <c r="T74" s="1">
-        <f t="shared" ref="T74" si="265">E74*E$1</f>
+        <f>E74*E$1</f>
         <v>0</v>
       </c>
       <c r="U74" s="1">
-        <f t="shared" ref="U74" si="266">F74*F$1</f>
+        <f>F74*F$1</f>
         <v>0</v>
       </c>
       <c r="V74" s="1">
-        <f t="shared" ref="V74" si="267">G74*G$1</f>
+        <f>G74*G$1</f>
         <v>0</v>
       </c>
       <c r="W74" s="1">
-        <f t="shared" ref="W74" si="268">H74*H$1</f>
-        <v>1024</v>
+        <f>H74*H$1</f>
+        <v>0</v>
       </c>
       <c r="X74" s="1">
-        <f t="shared" ref="X74" si="269">I74*I$1</f>
+        <f>I74*I$1</f>
         <v>0</v>
       </c>
       <c r="Y74" s="1">
-        <f t="shared" ref="Y74" si="270">J74*J$1</f>
+        <f>J74*J$1</f>
         <v>0</v>
       </c>
       <c r="Z74" s="1">
-        <f t="shared" ref="Z74" si="271">K74*K$1</f>
-        <v>128</v>
+        <f>K74*K$1</f>
+        <v>0</v>
       </c>
       <c r="AA74" s="1">
-        <f t="shared" ref="AA74" si="272">L74*L$1</f>
+        <f>L74*L$1</f>
         <v>0</v>
       </c>
       <c r="AB74" s="1">
-        <f t="shared" ref="AB74" si="273">M74*M$1</f>
+        <f>M74*M$1</f>
         <v>0</v>
       </c>
       <c r="AC74" s="1">
-        <f t="shared" ref="AC74" si="274">N74*N$1</f>
+        <f>N74*N$1</f>
         <v>0</v>
       </c>
       <c r="AD74" s="1">
-        <f t="shared" ref="AD74" si="275">O74*O$1</f>
+        <f>O74*O$1</f>
         <v>0</v>
       </c>
       <c r="AE74" s="1">
-        <f t="shared" ref="AE74" si="276">P74*P$1</f>
-        <v>0</v>
+        <f>P74*P$1</f>
+        <v>262144</v>
       </c>
       <c r="AF74" s="1">
-        <f t="shared" ref="AF74" si="277">SUM(Q74:AE74)</f>
-        <v>1152</v>
+        <f>SUM(Q74:AE74)</f>
+        <v>262146</v>
       </c>
       <c r="AG74" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>480</v>
+        <f>DEC2HEX(AF74)</f>
+        <v>40002</v>
       </c>
     </row>
     <row r="75" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A75" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K75" s="1">
-        <v>1</v>
-      </c>
-      <c r="M75" s="1">
-        <v>1</v>
+        <v>31</v>
+      </c>
+      <c r="B75" s="1">
+        <v>1</v>
+      </c>
+      <c r="P75" s="1">
+        <v>4</v>
       </c>
       <c r="Q75" s="1">
-        <f t="shared" si="98"/>
-        <v>0</v>
+        <f>B75*B$1</f>
+        <v>1</v>
       </c>
       <c r="R75" s="1">
-        <f t="shared" si="99"/>
+        <f>C75*C$1</f>
         <v>0</v>
       </c>
       <c r="S75" s="1">
-        <f t="shared" si="100"/>
+        <f>D75*D$1</f>
         <v>0</v>
       </c>
       <c r="T75" s="1">
-        <f t="shared" si="101"/>
+        <f>E75*E$1</f>
         <v>0</v>
       </c>
       <c r="U75" s="1">
-        <f t="shared" si="102"/>
+        <f>F75*F$1</f>
         <v>0</v>
       </c>
       <c r="V75" s="1">
-        <f t="shared" si="103"/>
+        <f>G75*G$1</f>
         <v>0</v>
       </c>
       <c r="W75" s="1">
-        <f t="shared" si="104"/>
+        <f>H75*H$1</f>
         <v>0</v>
       </c>
       <c r="X75" s="1">
-        <f t="shared" si="105"/>
+        <f>I75*I$1</f>
         <v>0</v>
       </c>
       <c r="Y75" s="1">
-        <f t="shared" si="106"/>
+        <f>J75*J$1</f>
         <v>0</v>
       </c>
       <c r="Z75" s="1">
-        <f t="shared" si="107"/>
-        <v>128</v>
+        <f>K75*K$1</f>
+        <v>0</v>
       </c>
       <c r="AA75" s="1">
-        <f t="shared" si="108"/>
+        <f>L75*L$1</f>
         <v>0</v>
       </c>
       <c r="AB75" s="1">
-        <f t="shared" si="109"/>
-        <v>32</v>
+        <f>M75*M$1</f>
+        <v>0</v>
       </c>
       <c r="AC75" s="1">
-        <f t="shared" si="110"/>
+        <f>N75*N$1</f>
         <v>0</v>
       </c>
       <c r="AD75" s="1">
-        <f t="shared" si="145"/>
+        <f>O75*O$1</f>
         <v>0</v>
       </c>
       <c r="AE75" s="1">
-        <f t="shared" si="146"/>
-        <v>0</v>
+        <f>P75*P$1</f>
+        <v>262144</v>
       </c>
       <c r="AF75" s="1">
-        <f t="shared" si="17"/>
-        <v>160</v>
+        <f>SUM(Q75:AE75)</f>
+        <v>262145</v>
       </c>
       <c r="AG75" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>A0</v>
+        <f>DEC2HEX(AF75)</f>
+        <v>40001</v>
       </c>
     </row>
     <row r="76" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A76" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B76" s="1">
         <v>3</v>
       </c>
-      <c r="B76" s="1">
-        <v>2</v>
-      </c>
-      <c r="D76" s="1">
-        <v>1</v>
-      </c>
-      <c r="E76" s="1">
-        <v>1</v>
+      <c r="P76" s="1">
+        <v>4</v>
       </c>
       <c r="Q76" s="1">
-        <f t="shared" si="98"/>
-        <v>2</v>
+        <f>B76*B$1</f>
+        <v>3</v>
       </c>
       <c r="R76" s="1">
-        <f t="shared" si="99"/>
+        <f>C76*C$1</f>
         <v>0</v>
       </c>
       <c r="S76" s="1">
-        <f t="shared" si="100"/>
-        <v>16384</v>
+        <f>D76*D$1</f>
+        <v>0</v>
       </c>
       <c r="T76" s="1">
-        <f t="shared" si="101"/>
-        <v>8192</v>
+        <f>E76*E$1</f>
+        <v>0</v>
       </c>
       <c r="U76" s="1">
-        <f t="shared" si="102"/>
+        <f>F76*F$1</f>
         <v>0</v>
       </c>
       <c r="V76" s="1">
-        <f t="shared" si="103"/>
+        <f>G76*G$1</f>
         <v>0</v>
       </c>
       <c r="W76" s="1">
-        <f t="shared" si="104"/>
+        <f>H76*H$1</f>
         <v>0</v>
       </c>
       <c r="X76" s="1">
-        <f t="shared" si="105"/>
+        <f>I76*I$1</f>
         <v>0</v>
       </c>
       <c r="Y76" s="1">
-        <f t="shared" si="106"/>
+        <f>J76*J$1</f>
         <v>0</v>
       </c>
       <c r="Z76" s="1">
-        <f t="shared" si="107"/>
+        <f>K76*K$1</f>
         <v>0</v>
       </c>
       <c r="AA76" s="1">
-        <f t="shared" si="108"/>
+        <f>L76*L$1</f>
         <v>0</v>
       </c>
       <c r="AB76" s="1">
-        <f t="shared" si="109"/>
+        <f>M76*M$1</f>
         <v>0</v>
       </c>
       <c r="AC76" s="1">
-        <f t="shared" si="110"/>
+        <f>N76*N$1</f>
         <v>0</v>
       </c>
       <c r="AD76" s="1">
-        <f t="shared" si="145"/>
+        <f>O76*O$1</f>
         <v>0</v>
       </c>
       <c r="AE76" s="1">
-        <f t="shared" si="146"/>
-        <v>0</v>
+        <f>P76*P$1</f>
+        <v>262144</v>
       </c>
       <c r="AF76" s="1">
-        <f t="shared" si="17"/>
-        <v>24578</v>
+        <f>SUM(Q76:AE76)</f>
+        <v>262147</v>
       </c>
       <c r="AG76" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>6002</v>
+        <f>DEC2HEX(AF76)</f>
+        <v>40003</v>
       </c>
     </row>
     <row r="77" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="B77" s="1">
-        <v>3</v>
-      </c>
-      <c r="D77" s="1">
-        <v>1</v>
-      </c>
-      <c r="E77" s="1">
+        <v>2</v>
+      </c>
+      <c r="J77" s="1">
+        <v>1</v>
+      </c>
+      <c r="O77" s="1">
         <v>1</v>
       </c>
       <c r="Q77" s="1">
-        <f t="shared" ref="Q77" si="278">B77*B$1</f>
-        <v>3</v>
+        <f>B77*B$1</f>
+        <v>2</v>
       </c>
       <c r="R77" s="1">
-        <f t="shared" ref="R77" si="279">C77*C$1</f>
+        <f>C77*C$1</f>
         <v>0</v>
       </c>
       <c r="S77" s="1">
-        <f t="shared" ref="S77" si="280">D77*D$1</f>
-        <v>16384</v>
+        <f>D77*D$1</f>
+        <v>0</v>
       </c>
       <c r="T77" s="1">
-        <f t="shared" ref="T77" si="281">E77*E$1</f>
-        <v>8192</v>
+        <f>E77*E$1</f>
+        <v>0</v>
       </c>
       <c r="U77" s="1">
-        <f t="shared" ref="U77" si="282">F77*F$1</f>
+        <f>F77*F$1</f>
         <v>0</v>
       </c>
       <c r="V77" s="1">
-        <f t="shared" ref="V77" si="283">G77*G$1</f>
+        <f>G77*G$1</f>
         <v>0</v>
       </c>
       <c r="W77" s="1">
-        <f t="shared" ref="W77" si="284">H77*H$1</f>
+        <f>H77*H$1</f>
         <v>0</v>
       </c>
       <c r="X77" s="1">
-        <f t="shared" ref="X77" si="285">I77*I$1</f>
+        <f>I77*I$1</f>
         <v>0</v>
       </c>
       <c r="Y77" s="1">
-        <f t="shared" ref="Y77" si="286">J77*J$1</f>
-        <v>0</v>
+        <f>J77*J$1</f>
+        <v>256</v>
       </c>
       <c r="Z77" s="1">
-        <f t="shared" ref="Z77" si="287">K77*K$1</f>
+        <f>K77*K$1</f>
         <v>0</v>
       </c>
       <c r="AA77" s="1">
-        <f t="shared" ref="AA77" si="288">L77*L$1</f>
+        <f>L77*L$1</f>
         <v>0</v>
       </c>
       <c r="AB77" s="1">
-        <f t="shared" ref="AB77" si="289">M77*M$1</f>
+        <f>M77*M$1</f>
         <v>0</v>
       </c>
       <c r="AC77" s="1">
-        <f t="shared" ref="AC77" si="290">N77*N$1</f>
+        <f>N77*N$1</f>
         <v>0</v>
       </c>
       <c r="AD77" s="1">
-        <f t="shared" ref="AD77" si="291">O77*O$1</f>
-        <v>0</v>
+        <f>O77*O$1</f>
+        <v>8</v>
       </c>
       <c r="AE77" s="1">
-        <f t="shared" ref="AE77" si="292">P77*P$1</f>
+        <f>P77*P$1</f>
         <v>0</v>
       </c>
       <c r="AF77" s="1">
-        <f t="shared" ref="AF77" si="293">SUM(Q77:AE77)</f>
-        <v>24579</v>
+        <f>SUM(Q77:AE77)</f>
+        <v>266</v>
       </c>
       <c r="AG77" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>6003</v>
+        <f>DEC2HEX(AF77)</f>
+        <v>10A</v>
       </c>
     </row>
     <row r="78" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A78" s="1" t="s">
-        <v>2</v>
+        <v>85</v>
       </c>
       <c r="B78" s="1">
         <v>2</v>
       </c>
-      <c r="D78" s="1">
+      <c r="J78" s="1">
+        <v>1</v>
+      </c>
+      <c r="N78" s="1">
+        <v>1</v>
+      </c>
+      <c r="O78" s="1">
         <v>1</v>
       </c>
       <c r="Q78" s="1">
-        <f t="shared" si="98"/>
+        <f>B78*B$1</f>
         <v>2</v>
       </c>
       <c r="R78" s="1">
-        <f t="shared" si="99"/>
+        <f>C78*C$1</f>
         <v>0</v>
       </c>
       <c r="S78" s="1">
-        <f t="shared" si="100"/>
-        <v>16384</v>
+        <f>D78*D$1</f>
+        <v>0</v>
       </c>
       <c r="T78" s="1">
-        <f t="shared" si="101"/>
+        <f>E78*E$1</f>
         <v>0</v>
       </c>
       <c r="U78" s="1">
-        <f t="shared" si="102"/>
+        <f>F78*F$1</f>
         <v>0</v>
       </c>
       <c r="V78" s="1">
-        <f t="shared" si="103"/>
+        <f>G78*G$1</f>
         <v>0</v>
       </c>
       <c r="W78" s="1">
-        <f t="shared" si="104"/>
+        <f>H78*H$1</f>
         <v>0</v>
       </c>
       <c r="X78" s="1">
-        <f t="shared" si="105"/>
+        <f>I78*I$1</f>
         <v>0</v>
       </c>
       <c r="Y78" s="1">
-        <f t="shared" si="106"/>
-        <v>0</v>
+        <f>J78*J$1</f>
+        <v>256</v>
       </c>
       <c r="Z78" s="1">
-        <f t="shared" si="107"/>
+        <f>K78*K$1</f>
         <v>0</v>
       </c>
       <c r="AA78" s="1">
-        <f t="shared" si="108"/>
+        <f>L78*L$1</f>
         <v>0</v>
       </c>
       <c r="AB78" s="1">
-        <f t="shared" si="109"/>
+        <f>M78*M$1</f>
         <v>0</v>
       </c>
       <c r="AC78" s="1">
-        <f t="shared" si="110"/>
-        <v>0</v>
+        <f>N78*N$1</f>
+        <v>16</v>
       </c>
       <c r="AD78" s="1">
-        <f t="shared" si="145"/>
-        <v>0</v>
+        <f>O78*O$1</f>
+        <v>8</v>
       </c>
       <c r="AE78" s="1">
-        <f t="shared" si="146"/>
+        <f>P78*P$1</f>
         <v>0</v>
       </c>
       <c r="AF78" s="1">
-        <f t="shared" si="17"/>
-        <v>16386</v>
+        <f>SUM(Q78:AE78)</f>
+        <v>282</v>
       </c>
       <c r="AG78" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>4002</v>
+        <f>DEC2HEX(AF78)</f>
+        <v>11A</v>
       </c>
     </row>
     <row r="79" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A79" s="1" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="B79" s="1">
         <v>1</v>
       </c>
-      <c r="C79" s="1">
-        <v>1</v>
-      </c>
-      <c r="E79" s="1">
+      <c r="J79" s="1">
+        <v>1</v>
+      </c>
+      <c r="O79" s="1">
         <v>1</v>
       </c>
       <c r="Q79" s="1">
-        <f t="shared" si="98"/>
+        <f>B79*B$1</f>
         <v>1</v>
       </c>
       <c r="R79" s="1">
-        <f t="shared" si="99"/>
-        <v>32768</v>
+        <f>C79*C$1</f>
+        <v>0</v>
       </c>
       <c r="S79" s="1">
-        <f t="shared" si="100"/>
+        <f>D79*D$1</f>
         <v>0</v>
       </c>
       <c r="T79" s="1">
-        <f t="shared" si="101"/>
-        <v>8192</v>
+        <f>E79*E$1</f>
+        <v>0</v>
       </c>
       <c r="U79" s="1">
-        <f t="shared" si="102"/>
+        <f>F79*F$1</f>
         <v>0</v>
       </c>
       <c r="V79" s="1">
-        <f t="shared" si="103"/>
+        <f>G79*G$1</f>
         <v>0</v>
       </c>
       <c r="W79" s="1">
-        <f t="shared" si="104"/>
+        <f>H79*H$1</f>
         <v>0</v>
       </c>
       <c r="X79" s="1">
-        <f t="shared" si="105"/>
+        <f>I79*I$1</f>
         <v>0</v>
       </c>
       <c r="Y79" s="1">
-        <f t="shared" si="106"/>
-        <v>0</v>
+        <f>J79*J$1</f>
+        <v>256</v>
       </c>
       <c r="Z79" s="1">
-        <f t="shared" si="107"/>
+        <f>K79*K$1</f>
         <v>0</v>
       </c>
       <c r="AA79" s="1">
-        <f t="shared" si="108"/>
+        <f>L79*L$1</f>
         <v>0</v>
       </c>
       <c r="AB79" s="1">
-        <f t="shared" si="109"/>
+        <f>M79*M$1</f>
         <v>0</v>
       </c>
       <c r="AC79" s="1">
-        <f t="shared" si="110"/>
+        <f>N79*N$1</f>
         <v>0</v>
       </c>
       <c r="AD79" s="1">
-        <f t="shared" si="145"/>
-        <v>0</v>
+        <f>O79*O$1</f>
+        <v>8</v>
       </c>
       <c r="AE79" s="1">
-        <f t="shared" si="146"/>
+        <f>P79*P$1</f>
         <v>0</v>
       </c>
       <c r="AF79" s="1">
-        <f t="shared" si="17"/>
-        <v>40961</v>
+        <f>SUM(Q79:AE79)</f>
+        <v>265</v>
       </c>
       <c r="AG79" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>A001</v>
+        <f>DEC2HEX(AF79)</f>
+        <v>109</v>
       </c>
     </row>
     <row r="80" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A80" s="1" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="B80" s="1">
-        <v>1</v>
-      </c>
-      <c r="C80" s="1">
+        <v>2</v>
+      </c>
+      <c r="H80" s="1">
+        <v>1</v>
+      </c>
+      <c r="O80" s="1">
         <v>1</v>
       </c>
       <c r="Q80" s="1">
-        <f t="shared" si="98"/>
-        <v>1</v>
+        <f>B80*B$1</f>
+        <v>2</v>
       </c>
       <c r="R80" s="1">
-        <f t="shared" si="99"/>
-        <v>32768</v>
+        <f>C80*C$1</f>
+        <v>0</v>
       </c>
       <c r="S80" s="1">
-        <f t="shared" si="100"/>
+        <f>D80*D$1</f>
         <v>0</v>
       </c>
       <c r="T80" s="1">
-        <f t="shared" si="101"/>
+        <f>E80*E$1</f>
         <v>0</v>
       </c>
       <c r="U80" s="1">
-        <f t="shared" si="102"/>
+        <f>F80*F$1</f>
         <v>0</v>
       </c>
       <c r="V80" s="1">
-        <f t="shared" si="103"/>
+        <f>G80*G$1</f>
         <v>0</v>
       </c>
       <c r="W80" s="1">
-        <f t="shared" si="104"/>
-        <v>0</v>
+        <f>H80*H$1</f>
+        <v>1024</v>
       </c>
       <c r="X80" s="1">
-        <f t="shared" si="105"/>
+        <f>I80*I$1</f>
         <v>0</v>
       </c>
       <c r="Y80" s="1">
-        <f t="shared" si="106"/>
+        <f>J80*J$1</f>
         <v>0</v>
       </c>
       <c r="Z80" s="1">
-        <f t="shared" si="107"/>
+        <f>K80*K$1</f>
         <v>0</v>
       </c>
       <c r="AA80" s="1">
-        <f t="shared" si="108"/>
+        <f>L80*L$1</f>
         <v>0</v>
       </c>
       <c r="AB80" s="1">
-        <f t="shared" si="109"/>
+        <f>M80*M$1</f>
         <v>0</v>
       </c>
       <c r="AC80" s="1">
-        <f t="shared" si="110"/>
+        <f>N80*N$1</f>
         <v>0</v>
       </c>
       <c r="AD80" s="1">
-        <f t="shared" si="145"/>
-        <v>0</v>
+        <f>O80*O$1</f>
+        <v>8</v>
       </c>
       <c r="AE80" s="1">
-        <f t="shared" si="146"/>
+        <f>P80*P$1</f>
         <v>0</v>
       </c>
       <c r="AF80" s="1">
-        <f t="shared" si="17"/>
-        <v>32769</v>
+        <f>SUM(Q80:AE80)</f>
+        <v>1034</v>
       </c>
       <c r="AG80" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>8001</v>
+        <f>DEC2HEX(AF80)</f>
+        <v>40A</v>
       </c>
     </row>
     <row r="81" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A81" s="1" t="s">
-        <v>102</v>
+        <v>24</v>
       </c>
       <c r="B81" s="1">
-        <v>1</v>
-      </c>
-      <c r="J81" s="1">
+        <v>2</v>
+      </c>
+      <c r="K81" s="1">
         <v>1</v>
       </c>
       <c r="O81" s="1">
         <v>1</v>
       </c>
       <c r="Q81" s="1">
-        <f t="shared" ref="Q81" si="294">B81*B$1</f>
-        <v>1</v>
+        <f>B81*B$1</f>
+        <v>2</v>
       </c>
       <c r="R81" s="1">
-        <f t="shared" ref="R81" si="295">C81*C$1</f>
+        <f>C81*C$1</f>
         <v>0</v>
       </c>
       <c r="S81" s="1">
-        <f t="shared" ref="S81" si="296">D81*D$1</f>
+        <f>D81*D$1</f>
         <v>0</v>
       </c>
       <c r="T81" s="1">
-        <f t="shared" ref="T81" si="297">E81*E$1</f>
+        <f>E81*E$1</f>
         <v>0</v>
       </c>
       <c r="U81" s="1">
-        <f t="shared" ref="U81" si="298">F81*F$1</f>
+        <f>F81*F$1</f>
         <v>0</v>
       </c>
       <c r="V81" s="1">
-        <f t="shared" ref="V81" si="299">G81*G$1</f>
+        <f>G81*G$1</f>
         <v>0</v>
       </c>
       <c r="W81" s="1">
-        <f t="shared" ref="W81" si="300">H81*H$1</f>
+        <f>H81*H$1</f>
         <v>0</v>
       </c>
       <c r="X81" s="1">
-        <f t="shared" ref="X81" si="301">I81*I$1</f>
+        <f>I81*I$1</f>
         <v>0</v>
       </c>
       <c r="Y81" s="1">
-        <f t="shared" ref="Y81" si="302">J81*J$1</f>
-        <v>256</v>
+        <f>J81*J$1</f>
+        <v>0</v>
       </c>
       <c r="Z81" s="1">
-        <f t="shared" ref="Z81" si="303">K81*K$1</f>
-        <v>0</v>
+        <f>K81*K$1</f>
+        <v>128</v>
       </c>
       <c r="AA81" s="1">
-        <f t="shared" ref="AA81" si="304">L81*L$1</f>
+        <f>L81*L$1</f>
         <v>0</v>
       </c>
       <c r="AB81" s="1">
-        <f t="shared" ref="AB81" si="305">M81*M$1</f>
+        <f>M81*M$1</f>
         <v>0</v>
       </c>
       <c r="AC81" s="1">
-        <f t="shared" ref="AC81" si="306">N81*N$1</f>
+        <f>N81*N$1</f>
         <v>0</v>
       </c>
       <c r="AD81" s="1">
-        <f t="shared" ref="AD81" si="307">O81*O$1</f>
+        <f>O81*O$1</f>
         <v>8</v>
       </c>
       <c r="AE81" s="1">
-        <f t="shared" ref="AE81" si="308">P81*P$1</f>
+        <f>P81*P$1</f>
         <v>0</v>
       </c>
       <c r="AF81" s="1">
-        <f t="shared" ref="AF81" si="309">SUM(Q81:AE81)</f>
-        <v>265</v>
+        <f>SUM(Q81:AE81)</f>
+        <v>138</v>
       </c>
       <c r="AG81" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>109</v>
+        <f>DEC2HEX(AF81)</f>
+        <v>8A</v>
       </c>
     </row>
     <row r="82" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A82" s="1" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="B82" s="1">
         <v>2</v>
       </c>
-      <c r="J82" s="1">
+      <c r="K82" s="1">
+        <v>1</v>
+      </c>
+      <c r="N82" s="1">
         <v>1</v>
       </c>
       <c r="O82" s="1">
         <v>1</v>
       </c>
       <c r="Q82" s="1">
-        <f t="shared" si="98"/>
+        <f>B82*B$1</f>
         <v>2</v>
       </c>
       <c r="R82" s="1">
-        <f t="shared" si="99"/>
+        <f>C82*C$1</f>
         <v>0</v>
       </c>
       <c r="S82" s="1">
-        <f t="shared" si="100"/>
+        <f>D82*D$1</f>
         <v>0</v>
       </c>
       <c r="T82" s="1">
-        <f t="shared" si="101"/>
+        <f>E82*E$1</f>
         <v>0</v>
       </c>
       <c r="U82" s="1">
-        <f t="shared" si="102"/>
+        <f>F82*F$1</f>
         <v>0</v>
       </c>
       <c r="V82" s="1">
-        <f t="shared" si="103"/>
+        <f>G82*G$1</f>
         <v>0</v>
       </c>
       <c r="W82" s="1">
-        <f t="shared" si="104"/>
+        <f>H82*H$1</f>
         <v>0</v>
       </c>
       <c r="X82" s="1">
-        <f t="shared" si="105"/>
+        <f>I82*I$1</f>
         <v>0</v>
       </c>
       <c r="Y82" s="1">
-        <f t="shared" si="106"/>
-        <v>256</v>
+        <f>J82*J$1</f>
+        <v>0</v>
       </c>
       <c r="Z82" s="1">
-        <f t="shared" si="107"/>
-        <v>0</v>
+        <f>K82*K$1</f>
+        <v>128</v>
       </c>
       <c r="AA82" s="1">
-        <f t="shared" si="108"/>
+        <f>L82*L$1</f>
         <v>0</v>
       </c>
       <c r="AB82" s="1">
-        <f t="shared" si="109"/>
+        <f>M82*M$1</f>
         <v>0</v>
       </c>
       <c r="AC82" s="1">
-        <f t="shared" si="110"/>
-        <v>0</v>
+        <f>N82*N$1</f>
+        <v>16</v>
       </c>
       <c r="AD82" s="1">
-        <f t="shared" si="145"/>
+        <f>O82*O$1</f>
         <v>8</v>
       </c>
       <c r="AE82" s="1">
-        <f t="shared" si="146"/>
+        <f>P82*P$1</f>
         <v>0</v>
       </c>
       <c r="AF82" s="1">
-        <f t="shared" si="17"/>
-        <v>266</v>
+        <f>SUM(Q82:AE82)</f>
+        <v>154</v>
       </c>
       <c r="AG82" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>10A</v>
+        <f>DEC2HEX(AF82)</f>
+        <v>9A</v>
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="B83" s="1">
-        <v>2</v>
-      </c>
-      <c r="J83" s="1">
-        <v>1</v>
-      </c>
-      <c r="N83" s="1">
+        <v>1</v>
+      </c>
+      <c r="K83" s="1">
         <v>1</v>
       </c>
       <c r="O83" s="1">
         <v>1</v>
       </c>
       <c r="Q83" s="1">
-        <f t="shared" si="98"/>
-        <v>2</v>
+        <f>B83*B$1</f>
+        <v>1</v>
       </c>
       <c r="R83" s="1">
-        <f t="shared" si="99"/>
+        <f>C83*C$1</f>
         <v>0</v>
       </c>
       <c r="S83" s="1">
-        <f t="shared" si="100"/>
+        <f>D83*D$1</f>
         <v>0</v>
       </c>
       <c r="T83" s="1">
-        <f t="shared" si="101"/>
+        <f>E83*E$1</f>
         <v>0</v>
       </c>
       <c r="U83" s="1">
-        <f t="shared" si="102"/>
+        <f>F83*F$1</f>
         <v>0</v>
       </c>
       <c r="V83" s="1">
-        <f t="shared" si="103"/>
+        <f>G83*G$1</f>
         <v>0</v>
       </c>
       <c r="W83" s="1">
-        <f t="shared" si="104"/>
+        <f>H83*H$1</f>
         <v>0</v>
       </c>
       <c r="X83" s="1">
-        <f t="shared" si="105"/>
+        <f>I83*I$1</f>
         <v>0</v>
       </c>
       <c r="Y83" s="1">
-        <f t="shared" si="106"/>
-        <v>256</v>
+        <f>J83*J$1</f>
+        <v>0</v>
       </c>
       <c r="Z83" s="1">
-        <f t="shared" si="107"/>
-        <v>0</v>
+        <f>K83*K$1</f>
+        <v>128</v>
       </c>
       <c r="AA83" s="1">
-        <f t="shared" si="108"/>
+        <f>L83*L$1</f>
         <v>0</v>
       </c>
       <c r="AB83" s="1">
-        <f t="shared" si="109"/>
+        <f>M83*M$1</f>
         <v>0</v>
       </c>
       <c r="AC83" s="1">
-        <f t="shared" si="110"/>
-        <v>16</v>
+        <f>N83*N$1</f>
+        <v>0</v>
       </c>
       <c r="AD83" s="1">
-        <f t="shared" si="145"/>
+        <f>O83*O$1</f>
         <v>8</v>
       </c>
       <c r="AE83" s="1">
-        <f t="shared" si="146"/>
+        <f>P83*P$1</f>
         <v>0</v>
       </c>
       <c r="AF83" s="1">
-        <f t="shared" si="17"/>
-        <v>282</v>
+        <f>SUM(Q83:AE83)</f>
+        <v>137</v>
       </c>
       <c r="AG83" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>11A</v>
+        <f>DEC2HEX(AF83)</f>
+        <v>89</v>
       </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A84" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B84" s="1">
-        <v>2</v>
-      </c>
-      <c r="H84" s="1">
-        <v>1</v>
-      </c>
-      <c r="O84" s="1">
-        <v>1</v>
+        <v>53</v>
+      </c>
+      <c r="P84" s="1">
+        <v>16</v>
       </c>
       <c r="Q84" s="1">
-        <f t="shared" si="98"/>
-        <v>2</v>
+        <f>B84*B$1</f>
+        <v>0</v>
       </c>
       <c r="R84" s="1">
-        <f t="shared" si="99"/>
+        <f>C84*C$1</f>
         <v>0</v>
       </c>
       <c r="S84" s="1">
-        <f t="shared" si="100"/>
+        <f>D84*D$1</f>
         <v>0</v>
       </c>
       <c r="T84" s="1">
-        <f t="shared" si="101"/>
+        <f>E84*E$1</f>
         <v>0</v>
       </c>
       <c r="U84" s="1">
-        <f t="shared" si="102"/>
+        <f>F84*F$1</f>
         <v>0</v>
       </c>
       <c r="V84" s="1">
-        <f t="shared" si="103"/>
+        <f>G84*G$1</f>
         <v>0</v>
       </c>
       <c r="W84" s="1">
-        <f t="shared" si="104"/>
-        <v>1024</v>
+        <f>H84*H$1</f>
+        <v>0</v>
       </c>
       <c r="X84" s="1">
-        <f t="shared" si="105"/>
+        <f>I84*I$1</f>
         <v>0</v>
       </c>
       <c r="Y84" s="1">
-        <f t="shared" si="106"/>
+        <f>J84*J$1</f>
         <v>0</v>
       </c>
       <c r="Z84" s="1">
-        <f t="shared" si="107"/>
+        <f>K84*K$1</f>
         <v>0</v>
       </c>
       <c r="AA84" s="1">
-        <f t="shared" si="108"/>
+        <f>L84*L$1</f>
         <v>0</v>
       </c>
       <c r="AB84" s="1">
-        <f t="shared" si="109"/>
+        <f>M84*M$1</f>
         <v>0</v>
       </c>
       <c r="AC84" s="1">
-        <f t="shared" si="110"/>
+        <f>N84*N$1</f>
         <v>0</v>
       </c>
       <c r="AD84" s="1">
-        <f t="shared" si="145"/>
-        <v>8</v>
+        <f>O84*O$1</f>
+        <v>0</v>
       </c>
       <c r="AE84" s="1">
-        <f t="shared" si="146"/>
-        <v>0</v>
+        <f>P84*P$1</f>
+        <v>1048576</v>
       </c>
       <c r="AF84" s="1">
-        <f t="shared" si="17"/>
-        <v>1034</v>
+        <f>SUM(Q84:AE84)</f>
+        <v>1048576</v>
       </c>
       <c r="AG84" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>40A</v>
+        <f>DEC2HEX(AF84)</f>
+        <v>100000</v>
       </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A85" s="1" t="s">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="B85" s="1">
-        <v>1</v>
-      </c>
-      <c r="K85" s="1">
-        <v>1</v>
-      </c>
-      <c r="O85" s="1">
+        <v>5</v>
+      </c>
+      <c r="C85" s="1">
         <v>1</v>
       </c>
       <c r="Q85" s="1">
-        <f t="shared" ref="Q85:Q86" si="310">B85*B$1</f>
-        <v>1</v>
+        <f>B85*B$1</f>
+        <v>5</v>
       </c>
       <c r="R85" s="1">
-        <f t="shared" ref="R85:R86" si="311">C85*C$1</f>
-        <v>0</v>
+        <f>C85*C$1</f>
+        <v>32768</v>
       </c>
       <c r="S85" s="1">
-        <f t="shared" ref="S85:S86" si="312">D85*D$1</f>
+        <f>D85*D$1</f>
         <v>0</v>
       </c>
       <c r="T85" s="1">
-        <f t="shared" ref="T85:T86" si="313">E85*E$1</f>
+        <f>E85*E$1</f>
         <v>0</v>
       </c>
       <c r="U85" s="1">
-        <f t="shared" ref="U85:U86" si="314">F85*F$1</f>
+        <f>F85*F$1</f>
         <v>0</v>
       </c>
       <c r="V85" s="1">
-        <f t="shared" ref="V85:V86" si="315">G85*G$1</f>
+        <f>G85*G$1</f>
         <v>0</v>
       </c>
       <c r="W85" s="1">
-        <f t="shared" ref="W85:W86" si="316">H85*H$1</f>
+        <f>H85*H$1</f>
         <v>0</v>
       </c>
       <c r="X85" s="1">
-        <f t="shared" ref="X85:X86" si="317">I85*I$1</f>
+        <f>I85*I$1</f>
         <v>0</v>
       </c>
       <c r="Y85" s="1">
-        <f t="shared" ref="Y85:Y86" si="318">J85*J$1</f>
+        <f>J85*J$1</f>
         <v>0</v>
       </c>
       <c r="Z85" s="1">
-        <f t="shared" ref="Z85:Z86" si="319">K85*K$1</f>
-        <v>128</v>
+        <f>K85*K$1</f>
+        <v>0</v>
       </c>
       <c r="AA85" s="1">
-        <f t="shared" ref="AA85:AA86" si="320">L85*L$1</f>
+        <f>L85*L$1</f>
         <v>0</v>
       </c>
       <c r="AB85" s="1">
-        <f t="shared" ref="AB85:AB86" si="321">M85*M$1</f>
+        <f>M85*M$1</f>
         <v>0</v>
       </c>
       <c r="AC85" s="1">
-        <f t="shared" ref="AC85:AC86" si="322">N85*N$1</f>
+        <f>N85*N$1</f>
         <v>0</v>
       </c>
       <c r="AD85" s="1">
-        <f t="shared" ref="AD85:AD86" si="323">O85*O$1</f>
-        <v>8</v>
+        <f>O85*O$1</f>
+        <v>0</v>
       </c>
       <c r="AE85" s="1">
-        <f t="shared" ref="AE85:AE86" si="324">P85*P$1</f>
+        <f>P85*P$1</f>
         <v>0</v>
       </c>
       <c r="AF85" s="1">
-        <f t="shared" ref="AF85:AF86" si="325">SUM(Q85:AE85)</f>
-        <v>137</v>
+        <f>SUM(Q85:AE85)</f>
+        <v>32773</v>
       </c>
       <c r="AG85" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>89</v>
+        <f>DEC2HEX(AF85)</f>
+        <v>8005</v>
       </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A86" s="1" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="B86" s="1">
-        <v>2</v>
-      </c>
-      <c r="K86" s="1">
-        <v>1</v>
-      </c>
-      <c r="O86" s="1">
+        <v>6</v>
+      </c>
+      <c r="C86" s="1">
         <v>1</v>
       </c>
       <c r="Q86" s="1">
-        <f t="shared" si="310"/>
-        <v>2</v>
+        <f>B86*B$1</f>
+        <v>6</v>
       </c>
       <c r="R86" s="1">
-        <f t="shared" si="311"/>
-        <v>0</v>
+        <f>C86*C$1</f>
+        <v>32768</v>
       </c>
       <c r="S86" s="1">
-        <f t="shared" si="312"/>
+        <f>D86*D$1</f>
         <v>0</v>
       </c>
       <c r="T86" s="1">
-        <f t="shared" si="313"/>
+        <f>E86*E$1</f>
         <v>0</v>
       </c>
       <c r="U86" s="1">
-        <f t="shared" si="314"/>
+        <f>F86*F$1</f>
         <v>0</v>
       </c>
       <c r="V86" s="1">
-        <f t="shared" si="315"/>
+        <f>G86*G$1</f>
         <v>0</v>
       </c>
       <c r="W86" s="1">
-        <f t="shared" si="316"/>
+        <f>H86*H$1</f>
         <v>0</v>
       </c>
       <c r="X86" s="1">
-        <f t="shared" si="317"/>
+        <f>I86*I$1</f>
         <v>0</v>
       </c>
       <c r="Y86" s="1">
-        <f t="shared" si="318"/>
+        <f>J86*J$1</f>
         <v>0</v>
       </c>
       <c r="Z86" s="1">
-        <f t="shared" si="319"/>
-        <v>128</v>
+        <f>K86*K$1</f>
+        <v>0</v>
       </c>
       <c r="AA86" s="1">
-        <f t="shared" si="320"/>
+        <f>L86*L$1</f>
         <v>0</v>
       </c>
       <c r="AB86" s="1">
-        <f t="shared" si="321"/>
+        <f>M86*M$1</f>
         <v>0</v>
       </c>
       <c r="AC86" s="1">
-        <f t="shared" si="322"/>
+        <f>N86*N$1</f>
         <v>0</v>
       </c>
       <c r="AD86" s="1">
-        <f t="shared" si="323"/>
-        <v>8</v>
+        <f>O86*O$1</f>
+        <v>0</v>
       </c>
       <c r="AE86" s="1">
-        <f t="shared" si="324"/>
+        <f>P86*P$1</f>
         <v>0</v>
       </c>
       <c r="AF86" s="1">
-        <f t="shared" si="325"/>
-        <v>138</v>
+        <f>SUM(Q86:AE86)</f>
+        <v>32774</v>
       </c>
       <c r="AG86" s="1" t="str">
-        <f t="shared" ref="AG86:AG88" si="326">DEC2HEX(AF86)</f>
-        <v>8A</v>
+        <f>DEC2HEX(AF86)</f>
+        <v>8006</v>
       </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A87" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B87" s="1">
-        <v>2</v>
-      </c>
-      <c r="K87" s="1">
-        <v>1</v>
-      </c>
-      <c r="N87" s="1">
-        <v>1</v>
-      </c>
-      <c r="O87" s="1">
-        <v>1</v>
+        <v>87</v>
+      </c>
+      <c r="P87" s="1">
+        <v>23</v>
       </c>
       <c r="Q87" s="1">
-        <f t="shared" ref="Q87" si="327">B87*B$1</f>
-        <v>2</v>
+        <f>B87*B$1</f>
+        <v>0</v>
       </c>
       <c r="R87" s="1">
-        <f t="shared" ref="R87:R88" si="328">C87*C$1</f>
+        <f>C87*C$1</f>
         <v>0</v>
       </c>
       <c r="S87" s="1">
-        <f t="shared" ref="S87" si="329">D87*D$1</f>
+        <f>D87*D$1</f>
         <v>0</v>
       </c>
       <c r="T87" s="1">
-        <f t="shared" ref="T87" si="330">E87*E$1</f>
+        <f>E87*E$1</f>
         <v>0</v>
       </c>
       <c r="U87" s="1">
-        <f t="shared" ref="U87" si="331">F87*F$1</f>
+        <f>F87*F$1</f>
         <v>0</v>
       </c>
       <c r="V87" s="1">
-        <f t="shared" ref="V87" si="332">G87*G$1</f>
+        <f>G87*G$1</f>
         <v>0</v>
       </c>
       <c r="W87" s="1">
-        <f t="shared" ref="W87" si="333">H87*H$1</f>
+        <f>H87*H$1</f>
         <v>0</v>
       </c>
       <c r="X87" s="1">
-        <f t="shared" ref="X87" si="334">I87*I$1</f>
+        <f>I87*I$1</f>
         <v>0</v>
       </c>
       <c r="Y87" s="1">
-        <f t="shared" ref="Y87" si="335">J87*J$1</f>
+        <f>J87*J$1</f>
         <v>0</v>
       </c>
       <c r="Z87" s="1">
-        <f t="shared" ref="Z87" si="336">K87*K$1</f>
-        <v>128</v>
+        <f>K87*K$1</f>
+        <v>0</v>
       </c>
       <c r="AA87" s="1">
-        <f t="shared" ref="AA87" si="337">L87*L$1</f>
+        <f>L87*L$1</f>
         <v>0</v>
       </c>
       <c r="AB87" s="1">
-        <f t="shared" ref="AB87" si="338">M87*M$1</f>
+        <f>M87*M$1</f>
         <v>0</v>
       </c>
       <c r="AC87" s="1">
-        <f t="shared" ref="AC87" si="339">N87*N$1</f>
-        <v>16</v>
+        <f>N87*N$1</f>
+        <v>0</v>
       </c>
       <c r="AD87" s="1">
-        <f t="shared" ref="AD87" si="340">O87*O$1</f>
-        <v>8</v>
+        <f>O87*O$1</f>
+        <v>0</v>
       </c>
       <c r="AE87" s="1">
-        <f t="shared" ref="AE87" si="341">P87*P$1</f>
-        <v>0</v>
+        <f>P87*P$1</f>
+        <v>1507328</v>
       </c>
       <c r="AF87" s="1">
-        <f t="shared" ref="AF87" si="342">SUM(Q87:AE87)</f>
-        <v>154</v>
+        <f>SUM(Q87:AE87)</f>
+        <v>1507328</v>
       </c>
       <c r="AG87" s="1" t="str">
-        <f t="shared" si="326"/>
-        <v>9A</v>
+        <f>DEC2HEX(AF87)</f>
+        <v>170000</v>
       </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A88" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B88" s="1">
-        <v>5</v>
-      </c>
-      <c r="C88" s="1">
+        <v>4</v>
+      </c>
+      <c r="F88" s="1">
+        <v>1</v>
+      </c>
+      <c r="G88" s="1">
         <v>1</v>
       </c>
       <c r="Q88" s="1">
-        <f t="shared" ref="Q88" si="343">B88*B$1</f>
-        <v>5</v>
+        <f>B88*B$1</f>
+        <v>0</v>
       </c>
       <c r="R88" s="1">
-        <f t="shared" si="328"/>
-        <v>32768</v>
+        <f>C88*C$1</f>
+        <v>0</v>
       </c>
       <c r="S88" s="1">
-        <f t="shared" ref="S88" si="344">D88*D$1</f>
+        <f>D88*D$1</f>
         <v>0</v>
       </c>
       <c r="T88" s="1">
-        <f t="shared" ref="T88" si="345">E88*E$1</f>
+        <f>E88*E$1</f>
         <v>0</v>
       </c>
       <c r="U88" s="1">
-        <f t="shared" ref="U88" si="346">F88*F$1</f>
-        <v>0</v>
+        <f>F88*F$1</f>
+        <v>4096</v>
       </c>
       <c r="V88" s="1">
-        <f t="shared" ref="V88" si="347">G88*G$1</f>
-        <v>0</v>
+        <f>G88*G$1</f>
+        <v>2048</v>
       </c>
       <c r="W88" s="1">
-        <f t="shared" ref="W88" si="348">H88*H$1</f>
+        <f>H88*H$1</f>
         <v>0</v>
       </c>
       <c r="X88" s="1">
-        <f t="shared" ref="X88" si="349">I88*I$1</f>
+        <f>I88*I$1</f>
         <v>0</v>
       </c>
       <c r="Y88" s="1">
-        <f t="shared" ref="Y88" si="350">J88*J$1</f>
+        <f>J88*J$1</f>
         <v>0</v>
       </c>
       <c r="Z88" s="1">
-        <f t="shared" ref="Z88" si="351">K88*K$1</f>
+        <f>K88*K$1</f>
         <v>0</v>
       </c>
       <c r="AA88" s="1">
-        <f t="shared" ref="AA88" si="352">L88*L$1</f>
+        <f>L88*L$1</f>
         <v>0</v>
       </c>
       <c r="AB88" s="1">
-        <f t="shared" ref="AB88" si="353">M88*M$1</f>
+        <f>M88*M$1</f>
         <v>0</v>
       </c>
       <c r="AC88" s="1">
-        <f t="shared" ref="AC88" si="354">N88*N$1</f>
+        <f>N88*N$1</f>
         <v>0</v>
       </c>
       <c r="AD88" s="1">
-        <f t="shared" ref="AD88" si="355">O88*O$1</f>
+        <f>O88*O$1</f>
         <v>0</v>
       </c>
       <c r="AE88" s="1">
-        <f t="shared" ref="AE88" si="356">P88*P$1</f>
+        <f>P88*P$1</f>
         <v>0</v>
       </c>
       <c r="AF88" s="1">
-        <f t="shared" ref="AF88" si="357">SUM(Q88:AE88)</f>
-        <v>32773</v>
+        <f>SUM(Q88:AE88)</f>
+        <v>6144</v>
       </c>
       <c r="AG88" s="1" t="str">
-        <f t="shared" si="326"/>
-        <v>8005</v>
+        <f>DEC2HEX(AF88)</f>
+        <v>1800</v>
       </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A89" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B89" s="1">
-        <v>6</v>
-      </c>
-      <c r="C89" s="1">
+        <v>5</v>
+      </c>
+      <c r="G89" s="1">
         <v>1</v>
       </c>
       <c r="Q89" s="1">
-        <f t="shared" ref="Q89" si="358">B89*B$1</f>
-        <v>6</v>
+        <f>B89*B$1</f>
+        <v>0</v>
       </c>
       <c r="R89" s="1">
-        <f t="shared" ref="R89" si="359">C89*C$1</f>
-        <v>32768</v>
+        <f>C89*C$1</f>
+        <v>0</v>
       </c>
       <c r="S89" s="1">
-        <f t="shared" ref="S89" si="360">D89*D$1</f>
+        <f>D89*D$1</f>
         <v>0</v>
       </c>
       <c r="T89" s="1">
-        <f t="shared" ref="T89" si="361">E89*E$1</f>
+        <f>E89*E$1</f>
         <v>0</v>
       </c>
       <c r="U89" s="1">
-        <f t="shared" ref="U89" si="362">F89*F$1</f>
+        <f>F89*F$1</f>
         <v>0</v>
       </c>
       <c r="V89" s="1">
-        <f t="shared" ref="V89" si="363">G89*G$1</f>
-        <v>0</v>
+        <f>G89*G$1</f>
+        <v>2048</v>
       </c>
       <c r="W89" s="1">
-        <f t="shared" ref="W89" si="364">H89*H$1</f>
+        <f>H89*H$1</f>
         <v>0</v>
       </c>
       <c r="X89" s="1">
-        <f t="shared" ref="X89" si="365">I89*I$1</f>
+        <f>I89*I$1</f>
         <v>0</v>
       </c>
       <c r="Y89" s="1">
-        <f t="shared" ref="Y89" si="366">J89*J$1</f>
+        <f>J89*J$1</f>
         <v>0</v>
       </c>
       <c r="Z89" s="1">
-        <f t="shared" ref="Z89" si="367">K89*K$1</f>
+        <f>K89*K$1</f>
         <v>0</v>
       </c>
       <c r="AA89" s="1">
-        <f t="shared" ref="AA89" si="368">L89*L$1</f>
+        <f>L89*L$1</f>
         <v>0</v>
       </c>
       <c r="AB89" s="1">
-        <f t="shared" ref="AB89" si="369">M89*M$1</f>
+        <f>M89*M$1</f>
         <v>0</v>
       </c>
       <c r="AC89" s="1">
-        <f t="shared" ref="AC89" si="370">N89*N$1</f>
+        <f>N89*N$1</f>
         <v>0</v>
       </c>
       <c r="AD89" s="1">
-        <f t="shared" ref="AD89" si="371">O89*O$1</f>
+        <f>O89*O$1</f>
         <v>0</v>
       </c>
       <c r="AE89" s="1">
-        <f t="shared" ref="AE89" si="372">P89*P$1</f>
+        <f>P89*P$1</f>
         <v>0</v>
       </c>
       <c r="AF89" s="1">
-        <f t="shared" ref="AF89" si="373">SUM(Q89:AE89)</f>
-        <v>32774</v>
+        <f>SUM(Q89:AE89)</f>
+        <v>2048</v>
       </c>
       <c r="AG89" s="1" t="str">
-        <f t="shared" ref="AG89" si="374">DEC2HEX(AF89)</f>
-        <v>8006</v>
+        <f>DEC2HEX(AF89)</f>
+        <v>800</v>
       </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A90" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F90" s="1">
-        <v>1</v>
-      </c>
-      <c r="G90" s="1">
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="P90" s="1">
+        <v>12</v>
       </c>
       <c r="Q90" s="1">
-        <f t="shared" ref="Q90" si="375">B90*B$1</f>
+        <f>B90*B$1</f>
         <v>0</v>
       </c>
       <c r="R90" s="1">
-        <f t="shared" ref="R90" si="376">C90*C$1</f>
+        <f>C90*C$1</f>
         <v>0</v>
       </c>
       <c r="S90" s="1">
-        <f t="shared" ref="S90" si="377">D90*D$1</f>
+        <f>D90*D$1</f>
         <v>0</v>
       </c>
       <c r="T90" s="1">
-        <f t="shared" ref="T90" si="378">E90*E$1</f>
+        <f>E90*E$1</f>
         <v>0</v>
       </c>
       <c r="U90" s="1">
-        <f t="shared" ref="U90" si="379">F90*F$1</f>
-        <v>4096</v>
+        <f>F90*F$1</f>
+        <v>0</v>
       </c>
       <c r="V90" s="1">
-        <f t="shared" ref="V90" si="380">G90*G$1</f>
-        <v>2048</v>
+        <f>G90*G$1</f>
+        <v>0</v>
       </c>
       <c r="W90" s="1">
-        <f t="shared" ref="W90" si="381">H90*H$1</f>
+        <f>H90*H$1</f>
         <v>0</v>
       </c>
       <c r="X90" s="1">
-        <f t="shared" ref="X90" si="382">I90*I$1</f>
+        <f>I90*I$1</f>
         <v>0</v>
       </c>
       <c r="Y90" s="1">
-        <f t="shared" ref="Y90" si="383">J90*J$1</f>
+        <f>J90*J$1</f>
         <v>0</v>
       </c>
       <c r="Z90" s="1">
-        <f t="shared" ref="Z90" si="384">K90*K$1</f>
+        <f>K90*K$1</f>
         <v>0</v>
       </c>
       <c r="AA90" s="1">
-        <f t="shared" ref="AA90" si="385">L90*L$1</f>
+        <f>L90*L$1</f>
         <v>0</v>
       </c>
       <c r="AB90" s="1">
-        <f t="shared" ref="AB90" si="386">M90*M$1</f>
+        <f>M90*M$1</f>
         <v>0</v>
       </c>
       <c r="AC90" s="1">
-        <f t="shared" ref="AC90" si="387">N90*N$1</f>
+        <f>N90*N$1</f>
         <v>0</v>
       </c>
       <c r="AD90" s="1">
-        <f t="shared" ref="AD90" si="388">O90*O$1</f>
+        <f>O90*O$1</f>
         <v>0</v>
       </c>
       <c r="AE90" s="1">
-        <f t="shared" ref="AE90" si="389">P90*P$1</f>
-        <v>0</v>
+        <f>P90*P$1</f>
+        <v>786432</v>
       </c>
       <c r="AF90" s="1">
-        <f t="shared" ref="AF90" si="390">SUM(Q90:AE90)</f>
-        <v>6144</v>
+        <f>SUM(Q90:AE90)</f>
+        <v>786432</v>
       </c>
       <c r="AG90" s="1" t="str">
-        <f t="shared" ref="AG90" si="391">DEC2HEX(AF90)</f>
-        <v>1800</v>
+        <f>DEC2HEX(AF90)</f>
+        <v>C0000</v>
       </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A91" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G91" s="1">
-        <v>1</v>
+        <v>55</v>
+      </c>
+      <c r="P91" s="1">
+        <v>18</v>
       </c>
       <c r="Q91" s="1">
-        <f t="shared" ref="Q91" si="392">B91*B$1</f>
+        <f>B91*B$1</f>
         <v>0</v>
       </c>
       <c r="R91" s="1">
-        <f t="shared" ref="R91" si="393">C91*C$1</f>
+        <f>C91*C$1</f>
         <v>0</v>
       </c>
       <c r="S91" s="1">
-        <f t="shared" ref="S91" si="394">D91*D$1</f>
+        <f>D91*D$1</f>
         <v>0</v>
       </c>
       <c r="T91" s="1">
-        <f t="shared" ref="T91" si="395">E91*E$1</f>
+        <f>E91*E$1</f>
         <v>0</v>
       </c>
       <c r="U91" s="1">
-        <f t="shared" ref="U91" si="396">F91*F$1</f>
+        <f>F91*F$1</f>
         <v>0</v>
       </c>
       <c r="V91" s="1">
-        <f t="shared" ref="V91" si="397">G91*G$1</f>
-        <v>2048</v>
+        <f>G91*G$1</f>
+        <v>0</v>
       </c>
       <c r="W91" s="1">
-        <f t="shared" ref="W91" si="398">H91*H$1</f>
+        <f>H91*H$1</f>
         <v>0</v>
       </c>
       <c r="X91" s="1">
-        <f t="shared" ref="X91" si="399">I91*I$1</f>
+        <f>I91*I$1</f>
         <v>0</v>
       </c>
       <c r="Y91" s="1">
-        <f t="shared" ref="Y91" si="400">J91*J$1</f>
+        <f>J91*J$1</f>
         <v>0</v>
       </c>
       <c r="Z91" s="1">
-        <f t="shared" ref="Z91" si="401">K91*K$1</f>
+        <f>K91*K$1</f>
         <v>0</v>
       </c>
       <c r="AA91" s="1">
-        <f t="shared" ref="AA91" si="402">L91*L$1</f>
+        <f>L91*L$1</f>
         <v>0</v>
       </c>
       <c r="AB91" s="1">
-        <f t="shared" ref="AB91" si="403">M91*M$1</f>
+        <f>M91*M$1</f>
         <v>0</v>
       </c>
       <c r="AC91" s="1">
-        <f t="shared" ref="AC91" si="404">N91*N$1</f>
+        <f>N91*N$1</f>
         <v>0</v>
       </c>
       <c r="AD91" s="1">
-        <f t="shared" ref="AD91" si="405">O91*O$1</f>
+        <f>O91*O$1</f>
         <v>0</v>
       </c>
       <c r="AE91" s="1">
-        <f t="shared" ref="AE91" si="406">P91*P$1</f>
-        <v>0</v>
+        <f>P91*P$1</f>
+        <v>1179648</v>
       </c>
       <c r="AF91" s="1">
-        <f t="shared" ref="AF91" si="407">SUM(Q91:AE91)</f>
-        <v>2048</v>
+        <f>SUM(Q91:AE91)</f>
+        <v>1179648</v>
       </c>
       <c r="AG91" s="1" t="str">
-        <f t="shared" ref="AG91" si="408">DEC2HEX(AF91)</f>
-        <v>800</v>
+        <f>DEC2HEX(AF91)</f>
+        <v>120000</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:P91" xr:uid="{DA935775-8D1E-4973-8D66-2775D912B1F8}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:P91">
-      <sortCondition ref="P2:P91"/>
+  <autoFilter ref="A2:AG91" xr:uid="{DA935775-8D1E-4973-8D66-2775D912B1F8}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:AG91">
+      <sortCondition ref="A2:A91"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>